--- a/dados_ficticios.xlsx
+++ b/dados_ficticios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,1004 +444,1509 @@
           <t>name</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>emissao</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>896730</v>
+        <v>431273</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miranda Gross</t>
+          <t>Melissa King</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>195116</v>
+        <v>568419</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Natalie Morrison</t>
+          <t>Jose Sandoval</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>861790</v>
+        <v>644656</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lee Berger</t>
+          <t>Samantha Larson MD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>626590</v>
+        <v>483975</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Derek Cox</t>
+          <t>Sandra Holmes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28/08/2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>352227</v>
+        <v>763729</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patrick Johnson</t>
+          <t>Jamie Hall</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19/08/2023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64289</v>
+        <v>748198</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Timothy Williams</t>
+          <t>Diane Garcia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>24/04/2024</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>493640</v>
+        <v>647978</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Johnson</t>
+          <t>Randy Carroll</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24/10/2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>728736</v>
+        <v>677509</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Holly Eaton</t>
+          <t>Jerry Lyons</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19/08/2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>423744</v>
+        <v>17709</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sharon Walker</t>
+          <t>Troy Pope</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>28/11/2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>569474</v>
+        <v>234375</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kimberly Anderson</t>
+          <t>Sean Thomas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>29/12/2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>497042</v>
+        <v>733615</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sierra Simmons</t>
+          <t>Dwayne Stephenson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>309449</v>
+        <v>902373</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Frank Roberts</t>
+          <t>Edward Young</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>650326</v>
+        <v>200091</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Laura Cooper</t>
+          <t>Nicole Green</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>102721</v>
+        <v>78880</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Scott Hernandez</t>
+          <t>Jamie Wilson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>323612</v>
+        <v>293479</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Robert Roberts</t>
+          <t>Crystal Ward</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21/01/2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>58986</v>
+        <v>875824</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Joseph Sanders</t>
+          <t>Ellen Robinson</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>03/12/2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>997361</v>
+        <v>412477</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Robert Turner</t>
+          <t>Alexandra Herrera</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>811469</v>
+        <v>966513</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rachel Osborne</t>
+          <t>Eric Hernandez</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>29/10/2023</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>821209</v>
+        <v>775366</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gabriel Rogers</t>
+          <t>Christina Holt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>909910</v>
+        <v>557867</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Brandi Henry</t>
+          <t>Evan Ponce</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15/03/2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>453765</v>
+        <v>527103</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nathaniel Morales</t>
+          <t>Michael Ramos</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>28/11/2023</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>701828</v>
+        <v>826960</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tanner Saunders</t>
+          <t>Daniel Cole</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>26/08/2023</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>324175</v>
+        <v>233131</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Heather Garcia</t>
+          <t>Katrina Velasquez</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23/09/2023</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>267006</v>
+        <v>373940</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>William Perry</t>
+          <t>Monica Boone</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>26/05/2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>659953</v>
+        <v>818037</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>William Delgado</t>
+          <t>Claudia Campbell</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12/01/2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>719856</v>
+        <v>304399</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alexandra Delgado</t>
+          <t>Helen Garcia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24/09/2023</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>925282</v>
+        <v>349412</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jose Smith</t>
+          <t>Randy Koch</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>26/07/2023</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>274253</v>
+        <v>984306</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Danielle Cook</t>
+          <t>Mrs. Terri Merritt</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>24/04/2024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>76205</v>
+        <v>52754</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Matthew White</t>
+          <t>Alicia Miller MD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>26/11/2023</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>531298</v>
+        <v>448639</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Daniel Dawson</t>
+          <t>William Howard</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>969995</v>
+        <v>329482</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tracy Park</t>
+          <t>Victoria Patrick</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>290677</v>
+        <v>83383</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Karen Bolton</t>
+          <t>Catherine Moore PhD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25/11/2023</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>673434</v>
+        <v>902706</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Daniel Sanchez</t>
+          <t>Jordan Cruz</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>156568</v>
+        <v>683685</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cheryl Gordon</t>
+          <t>Gloria Shannon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>939476</v>
+        <v>813224</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Veronica Brown</t>
+          <t>Denise Copeland</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>767176</v>
+        <v>485064</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>David Turner MD</t>
+          <t>Amanda Khan</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>386081</v>
+        <v>700733</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Robert Savage</t>
+          <t>Joseph Jackson</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>25/07/2023</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>384120</v>
+        <v>632848</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Diana Castaneda</t>
+          <t>Rebecca Aguilar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>731569</v>
+        <v>619606</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Devin Taylor</t>
+          <t>Kelly Perry</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22/02/2024</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>419311</v>
+        <v>250596</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Shane Bennett</t>
+          <t>Christopher Becker</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>627304</v>
+        <v>104146</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Troy Miller</t>
+          <t>Mr. Lawrence Jones DDS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12/05/2024</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>842840</v>
+        <v>633474</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Joseph Salinas</t>
+          <t>Danielle Peters</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>133227</v>
+        <v>859075</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rachel Cruz</t>
+          <t>Paula Douglas</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>458183</v>
+        <v>206227</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Stephanie Green</t>
+          <t>Mary Sanchez</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>24/08/2023</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>720745</v>
+        <v>480783</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>David Johnson</t>
+          <t>Jeffrey Ramirez</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>09/08/2023</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>652400</v>
+        <v>770860</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ryan Morrow</t>
+          <t>John Mcneil</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130601</v>
+        <v>86718</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mark Scott</t>
+          <t>Lauren Flores</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>30/05/2023</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>602938</v>
+        <v>160783</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dr. Edward Chen</t>
+          <t>Anne Morris</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>09/03/2024</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>70868</v>
+        <v>612594</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Joanna Oliver</t>
+          <t>Jesse Perez</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>159381</v>
+        <v>985611</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Susan Walker</t>
+          <t>Daniel Floyd</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>324794</v>
+        <v>923954</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Stephanie Mcdonald</t>
+          <t>Anthony Zimmerman</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>983010</v>
+        <v>721223</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Johnny Cox</t>
+          <t>George Sanchez</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16/07/2023</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>195686</v>
+        <v>478763</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Donna Lawson</t>
+          <t>Bradley Saunders</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>04/07/2023</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28112</v>
+        <v>632628</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wayne Harris</t>
+          <t>Frederick Adams</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>361751</v>
+        <v>934949</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rebecca Martinez</t>
+          <t>Alison Daniels</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>23/05/2023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>26679</v>
+        <v>870969</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jonathan Nelson</t>
+          <t>Richard Sweeney</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>31/05/2023</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>932360</v>
+        <v>482888</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Christy Mejia</t>
+          <t>Sharon Gonzalez</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>503642</v>
+        <v>185513</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Debra Matthews DVM</t>
+          <t>Joshua Harrell</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>22/02/2024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>500599</v>
+        <v>631382</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jessica Rice</t>
+          <t>Loretta Huffman</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>12/06/2023</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29220</v>
+        <v>448403</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Donna Roberts</t>
+          <t>Cynthia Holmes</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>982918</v>
+        <v>874128</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mr. Adam Figueroa</t>
+          <t>Kelsey Shaffer</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>29/02/2024</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>779279</v>
+        <v>229538</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>John Madden</t>
+          <t>Sophia Miller</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4688</v>
+        <v>396995</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Joseph Gomez</t>
+          <t>Michael Rogers</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>03/08/2023</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>454110</v>
+        <v>669081</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jessica Smith</t>
+          <t>Rick Garrett</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>28/07/2023</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>782503</v>
+        <v>691411</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tanya Campos</t>
+          <t>Cristina Bass</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>02/11/2023</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>99811</v>
+        <v>267302</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Elizabeth Anderson</t>
+          <t>James Thomas</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>700455</v>
+        <v>168258</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Zachary French</t>
+          <t>Christian Smith</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>06/12/2023</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>976721</v>
+        <v>11682</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Erica Huerta</t>
+          <t>Christy Harris</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>816367</v>
+        <v>173661</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tiffany Warner</t>
+          <t>Mr. Hunter Watson</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>14/04/2024</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>407218</v>
+        <v>307318</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Heather Johnson</t>
+          <t>Jillian Gonzalez</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>201542</v>
+        <v>552607</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Alexis Estrada</t>
+          <t>Michael Fuentes</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>925611</v>
+        <v>536687</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jacob Jones</t>
+          <t>James Johnson</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>497994</v>
+        <v>737932</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Holly Zimmerman</t>
+          <t>Michael Cooper</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>278516</v>
+        <v>295432</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jason Moore</t>
+          <t>Anthony Petersen</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>742106</v>
+        <v>185312</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jacqueline Fowler</t>
+          <t>Dr. Rachel Mccarthy</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>464091</v>
+        <v>612005</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Robin Taylor</t>
+          <t>Elaine Hood</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>72551</v>
+        <v>931893</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Donald Murray</t>
+          <t>Jonathan Martin</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>27/08/2023</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>352943</v>
+        <v>616612</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Barbara Maldonado</t>
+          <t>Laura Wyatt</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>05/11/2023</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>212378</v>
+        <v>773117</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Laura Stephens</t>
+          <t>Stephanie Campbell</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>29/10/2023</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>262166</v>
+        <v>124091</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Alison Patterson</t>
+          <t>Jacob Davis</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>898647</v>
+        <v>913524</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kelly Peck</t>
+          <t>Amber West</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>02/03/2024</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>528730</v>
+        <v>144729</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Patricia Smith</t>
+          <t>Edward Mclaughlin</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>504640</v>
+        <v>987220</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Joseph Holmes</t>
+          <t>Ashley Fox</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>08/12/2023</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>393931</v>
+        <v>850346</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kimberly Young</t>
+          <t>Jennifer Nielsen</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>16/07/2023</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>979235</v>
+        <v>524888</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cynthia Proctor</t>
+          <t>Lindsey Rogers</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>674786</v>
+        <v>746343</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Benjamin Evans</t>
+          <t>Brianna Maldonado</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>17/05/2023</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>71154</v>
+        <v>362561</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ronald Peterson</t>
+          <t>Dr. Mary Conway MD</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>340155</v>
+        <v>214971</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Christine Smith</t>
+          <t>Robert Vang</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>22/02/2024</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>598729</v>
+        <v>641884</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Amy Shaffer</t>
+          <t>Angelica Simmons</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15/04/2024</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>192016</v>
+        <v>276013</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Henry Young</t>
+          <t>Bobby Cole</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>26/02/2024</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>389603</v>
+        <v>748670</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kristin Ibarra</t>
+          <t>John Watson</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18/05/2023</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>135364</v>
+        <v>578712</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sarah Bruce</t>
+          <t>Olivia Miles</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>302296</v>
+        <v>601560</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>James Hogan</t>
+          <t>Brittany Hogan</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>30/05/2023</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>349887</v>
+        <v>956995</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Wendy Chen</t>
+          <t>George Walsh</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>139892</v>
+        <v>866981</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Donald Gordon</t>
+          <t>Caitlyn York</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>85407</v>
+        <v>481533</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ashley Ward</t>
+          <t>Terri Adams</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>12/06/2023</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>866365</v>
+        <v>16627</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Amanda Murray</t>
+          <t>Ana Logan</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>31/10/2023</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>129003</v>
+        <v>585295</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kathy Poole</t>
+          <t>Brandy Mullins</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>18/07/2023</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>396782</v>
+        <v>217813</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Elizabeth Williams</t>
+          <t>Samantha Garcia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>745706</v>
+        <v>366509</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dana Rowland</t>
+          <t>Jennifer Ellis</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>28/07/2023</t>
         </is>
       </c>
     </row>

--- a/dados_ficticios.xlsx
+++ b/dados_ficticios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>fornecedor_id</t>
+          <t>Nº NF</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>emissao</t>
         </is>
@@ -452,614 +457,819 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>431273</v>
+        <v>110941</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Melissa King</t>
+          <t>Keller Inc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/03/2024</t>
+          <t>Jacob Webb</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>568419</v>
+        <v>751289</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jose Sandoval</t>
+          <t>Martin, Carter and Perez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14/05/2024</t>
+          <t>Joe Patel</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/06/2023</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>644656</v>
+        <v>122239</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samantha Larson MD</t>
+          <t>Parrish, Wilson and Austin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>Sandra Craig PhD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>06/04/2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>483975</v>
+        <v>498257</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sandra Holmes</t>
+          <t>Harrington, Clark and Hines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/08/2023</t>
+          <t>Robert Wilcox</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10/08/2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>763729</v>
+        <v>204881</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jamie Hall</t>
+          <t>Martinez Group</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19/08/2023</t>
+          <t>Amy Guerrero</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22/06/2023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>748198</v>
+        <v>360545</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diane Garcia</t>
+          <t>Morris-Tucker</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24/04/2024</t>
+          <t>Linda Howe</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24/05/2023</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>647978</v>
+        <v>712221</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Randy Carroll</t>
+          <t>Kelley, Cuevas and Little</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>Brandy Walker</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>02/12/2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>677509</v>
+        <v>637208</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jerry Lyons</t>
+          <t>Austin and Sons</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19/08/2023</t>
+          <t>Dustin White</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19/01/2024</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17709</v>
+        <v>608757</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Troy Pope</t>
+          <t>Barber PLC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>Holly Atkinson</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>234375</v>
+        <v>355127</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sean Thomas</t>
+          <t>Ray-Adams</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>Michelle Jones</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21/08/2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>733615</v>
+        <v>461162</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dwayne Stephenson</t>
+          <t>Stevens-Norman</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10/06/2023</t>
+          <t>Mary Cain</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>902373</v>
+        <v>980015</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edward Young</t>
+          <t>Gonzales, Moore and Taylor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>Alice Weaver</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26/05/2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>200091</v>
+        <v>905914</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nicole Green</t>
+          <t>Ray, Kelly and Holloway</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>Heather Rogers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78880</v>
+        <v>27322</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jamie Wilson</t>
+          <t>Mccullough PLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/03/2024</t>
+          <t>Christopher Bowman</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>293479</v>
+        <v>430885</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crystal Ward</t>
+          <t>Rivas-Garcia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>Michael Phillips</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>875824</v>
+        <v>420261</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ellen Robinson</t>
+          <t>Anderson-Tanner</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>Tristan Patterson</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>412477</v>
+        <v>801891</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alexandra Herrera</t>
+          <t>Wilson, Orr and Berg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>Thomas Grant</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>966513</v>
+        <v>825625</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Eric Hernandez</t>
+          <t>Galvan Inc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29/10/2023</t>
+          <t>Raymond Smith</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31/10/2023</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>775366</v>
+        <v>116921</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Christina Holt</t>
+          <t>Franklin Group</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/03/2024</t>
+          <t>Julia Boone</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11/08/2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>557867</v>
+        <v>986704</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Evan Ponce</t>
+          <t>Carter LLC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>Andrea Morrow</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10/04/2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>527103</v>
+        <v>126420</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michael Ramos</t>
+          <t>Morrison-Robinson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>Brian Harvey</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22/04/2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>826960</v>
+        <v>221956</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Daniel Cole</t>
+          <t>Charles-Castillo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>26/08/2023</t>
+          <t>John Welch</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>233131</v>
+        <v>959002</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Katrina Velasquez</t>
+          <t>Howard-Hill</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>Justin Flores</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>373940</v>
+        <v>49612</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Monica Boone</t>
+          <t>Davis-Crawford</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
+          <t>Brian Lloyd</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>818037</v>
+        <v>780517</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Claudia Campbell</t>
+          <t>Yu PLC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>Victoria Jones</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>02/11/2023</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>304399</v>
+        <v>607953</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Helen Garcia</t>
+          <t>Carter, Owens and Wilcox</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>Mckenzie Peterson</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>349412</v>
+        <v>590378</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Randy Koch</t>
+          <t>Walton-Serrano</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>26/07/2023</t>
+          <t>Bill James</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15/11/2023</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>984306</v>
+        <v>888103</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mrs. Terri Merritt</t>
+          <t>Martin, Osborne and Lewis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>24/04/2024</t>
+          <t>Robert Richards</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19/02/2024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>52754</v>
+        <v>963965</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alicia Miller MD</t>
+          <t>Jones-Mata</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>Angela Murray</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>448639</v>
+        <v>214068</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>William Howard</t>
+          <t>Tapia, Lowery and Perry</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>Mary Warren</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26/06/2023</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>329482</v>
+        <v>59190</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Victoria Patrick</t>
+          <t>White-Humphrey</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
+          <t>Antonio Thornton</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27/02/2024</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>83383</v>
+        <v>672944</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Catherine Moore PhD</t>
+          <t>Thomas-Harris</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>Robert Johnson</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13/01/2024</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>902706</v>
+        <v>503066</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jordan Cruz</t>
+          <t>Mann, Barton and Lang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>Isaac Powers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>683685</v>
+        <v>252297</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gloria Shannon</t>
+          <t>Bridges Ltd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>Elizabeth Cruz</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>813224</v>
+        <v>774684</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Denise Copeland</t>
+          <t>Curtis and Sons</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>02/10/2023</t>
+          <t>Kristy Williams</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>27/07/2023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>485064</v>
+        <v>8989</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amanda Khan</t>
+          <t>Lee PLC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>Tanner Nelson</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20/07/2023</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>700733</v>
+        <v>431212</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Joseph Jackson</t>
+          <t>Long Inc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>25/07/2023</t>
+          <t>Catherine Hansen</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>632848</v>
+        <v>398061</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rebecca Aguilar</t>
+          <t>Orr-Gutierrez</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>Susan Robertson</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>619606</v>
+        <v>868674</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kelly Perry</t>
+          <t>Rios, Wallace and Williamson</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>Anthony Murphy</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>250596</v>
+        <v>211277</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Christopher Becker</t>
+          <t>Ramirez, Jones and Lane</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03/10/2023</t>
+          <t>Stephen Patel</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13/01/2024</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104146</v>
+        <v>211593</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mr. Lawrence Jones DDS</t>
+          <t>Zamora, Stuart and Jackson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
+        <is>
+          <t>James Dunn</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>12/05/2024</t>
         </is>
@@ -1067,886 +1277,1181 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>633474</v>
+        <v>146207</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Danielle Peters</t>
+          <t>Jones LLC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17/07/2023</t>
+          <t>Rachel Shepherd</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>859075</v>
+        <v>967932</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Paula Douglas</t>
+          <t>Gordon, Mclean and Freeman</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>Jose Stein</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>06/05/2024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>206227</v>
+        <v>500580</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mary Sanchez</t>
+          <t>Miller and Sons</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>24/08/2023</t>
+          <t>Juan Newton</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>02/09/2023</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>480783</v>
+        <v>964388</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jeffrey Ramirez</t>
+          <t>Jenkins-Townsend</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>Elizabeth Dawson</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>770860</v>
+        <v>225475</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>John Mcneil</t>
+          <t>Lopez-Blackwell</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>19/05/2023</t>
+          <t>Dominic Haynes</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11/08/2023</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>86718</v>
+        <v>770765</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lauren Flores</t>
+          <t>Arnold-Swanson</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30/05/2023</t>
+          <t>Luke Bell</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>160783</v>
+        <v>838847</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Anne Morris</t>
+          <t>Love, Brooks and Snow</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>Gary Sanchez</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14/11/2023</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>612594</v>
+        <v>66605</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jesse Perez</t>
+          <t>Cox-Wade</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>Russell Mendoza</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>985611</v>
+        <v>26056</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Daniel Floyd</t>
+          <t>Massey Group</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>03/11/2023</t>
+          <t>Christopher Mcneil</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>923954</v>
+        <v>993941</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Anthony Zimmerman</t>
+          <t>Austin, Smith and Guzman</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>Donna Hart</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>721223</v>
+        <v>550549</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>George Sanchez</t>
+          <t>Butler-Hayes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16/07/2023</t>
+          <t>Garrett Gallagher</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20/02/2024</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>478763</v>
+        <v>771335</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bradley Saunders</t>
+          <t>Vance Inc</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>04/07/2023</t>
+          <t>Kim Bryant</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>23/07/2023</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>632628</v>
+        <v>508188</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Frederick Adams</t>
+          <t>Reyes PLC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>06/09/2023</t>
+          <t>Lindsay Mullen</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>05/06/2023</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>934949</v>
+        <v>620375</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Alison Daniels</t>
+          <t>Phillips, Daugherty and Webb</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>23/05/2023</t>
+          <t>Hailey Hill</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>26/05/2023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>870969</v>
+        <v>844536</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Richard Sweeney</t>
+          <t>Hunt, Patel and Perez</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/05/2023</t>
+          <t>Jamie Rich</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>482888</v>
+        <v>743771</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sharon Gonzalez</t>
+          <t>Hall, Newman and Holt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>Terry Hutchinson</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>19/06/2023</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>185513</v>
+        <v>595606</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Joshua Harrell</t>
+          <t>Henson Group</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>Caitlin Hughes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>31/10/2023</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>631382</v>
+        <v>652975</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Loretta Huffman</t>
+          <t>Osborne, Robinson and Oliver</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12/06/2023</t>
+          <t>Jeremy Lopez</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23/03/2024</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>448403</v>
+        <v>172402</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cynthia Holmes</t>
+          <t>Holland, Norris and Moore</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>Elizabeth Perry</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>874128</v>
+        <v>712392</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kelsey Shaffer</t>
+          <t>Juarez and Sons</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>Robin Vang</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16/08/2023</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>229538</v>
+        <v>216297</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sophia Miller</t>
+          <t>Simon, Smith and Morgan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>Lisa Cannon</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>396995</v>
+        <v>840485</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Michael Rogers</t>
+          <t>Obrien-Vega</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>Scott Chase</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>09/06/2023</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>669081</v>
+        <v>95260</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rick Garrett</t>
+          <t>Watson Ltd</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>28/07/2023</t>
+          <t>Chelsea Hicks</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>29/04/2024</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>691411</v>
+        <v>612469</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cristina Bass</t>
+          <t>Torres, Miller and Lee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>02/11/2023</t>
+          <t>Kimberly Gordon</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>31/05/2023</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>267302</v>
+        <v>361352</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>James Thomas</t>
+          <t>Nichols, Medina and Adams</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>Jessica Harding</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>27/11/2023</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>168258</v>
+        <v>817157</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Christian Smith</t>
+          <t>Gutierrez-Harris</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>Paul Greer</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>09/08/2023</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11682</v>
+        <v>365166</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Christy Harris</t>
+          <t>Christensen Group</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>Justin Douglas</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>04/06/2023</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>173661</v>
+        <v>491634</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mr. Hunter Watson</t>
+          <t>Harvey-Arias</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14/04/2024</t>
+          <t>Mike Cook</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>18/01/2024</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>307318</v>
+        <v>150641</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jillian Gonzalez</t>
+          <t>Walton-Taylor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15/06/2023</t>
+          <t>Robert Gray Jr.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>30/07/2023</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>552607</v>
+        <v>750165</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Michael Fuentes</t>
+          <t>Mcmillan, Coleman and Vang</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>02/04/2024</t>
+          <t>James Boyd</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>536687</v>
+        <v>127885</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Smith Group</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>Daniel Smith</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>737932</v>
+        <v>542809</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Michael Cooper</t>
+          <t>Green-Jones</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10/09/2023</t>
+          <t>Stacy Hernandez</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>06/08/2023</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>295432</v>
+        <v>848500</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Anthony Petersen</t>
+          <t>Sanchez-Mcgee</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>Jennifer Murray</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>24/07/2023</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>185312</v>
+        <v>398107</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dr. Rachel Mccarthy</t>
+          <t>Little LLC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>Kimberly Richard</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>29/08/2023</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>612005</v>
+        <v>268063</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Elaine Hood</t>
+          <t>Young, Blair and Monroe</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>Jodi Brown</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>08/08/2023</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>931893</v>
+        <v>917016</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jonathan Martin</t>
+          <t>Myers-Walker</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>Kevin Smith</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>30/08/2023</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>616612</v>
+        <v>100173</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Laura Wyatt</t>
+          <t>Moss-Brooks</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>Lisa Barber</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>773117</v>
+        <v>998648</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Stephanie Campbell</t>
+          <t>Smith Ltd</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>29/10/2023</t>
+          <t>Pedro Pierce</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>124091</v>
+        <v>249880</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jacob Davis</t>
+          <t>Campbell, Carroll and Webb</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>Samuel Patel</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>913524</v>
+        <v>469778</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Amber West</t>
+          <t>Soto, Knight and Thomas</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>02/03/2024</t>
+          <t>Brian Lopez</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>21/06/2023</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>144729</v>
+        <v>184613</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Edward Mclaughlin</t>
+          <t>Rodriguez-Smith</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>26/04/2024</t>
+          <t>Deborah Mitchell</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>987220</v>
+        <v>682130</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ashley Fox</t>
+          <t>Gutierrez Inc</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>Daniel Dunlap</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>850346</v>
+        <v>336625</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jennifer Nielsen</t>
+          <t>Ferrell-Lee</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16/07/2023</t>
+          <t>Michael Hernandez</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>524888</v>
+        <v>999624</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lindsey Rogers</t>
+          <t>Carpenter, Mann and Wiley</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>Alicia White</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>746343</v>
+        <v>777477</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Brianna Maldonado</t>
+          <t>Shepard and Sons</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17/05/2023</t>
+          <t>Robert Smith</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>362561</v>
+        <v>670685</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dr. Mary Conway MD</t>
+          <t>Moyer, Shepherd and Reynolds</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>Lindsay Mckinney</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>10/04/2024</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>214971</v>
+        <v>232854</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Robert Vang</t>
+          <t>Garcia, Willis and Sullivan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>Kurt Barr</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>641884</v>
+        <v>932351</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Angelica Simmons</t>
+          <t>Stewart, Wilson and Perez</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15/04/2024</t>
+          <t>Jacob Hoffman</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>02/09/2023</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>276013</v>
+        <v>170549</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Bobby Cole</t>
+          <t>Gibson, Black and Stone</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>Lisa Myers</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>16/02/2024</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>748670</v>
+        <v>747268</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>John Watson</t>
+          <t>Davis-Henderson</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>Samantha Simpson</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>28/08/2023</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>578712</v>
+        <v>265595</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Olivia Miles</t>
+          <t>Logan, Murphy and Dunn</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>30/09/2023</t>
+          <t>Vanessa Jimenez</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>601560</v>
+        <v>948710</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Brittany Hogan</t>
+          <t>Ward, Morgan and Lawson</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>30/05/2023</t>
+          <t>Amber Mosley</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>956995</v>
+        <v>60048</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>George Walsh</t>
+          <t>Bell and Sons</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>31/03/2024</t>
+          <t>Patricia Schneider</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>866981</v>
+        <v>598134</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Caitlyn York</t>
+          <t>Young Inc</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>13/05/2024</t>
+          <t>Alejandro Weaver</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>05/07/2023</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>481533</v>
+        <v>196910</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Terri Adams</t>
+          <t>Stanley-Holland</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12/06/2023</t>
+          <t>Erika Flores</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>02/11/2023</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16627</v>
+        <v>722340</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ana Logan</t>
+          <t>Escobar Group</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>Ryan Johnson</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>24/08/2023</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>585295</v>
+        <v>223893</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Brandy Mullins</t>
+          <t>Gonzalez-Marshall</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>Bobby Grant</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>11/02/2024</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>217813</v>
+        <v>149090</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Samantha Garcia</t>
+          <t>Miller-Grant</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>02/04/2024</t>
+          <t>Jennifer Brown</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>09/05/2024</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>366509</v>
+        <v>444615</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jennifer Ellis</t>
+          <t>Cooper-Friedman</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>28/07/2023</t>
+          <t>Marc Armstrong</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>08/02/2024</t>
         </is>
       </c>
     </row>

--- a/dados_ficticios.xlsx
+++ b/dados_ficticios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,2018 +441,2828 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>emissao</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Cliente</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CNPJ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>emissao</t>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110941</v>
+        <v>886371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Keller Inc</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jacob Webb</t>
+          <t>Waters, Barnes and Castillo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
-        </is>
+          <t>14.332.523/0001-74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Daniel Rogers</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1594.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>751289</v>
+        <v>434247</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martin, Carter and Perez</t>
+          <t>19/06/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Joe Patel</t>
+          <t>Smith-Lee</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11/06/2023</t>
-        </is>
+          <t>45.114.201/0001-74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Jennifer Webster</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5173.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>122239</v>
+        <v>56005</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parrish, Wilson and Austin</t>
+          <t>20/08/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sandra Craig PhD</t>
+          <t>Green, Rodriguez and Christensen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06/04/2024</t>
-        </is>
+          <t>16.658.101/0001-00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Samantha Mendoza</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>416.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>498257</v>
+        <v>200060</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Harrington, Clark and Hines</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Robert Wilcox</t>
+          <t>Ramos Inc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
-        </is>
+          <t>26.469.287/0001-38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Virginia Huff</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6343.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>204881</v>
+        <v>705569</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Martinez Group</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Amy Guerrero</t>
+          <t>Johnson Group</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22/06/2023</t>
-        </is>
+          <t>72.448.562/0001-38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>John Cruz</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4150.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>360545</v>
+        <v>411204</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Morris-Tucker</t>
+          <t>22/07/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Linda Howe</t>
+          <t>Wells, Wyatt and Arias</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
-        </is>
+          <t>84.135.472/0001-92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lorraine Miller</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4135.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>712221</v>
+        <v>125576</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kelley, Cuevas and Little</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brandy Walker</t>
+          <t>Bishop-Ward</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02/12/2023</t>
-        </is>
+          <t>83.392.089/0001-65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mariah Gilbert</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1497.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>637208</v>
+        <v>2275</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Austin and Sons</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dustin White</t>
+          <t>May Ltd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
-        </is>
+          <t>03.765.473/0001-00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Timothy Walker</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7917.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>608757</v>
+        <v>790769</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Barber PLC</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Holly Atkinson</t>
+          <t>Ward Ltd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02/05/2024</t>
-        </is>
+          <t>40.717.043/0001-74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Amanda Norris</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>8325.950000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>355127</v>
+        <v>499387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ray-Adams</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Michelle Jones</t>
+          <t>Chavez-Kane</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21/08/2023</t>
-        </is>
+          <t>61.056.948/0001-29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ariel Mercer</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4136.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>461162</v>
+        <v>924553</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Stevens-Norman</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mary Cain</t>
+          <t>Ross PLC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
-        </is>
+          <t>79.534.867/0001-10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Miss Jennifer Horton MD</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5844.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>980015</v>
+        <v>663472</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gonzales, Moore and Taylor</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alice Weaver</t>
+          <t>Castillo, Burton and Norman</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
-        </is>
+          <t>19.692.279/0001-74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Alexis Hawkins</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4150.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>905914</v>
+        <v>983591</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ray, Kelly and Holloway</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Heather Rogers</t>
+          <t>James-Schroeder</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12/04/2024</t>
-        </is>
+          <t>85.412.892/0001-74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tiffany Johnson</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1642.65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>27322</v>
+        <v>352654</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mccullough PLC</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Christopher Bowman</t>
+          <t>Herrera, Garza and Turner</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
-        </is>
+          <t>43.607.382/0001-29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adrienne Robinson</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4110.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>430885</v>
+        <v>434760</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rivas-Garcia</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Michael Phillips</t>
+          <t>Anderson, Baker and Ferguson</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
-        </is>
+          <t>97.599.271/0001-47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Robin Chung</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>6099.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>420261</v>
+        <v>890404</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Anderson-Tanner</t>
+          <t>05/09/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tristan Patterson</t>
+          <t>Singh-Chambers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12/09/2023</t>
-        </is>
+          <t>44.314.428/0001-92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lisa Flores</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2156.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>801891</v>
+        <v>249680</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wilson, Orr and Berg</t>
+          <t>10/07/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thomas Grant</t>
+          <t>Boyle Inc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
-        </is>
+          <t>26.281.124/0001-00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Brenda Miller</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>6897.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>825625</v>
+        <v>889520</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Galvan Inc</t>
+          <t>13/05/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Raymond Smith</t>
+          <t>Craig Inc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
-        </is>
+          <t>13.831.369/0001-47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Daniel Marquez</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4083.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>116921</v>
+        <v>657574</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Franklin Group</t>
+          <t>26/04/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Julia Boone</t>
+          <t>Smith, Flynn and Carlson</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11/08/2023</t>
-        </is>
+          <t>33.057.311/0001-38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Rebecca Palmer</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>7171.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>986704</v>
+        <v>752848</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Carter LLC</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Andrea Morrow</t>
+          <t>Baker and Sons</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
-        </is>
+          <t>86.801.966/0001-00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Kent White</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3189.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>126420</v>
+        <v>821041</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Morrison-Robinson</t>
+          <t>22/04/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brian Harvey</t>
+          <t>Short, Young and Velazquez</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22/04/2024</t>
-        </is>
+          <t>21.728.816/0001-65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Raymond Payne</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7067</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>221956</v>
+        <v>498413</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Charles-Castillo</t>
+          <t>06/06/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>John Welch</t>
+          <t>Curtis-Medina</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25/05/2023</t>
-        </is>
+          <t>30.268.572/0001-92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Kimberly Conley</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>7286.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>959002</v>
+        <v>505693</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Howard-Hill</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Justin Flores</t>
+          <t>Foster Inc</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
-        </is>
+          <t>28.311.591/0001-29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jeffrey Mathews</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>8666.450000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>49612</v>
+        <v>749493</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Davis-Crawford</t>
+          <t>04/04/2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brian Lloyd</t>
+          <t>Morris-Gardner</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>04/09/2023</t>
-        </is>
+          <t>63.798.580/0001-83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jasmin Gregory</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>7362.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>780517</v>
+        <v>862384</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Yu PLC</t>
+          <t>09/05/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Victoria Jones</t>
+          <t>Johnson PLC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02/11/2023</t>
-        </is>
+          <t>28.934.284/0001-29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Kristina Rubio</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>8553.68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>607953</v>
+        <v>676223</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Carter, Owens and Wilcox</t>
+          <t>29/03/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mckenzie Peterson</t>
+          <t>Reilly, Luna and Charles</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>05/09/2023</t>
-        </is>
+          <t>35.291.125/0001-00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Jamie Gibson</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>8452.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>590378</v>
+        <v>368660</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Walton-Serrano</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bill James</t>
+          <t>Warren-Lopez</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
-        </is>
+          <t>13.151.818/0001-65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Douglas Mcguire</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>8622.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>888103</v>
+        <v>897674</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Martin, Osborne and Lewis</t>
+          <t>18/06/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Robert Richards</t>
+          <t>Brown-Vasquez</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
-        </is>
+          <t>38.468.201/0001-74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Krista Watson</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>5374.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>963965</v>
+        <v>273236</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jones-Mata</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Angela Murray</t>
+          <t>Anderson PLC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
-        </is>
+          <t>52.721.178/0001-92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yolanda Woods MD</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2279.72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>214068</v>
+        <v>97314</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tapia, Lowery and Perry</t>
+          <t>20/08/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mary Warren</t>
+          <t>Juarez Group</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26/06/2023</t>
-        </is>
+          <t>92.727.472/0001-00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Natalie Miller</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2025.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>59190</v>
+        <v>323616</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>White-Humphrey</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Antonio Thornton</t>
+          <t>Johnson-Matthews</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
-        </is>
+          <t>55.351.367/0001-92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Jessica Brown</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>6941.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>672944</v>
+        <v>549333</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Thomas-Harris</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Robert Johnson</t>
+          <t>Pacheco, Cruz and Taylor</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
-        </is>
+          <t>95.196.552/0001-74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Michael Ballard</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>7153.57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>503066</v>
+        <v>644363</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mann, Barton and Lang</t>
+          <t>26/04/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Isaac Powers</t>
+          <t>Smith and Sons</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>05/10/2023</t>
-        </is>
+          <t>56.978.234/0001-38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sheila Cross</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>7315.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252297</v>
+        <v>532811</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bridges Ltd</t>
+          <t>03/11/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Elizabeth Cruz</t>
+          <t>Payne Inc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
-        </is>
+          <t>46.269.682/0001-92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Steven Wong</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2159.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>774684</v>
+        <v>201362</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Curtis and Sons</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kristy Williams</t>
+          <t>James, Mcdonald and Reyes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27/07/2023</t>
-        </is>
+          <t>98.155.462/0001-74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Samuel Johnson</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>8821.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8989</v>
+        <v>178203</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lee PLC</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tanner Nelson</t>
+          <t>Sharp-Jones</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20/07/2023</t>
-        </is>
+          <t>59.286.725/0001-65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Joseph Larson</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>457.47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>431212</v>
+        <v>759164</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Long Inc</t>
+          <t>29/04/2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Catherine Hansen</t>
+          <t>Rogers, Smith and Fisher</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
-        </is>
+          <t>08.405.882/0001-10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Michael Ruiz</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>418.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>398061</v>
+        <v>355326</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Orr-Gutierrez</t>
+          <t>09/05/2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Susan Robertson</t>
+          <t>Porter-Rose</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>27/03/2024</t>
-        </is>
+          <t>44.692.124/0001-00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Linda Smith</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>6604.58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>868674</v>
+        <v>970762</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rios, Wallace and Williamson</t>
+          <t>07/06/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Anthony Murphy</t>
+          <t>Reyes, Willis and Myers</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
-        </is>
+          <t>03.004.718/0001-10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>John Porter</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>9081.389999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>211277</v>
+        <v>546400</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ramirez, Jones and Lane</t>
+          <t>30/12/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Stephen Patel</t>
+          <t>Shaffer-Rodriguez</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
-        </is>
+          <t>32.915.133/0001-92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Suzanne Hayes</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5676.79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>211593</v>
+        <v>689731</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Zamora, Stuart and Jackson</t>
+          <t>21/05/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>James Dunn</t>
+          <t>Mccoy, Doyle and Ward</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12/05/2024</t>
-        </is>
+          <t>64.264.569/0001-47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Daniel Henderson</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1484.07</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>146207</v>
+        <v>896252</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jones LLC</t>
+          <t>16/04/2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rachel Shepherd</t>
+          <t>Campbell Ltd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
-        </is>
+          <t>54.413.811/0001-00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Curtis Jones</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>6277.82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>967932</v>
+        <v>857231</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gordon, Mclean and Freeman</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Jose Stein</t>
+          <t>West LLC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>06/05/2024</t>
-        </is>
+          <t>76.642.912/0001-29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>David Hill</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2061.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>500580</v>
+        <v>572409</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Miller and Sons</t>
+          <t>27/04/2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Juan Newton</t>
+          <t>Ibarra-Bailey</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
-        </is>
+          <t>76.022.884/0001-47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Rachel Ward</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>558.3200000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>964388</v>
+        <v>437583</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jenkins-Townsend</t>
+          <t>24/06/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Elizabeth Dawson</t>
+          <t>Keller-Harrison</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
-        </is>
+          <t>30.064.294/0001-00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Kevin Freeman</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>9868.82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>225475</v>
+        <v>131319</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lopez-Blackwell</t>
+          <t>07/10/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dominic Haynes</t>
+          <t>Holmes, Stewart and Phillips</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11/08/2023</t>
-        </is>
+          <t>61.120.285/0001-56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Michelle Bradley</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>794.95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>770765</v>
+        <v>674357</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Arnold-Swanson</t>
+          <t>10/06/2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Luke Bell</t>
+          <t>Kent-Allen</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
-        </is>
+          <t>91.872.875/0001-47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Austin Petersen</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1700.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>838847</v>
+        <v>448252</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Love, Brooks and Snow</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gary Sanchez</t>
+          <t>Graham, Wall and Khan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
-        </is>
+          <t>39.799.868/0001-47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Angela Wang</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>7867.82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>66605</v>
+        <v>66462</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cox-Wade</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Russell Mendoza</t>
+          <t>Williams, Mahoney and Garner</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
-        </is>
+          <t>46.011.367/0001-10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Ralph Carey</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>6885.98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26056</v>
+        <v>670442</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Massey Group</t>
+          <t>22/02/2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Christopher Mcneil</t>
+          <t>Johnson LLC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
-        </is>
+          <t>19.760.358/0001-83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Scott Hernandez</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>6908.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>993941</v>
+        <v>602154</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Austin, Smith and Guzman</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Donna Hart</t>
+          <t>Hernandez, Garcia and Crawford</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
-        </is>
+          <t>28.244.433/0001-10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Derrick Owens</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>5766.99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>550549</v>
+        <v>717899</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Butler-Hayes</t>
+          <t>25/05/2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Garrett Gallagher</t>
+          <t>Bryant-Johnson</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
-        </is>
+          <t>47.755.431/0001-56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Matthew Dennis</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>4401.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>771335</v>
+        <v>339899</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Vance Inc</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kim Bryant</t>
+          <t>Tucker Inc</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>23/07/2023</t>
-        </is>
+          <t>17.740.377/0001-47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sandra Williams</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3451.61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>508188</v>
+        <v>178254</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reyes PLC</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lindsay Mullen</t>
+          <t>Bass Inc</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>05/06/2023</t>
-        </is>
+          <t>79.340.813/0001-56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Dr. Joel Keller MD</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>702.65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>620375</v>
+        <v>235054</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Phillips, Daugherty and Webb</t>
+          <t>28/02/2024</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hailey Hill</t>
+          <t>Griffin-Meadows</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
-        </is>
+          <t>88.476.081/0001-92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Jeffrey Delgado</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1721.89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>844536</v>
+        <v>973635</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hunt, Patel and Perez</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Jamie Rich</t>
+          <t>Powers, Sims and Lee</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
-        </is>
+          <t>41.878.829/0001-10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Eric Solis</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>9359.52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>743771</v>
+        <v>634604</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hall, Newman and Holt</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Terry Hutchinson</t>
+          <t>Villa-Shaw</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>19/06/2023</t>
-        </is>
+          <t>48.353.981/0001-10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Shelly Caldwell</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>4921.37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>595606</v>
+        <v>107263</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Henson Group</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Caitlin Hughes</t>
+          <t>Bowman LLC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
-        </is>
+          <t>59.717.147/0001-74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>James Carter</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>9318.299999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>652975</v>
+        <v>538477</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Osborne, Robinson and Oliver</t>
+          <t>20/01/2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jeremy Lopez</t>
+          <t>Wilson Ltd</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
-        </is>
+          <t>55.325.169/0001-38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Kristen Nolan</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2788.87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>172402</v>
+        <v>582464</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Holland, Norris and Moore</t>
+          <t>05/04/2024</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Elizabeth Perry</t>
+          <t>Roach, Allen and Walton</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
-        </is>
+          <t>25.158.985/0001-92</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Emily Anderson</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>9494.459999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>712392</v>
+        <v>603544</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Juarez and Sons</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Robin Vang</t>
+          <t>Paul-Simpson</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
-        </is>
+          <t>70.757.117/0001-83</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Angela Nichols</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2167.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>216297</v>
+        <v>443113</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Simon, Smith and Morgan</t>
+          <t>30/12/2023</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lisa Cannon</t>
+          <t>Hunt and Sons</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
-        </is>
+          <t>57.774.155/0001-00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Mary Harrington</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>245.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>840485</v>
+        <v>253921</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Obrien-Vega</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Scott Chase</t>
+          <t>Phillips and Sons</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>09/06/2023</t>
-        </is>
+          <t>92.088.246/0001-00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Melissa Jacobs</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>6156.62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>95260</v>
+        <v>936457</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Watson Ltd</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Chelsea Hicks</t>
+          <t>Butler, Shepherd and Allison</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>29/04/2024</t>
-        </is>
+          <t>67.715.730/0001-74</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cole Miller</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>8816.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>612469</v>
+        <v>305704</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Torres, Miller and Lee</t>
+          <t>07/07/2023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Kimberly Gordon</t>
+          <t>Chavez, Coleman and Rush</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>31/05/2023</t>
-        </is>
+          <t>93.773.103/0001-83</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Andrea Lambert</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>6747.22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>361352</v>
+        <v>268104</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nichols, Medina and Adams</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jessica Harding</t>
+          <t>Warren, Abbott and Mack</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
-        </is>
+          <t>91.451.839/0001-00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cindy Norris</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>4747.34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>817157</v>
+        <v>426237</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gutierrez-Harris</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Paul Greer</t>
+          <t>Nichols, Small and Morgan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
-        </is>
+          <t>13.248.447/0001-00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Elijah Ward</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5204.13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>365166</v>
+        <v>98160</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Christensen Group</t>
+          <t>24/01/2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Justin Douglas</t>
+          <t>Young Inc</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>04/06/2023</t>
-        </is>
+          <t>12.647.232/0001-74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Mrs. Miranda Camacho</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>4633.58</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>491634</v>
+        <v>918678</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Harvey-Arias</t>
+          <t>30/12/2023</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mike Cook</t>
+          <t>Brown, Howell and Stewart</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
-        </is>
+          <t>33.073.526/0001-00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Caleb Blair</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>7125.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>150641</v>
+        <v>602010</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Walton-Taylor</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Robert Gray Jr.</t>
+          <t>Davis PLC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>30/07/2023</t>
-        </is>
+          <t>76.872.604/0001-65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Adam Gonzales</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>2942.48</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>750165</v>
+        <v>82931</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mcmillan, Coleman and Vang</t>
+          <t>30/10/2023</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>James Boyd</t>
+          <t>Gay, Juarez and Wilson</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
-        </is>
+          <t>86.368.960/0001-83</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Karen Massey</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2055.14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>127885</v>
+        <v>862290</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Smith Group</t>
+          <t>17/03/2024</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Daniel Smith</t>
+          <t>Barker and Sons</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
-        </is>
+          <t>91.101.369/0001-38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Caitlin Murphy</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2133.01</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>542809</v>
+        <v>9219</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Green-Jones</t>
+          <t>13/04/2024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Stacy Hernandez</t>
+          <t>Wheeler-Gutierrez</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>06/08/2023</t>
-        </is>
+          <t>82.651.722/0001-38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>David Weaver</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>6041.87</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>848500</v>
+        <v>724801</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sanchez-Mcgee</t>
+          <t>25/08/2023</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Jennifer Murray</t>
+          <t>Mayer PLC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>24/07/2023</t>
-        </is>
+          <t>44.951.153/0001-65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Daniel Henderson</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>7524.37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>398107</v>
+        <v>777834</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Little LLC</t>
+          <t>24/12/2023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kimberly Richard</t>
+          <t>Johnson PLC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>29/08/2023</t>
-        </is>
+          <t>63.952.074/0001-56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Ray Roman</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1104.91</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>268063</v>
+        <v>197133</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Young, Blair and Monroe</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jodi Brown</t>
+          <t>Mendoza PLC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
-        </is>
+          <t>95.283.030/0001-00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Connor Schroeder</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>8837.129999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>917016</v>
+        <v>202263</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Myers-Walker</t>
+          <t>05/09/2023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kevin Smith</t>
+          <t>Williams-Singleton</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>30/08/2023</t>
-        </is>
+          <t>02.832.893/0001-83</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Katherine Jones</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1888.82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>100173</v>
+        <v>682626</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Moss-Brooks</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lisa Barber</t>
+          <t>Gutierrez, Turner and Johnston</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
-        </is>
+          <t>53.284.167/0001-47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Rebecca Henry</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>2851.75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>998648</v>
+        <v>941227</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Smith Ltd</t>
+          <t>28/04/2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pedro Pierce</t>
+          <t>Cook, Howell and Ferrell</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
-        </is>
+          <t>88.319.450/0001-92</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Kimberly Acevedo</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>3099.72</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>249880</v>
+        <v>993255</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Campbell, Carroll and Webb</t>
+          <t>11/09/2023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Samuel Patel</t>
+          <t>Dennis, Baker and Reyes</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
-        </is>
+          <t>00.732.249/0001-83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>David Riley</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>8417.309999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>469778</v>
+        <v>317690</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Soto, Knight and Thomas</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brian Lopez</t>
+          <t>Roberts, Hayes and Stephens</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>21/06/2023</t>
-        </is>
+          <t>41.857.900/0001-29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sean Jones</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>4617.09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>184613</v>
+        <v>354336</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rodriguez-Smith</t>
+          <t>07/09/2023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Deborah Mitchell</t>
+          <t>Thomas, Elliott and Gonzalez</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
-        </is>
+          <t>63.768.775/0001-56</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Nichole Thomas</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>6398.87</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>682130</v>
+        <v>864201</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gutierrez Inc</t>
+          <t>03/12/2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Daniel Dunlap</t>
+          <t>Nelson, Anderson and Perry</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
-        </is>
+          <t>58.616.266/0001-00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Joanna Stokes</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>9319.870000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>336625</v>
+        <v>10069</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ferrell-Lee</t>
+          <t>14/05/2024</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Michael Hernandez</t>
+          <t>Patel-Browning</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
-        </is>
+          <t>42.281.108/0001-74</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Linda Lopez</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2605.57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>999624</v>
+        <v>313673</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Carpenter, Mann and Wiley</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Alicia White</t>
+          <t>Sparks-Roberts</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
-        </is>
+          <t>11.024.975/0001-92</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Shane Glass</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>6890.43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>777477</v>
+        <v>372055</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Shepard and Sons</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Robert Smith</t>
+          <t>Hansen-Bryant</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>24/01/2024</t>
-        </is>
+          <t>56.024.672/0001-83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Andrew Johnston</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>4818.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>670685</v>
+        <v>55738</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Moyer, Shepherd and Reynolds</t>
+          <t>14/05/2024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lindsay Mckinney</t>
+          <t>Martin and Sons</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
-        </is>
+          <t>15.236.601/0001-83</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Johnathan Evans</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1217.35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>232854</v>
+        <v>46444</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Garcia, Willis and Sullivan</t>
+          <t>08/06/2023</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kurt Barr</t>
+          <t>Mills-Suarez</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
-        </is>
+          <t>10.941.844/0001-74</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bryan Price</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>2941.98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>932351</v>
+        <v>895568</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Stewart, Wilson and Perez</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Jacob Hoffman</t>
+          <t>Smith, Parrish and Larson</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
-        </is>
+          <t>00.575.752/0001-56</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Jennifer Harris</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>9649.48</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>170549</v>
+        <v>966425</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Gibson, Black and Stone</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lisa Myers</t>
+          <t>Swanson LLC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
-        </is>
+          <t>05.033.573/0001-00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Stephen Holland</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>3099.76</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>747268</v>
+        <v>414870</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Davis-Henderson</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Samantha Simpson</t>
+          <t>Martinez-Lopez</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>28/08/2023</t>
-        </is>
+          <t>73.720.222/0001-10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Chelsea Silva</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1360.18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>265595</v>
+        <v>866586</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Logan, Murphy and Dunn</t>
+          <t>19/11/2023</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Vanessa Jimenez</t>
+          <t>Harris, Clark and Armstrong</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>11/07/2023</t>
-        </is>
+          <t>45.163.052/0001-92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Jason Nguyen</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>8971.16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>948710</v>
+        <v>159430</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ward, Morgan and Lawson</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Amber Mosley</t>
+          <t>Drake Ltd</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>28/03/2024</t>
-        </is>
+          <t>20.948.403/0001-74</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>William Morgan</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>8065.18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>60048</v>
+        <v>197936</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bell and Sons</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Patricia Schneider</t>
+          <t>Ortiz-Love</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
-        </is>
+          <t>22.066.611/0001-83</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Brandon Frank</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>5762.55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>598134</v>
+        <v>980445</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Young Inc</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Alejandro Weaver</t>
+          <t>Garcia Ltd</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>05/07/2023</t>
-        </is>
+          <t>38.867.387/0001-00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Phillip Dunn</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>9097.450000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>196910</v>
+        <v>541788</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Stanley-Holland</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Erika Flores</t>
+          <t>Rodgers LLC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>02/11/2023</t>
-        </is>
+          <t>54.061.760/0001-38</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Steven Hardin</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>4222.99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>722340</v>
+        <v>425852</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Escobar Group</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ryan Johnson</t>
+          <t>Sharp-Park</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24/08/2023</t>
-        </is>
+          <t>21.540.702/0001-38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Chad Hernandez</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>6054.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>223893</v>
+        <v>919955</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gonzalez-Marshall</t>
+          <t>20/08/2023</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Bobby Grant</t>
+          <t>Flores Inc</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
-        </is>
+          <t>43.233.511/0001-74</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Jennifer Jones</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>831.85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>149090</v>
+        <v>6728</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Miller-Grant</t>
+          <t>22/04/2024</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Jennifer Brown</t>
+          <t>Odonnell, Mendoza and Roberts</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>09/05/2024</t>
-        </is>
+          <t>90.721.561/0001-56</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Cheyenne Castillo</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>3915.74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>444615</v>
+        <v>754151</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cooper-Friedman</t>
+          <t>24/04/2024</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Marc Armstrong</t>
+          <t>Hunter PLC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
-        </is>
+          <t>43.498.378/0001-29</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Alicia Pearson</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5177.54</v>
       </c>
     </row>
   </sheetData>

--- a/dados_ficticios.xlsx
+++ b/dados_ficticios.xlsx
@@ -547,25 +547,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>791708</v>
+        <v>197033</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Silveira - ME</t>
+          <t>Castro Ribeiro e Filhos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.792.290/0001-83</t>
+          <t>15.531.971/0001-00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -574,27 +574,25 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>perferendis</t>
+          <t>facilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>modi</t>
+          <t>blanditiis</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8661.700000000001</v>
+        <v>3495.25</v>
       </c>
       <c r="J2" t="n">
-        <v>21.79</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>8683.490000000002</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3584.18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>186</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -629,43 +627,43 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>José Garcia</t>
+          <t>Dra. Maria Julia Vieira</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Condomínio da Mata
-Aarão Reis
-66626768 Guerra do Norte / RN</t>
+          <t>Fazenda da Cunha, 41
+Paraíso
+76690073 Garcia Verde / PR</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Ribeiro da Serra</t>
+          <t>Borges</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>317409</v>
+        <v>697007</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Casa Grande</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.848.150/0001-00</t>
+          <t>21.609.306/0001-10</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -674,27 +672,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>eveniet</t>
+          <t>recusandae</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>molestiae</t>
+          <t>ratione</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3434.93</v>
+        <v>5639.06</v>
       </c>
       <c r="J3" t="n">
-        <v>22.98</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>3457.91</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5725.55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>397</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -729,43 +725,43 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Isabel Moraes</t>
+          <t>João Rodrigues</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Chácara Gomes, 26
-Bernadete
-87480-538 da Cunha do Campo / DF</t>
+          <t>Fazenda Ferreira, 5
+Vila Havaí
+89104617 Cirino do Campo / TO</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>da Costa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>447073</v>
+        <v>395531</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07/04/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Machado Ltda.</t>
+          <t>Andrade</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.183.014/0001-47</t>
+          <t>80.442.122/0001-00</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -774,27 +770,25 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>provident</t>
+          <t>dolore</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>culpa</t>
+          <t>praesentium</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9903.299999999999</v>
+        <v>356.03</v>
       </c>
       <c r="J4" t="n">
-        <v>65.89</v>
+        <v>12.07</v>
       </c>
       <c r="K4" t="n">
-        <v>9969.189999999999</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>368.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>194</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -829,43 +823,43 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Marcela da Cruz</t>
+          <t>Gustavo Sales</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Travessa de Ferreira, 16
-Esperança
-48760-546 Teixeira de Silveira / PA</t>
+          <t>Conjunto Noah Cirino, 66
+Flavio De Oliveira
+47339072 Araújo do Amparo / PE</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Rios de Duarte</t>
+          <t>Pinto</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>387895</v>
+        <v>377778</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ferreira Melo - ME</t>
+          <t>Monteiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.295.591/0001-65</t>
+          <t>60.395.662/0001-56</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -879,22 +873,20 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>numquam</t>
+          <t>architecto</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6131.61</v>
+        <v>3165.12</v>
       </c>
       <c r="J5" t="n">
-        <v>59.03</v>
+        <v>98.75</v>
       </c>
       <c r="K5" t="n">
-        <v>6190.639999999999</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3263.87</v>
+      </c>
+      <c r="L5" t="n">
+        <v>112</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -929,43 +921,43 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Gael Ramos</t>
+          <t>Mateus Silva</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Condomínio Freitas, 449
-Vila Rica
-94924-279 Correia / RR</t>
+          <t>Praça Otto da Costa, 2
+Xodo-Marize
+30780-937 Costa de Melo / AC</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Brito das Pedras</t>
+          <t>Souza</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>372871</v>
+        <v>643130</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15/07/2023</t>
+          <t>23/01/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>Rios</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.242.370/0001-65</t>
+          <t>20.972.432/0001-47</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -974,27 +966,25 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>itaque</t>
+          <t>dicta</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>asperiores</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8252.23</v>
+        <v>9692.5</v>
       </c>
       <c r="J6" t="n">
-        <v>15.65</v>
+        <v>71.81</v>
       </c>
       <c r="K6" t="n">
-        <v>8267.879999999999</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9764.309999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>210</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1029,43 +1019,43 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Sr. Juan Barbosa</t>
+          <t>Theodoro Siqueira</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Rua de Oliveira, 52
-Vila Califórnia
-58137099 Fogaça / MA</t>
+          <t>Residencial Elisa Moraes
+Providencia
+68315-805 Pires Alegre / MT</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Souza Paulista</t>
+          <t>Vargas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>729956</v>
+        <v>594997</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>29/03/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Caldeira Moreira e Filhos</t>
+          <t>Pereira e Filhos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32.473.021/0001-29</t>
+          <t>51.157.607/0001-29</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1074,27 +1064,25 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>rem</t>
+          <t>praesentium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cum</t>
+          <t>iste</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9555.27</v>
+        <v>2395.66</v>
       </c>
       <c r="J7" t="n">
-        <v>60.44</v>
+        <v>34.71</v>
       </c>
       <c r="K7" t="n">
-        <v>9615.710000000001</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2430.37</v>
+      </c>
+      <c r="L7" t="n">
+        <v>183</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1129,25 +1117,25 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Rhavi Porto</t>
+          <t>Miguel Vasconcelos</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Trevo Maria Flor Camargo, 90
-Vila Copasa
-76902121 da Rosa de Rezende / PI</t>
+          <t>Condomínio de Cavalcante, 113
+Lindéia
+57609169 Machado do Oeste / ES</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Leão Grande</t>
+          <t>Costa da Prata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>886915</v>
+        <v>961716</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1156,16 +1144,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Porto Teixeira - ME</t>
+          <t>Borges</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.167.063/0001-74</t>
+          <t>15.293.196/0001-00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1174,27 +1162,25 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>expedita</t>
+          <t>consequatur</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>tempora</t>
+          <t>inventore</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6967.62</v>
+        <v>9242.66</v>
       </c>
       <c r="J8" t="n">
-        <v>77.12</v>
+        <v>13.85</v>
       </c>
       <c r="K8" t="n">
-        <v>7044.74</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9256.51</v>
+      </c>
+      <c r="L8" t="n">
+        <v>114</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1229,43 +1215,43 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Sr. Matteo Pires</t>
+          <t>Theo Aragão</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Vale Alves, 33
-Vila Paraíso
-04935998 Lopes do Oeste / SC</t>
+          <t>Trevo Rezende, 9
+Esperança
+62635-557 Camargo da Praia / AP</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>Vieira</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>689530</v>
+        <v>502950</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>05/07/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Cunha</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.526.258/0001-56</t>
+          <t>12.102.294/0001-92</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1274,27 +1260,25 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>adipisci</t>
+          <t>hic</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>velit</t>
+          <t>ut</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9656.459999999999</v>
+        <v>8247.940000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>59.79</v>
+        <v>55.3</v>
       </c>
       <c r="K9" t="n">
-        <v>9716.25</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8303.24</v>
+      </c>
+      <c r="L9" t="n">
+        <v>490</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1329,43 +1313,43 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Maria Azevedo</t>
+          <t>Bárbara Pereira</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Recanto de Azevedo
-Mirtes
-58592-711 Lima / RO</t>
+          <t>Vale de Lopes, 97
+Havaí
+91917846 da Rocha da Mata / PI</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Marques</t>
+          <t>Vargas</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>422911</v>
+        <v>243867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15/04/2024</t>
+          <t>20/05/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>da Costa</t>
+          <t>Nunes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>56.094.385/0001-74</t>
+          <t>18.304.552/0001-83</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1374,27 +1358,25 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sequi</t>
+          <t>iste</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>illum</t>
+          <t>et</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5329.64</v>
+        <v>9637.860000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>90.95</v>
+        <v>12.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5420.59</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9650.560000000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>179</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1429,43 +1411,43 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Bianca Silveira</t>
+          <t>Srta. Mariane Borges</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Feira de da Paz, 754
-Vista Alegre
-74654-564 Novaes de Oliveira / RO</t>
+          <t>Recanto de Viana, 23
+Vila Esplanada
+41214-330 Almeida / PI</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Costela do Sul</t>
+          <t>da Rosa de Costa</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>655394</v>
+        <v>527325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28/03/2024</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Ramos Ltda.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.557.252/0001-92</t>
+          <t>54.697.963/0001-74</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1474,27 +1456,25 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>tempora</t>
+          <t>alias</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>adipisci</t>
+          <t>ducimus</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6075.97</v>
+        <v>4823.9</v>
       </c>
       <c r="J11" t="n">
-        <v>33.62</v>
+        <v>82.22</v>
       </c>
       <c r="K11" t="n">
-        <v>6109.59</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>4906.12</v>
+      </c>
+      <c r="L11" t="n">
+        <v>226</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1529,39 +1509,39 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>João Vasconcelos</t>
+          <t>Joana da Paz</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Colônia Sofia Ribeiro
-São João Batista
-28385-562 da Luz / SP</t>
+          <t>Viela de Barros, 16
+Vila Havaí
+60001-539 Gonçalves / MT</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Pastor</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>820320</v>
+        <v>481026</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>da Cruz - ME</t>
+          <t>Campos</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>03.134.727/0001-92</t>
+          <t>03.822.028/0001-00</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1574,27 +1554,25 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ipsa</t>
+          <t>culpa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>voluptatem</t>
+          <t>placeat</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1189.76</v>
+        <v>6394.85</v>
       </c>
       <c r="J12" t="n">
-        <v>46.48</v>
+        <v>98.84</v>
       </c>
       <c r="K12" t="n">
-        <v>1236.24</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6493.690000000001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>580</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1629,43 +1607,43 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Srta. Kamilly Lopes</t>
+          <t>Letícia Araújo</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Via de Campos, 68
-São José
-10782209 Melo / PR</t>
+          <t>Pátio Diogo Cavalcante, 4
+Bairro Das Indústrias Ii
+55454836 da Cunha / PB</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Silveira das Pedras</t>
+          <t>Borges da Prata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>160775</v>
+        <v>841216</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31/03/2024</t>
+          <t>28/04/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>Montenegro e Filhos</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.529.951/0001-92</t>
+          <t>13.267.099/0001-00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1674,27 +1652,25 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>distinctio</t>
+          <t>reiciendis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>doloribus</t>
+          <t>fuga</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>7556.8</v>
+        <v>7331.5</v>
       </c>
       <c r="J13" t="n">
-        <v>33.93</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>7590.73</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7343.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>546</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1729,43 +1705,43 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Milena Vargas</t>
+          <t>Arthur Freitas</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Jardim de Azevedo, 17
-Vila São Rafael
-13805-180 Pereira / ES</t>
+          <t>Recanto Ana Cecília Lopes, 78
+Barroca
+43919962 Martins de Goiás / MG</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>da Paz</t>
+          <t>Pinto dos Dourados</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>218355</v>
+        <v>33349</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>da Costa Costela S.A.</t>
+          <t>Melo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.248.893/0001-47</t>
+          <t>03.994.554/0001-74</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1774,27 +1750,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cumque</t>
+          <t>sint</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>eveniet</t>
+          <t>explicabo</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7530.61</v>
+        <v>1320.3</v>
       </c>
       <c r="J14" t="n">
-        <v>66.51000000000001</v>
+        <v>64.22</v>
       </c>
       <c r="K14" t="n">
-        <v>7597.12</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1384.52</v>
+      </c>
+      <c r="L14" t="n">
+        <v>328</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1829,43 +1803,43 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Bento Aparecida</t>
+          <t>Maria Vitória Macedo</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Viela Teixeira, 54
-Novo Aarão Reis
-90933-061 da Paz de Freitas / AM</t>
+          <t>Loteamento de Fogaça, 54
+Jaqueline
+01465-701 Martins do Norte / MS</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Aparecida</t>
+          <t>Rodrigues de Souza</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>469138</v>
+        <v>732462</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>28/01/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rezende Alves - ME</t>
+          <t>Castro - EI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>54.089.688/0001-65</t>
+          <t>92.269.540/0001-00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1874,27 +1848,25 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>aut</t>
+          <t>beatae</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>libero</t>
+          <t>velit</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2632.82</v>
+        <v>9084.559999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>61.47</v>
+        <v>26.47</v>
       </c>
       <c r="K15" t="n">
-        <v>2694.29</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9111.029999999999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>419</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1929,43 +1901,43 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Luiz Felipe da Rosa</t>
+          <t>Emilly Duarte</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Vale Luna Monteiro, 59
-Padre Eustáquio
-96170768 Santos Paulista / TO</t>
+          <t>Chácara Barbosa, 788
+Juliana
+94295-623 Correia / CE</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Lopes da Serra</t>
+          <t>Cavalcanti da Prata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>276716</v>
+        <v>221568</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/06/2023</t>
+          <t>31/07/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Moreira e Filhos</t>
+          <t>Campos</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>95.313.880/0001-38</t>
+          <t>73.378.617/0001-00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1974,27 +1946,25 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>voluptatum</t>
+          <t>non</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>modi</t>
+          <t>eaque</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1049.33</v>
+        <v>5992.17</v>
       </c>
       <c r="J16" t="n">
-        <v>10.49</v>
+        <v>70.13</v>
       </c>
       <c r="K16" t="n">
-        <v>1059.82</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6062.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>131</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2029,43 +1999,43 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Matheus da Costa</t>
+          <t>João Felipe Câmara</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Quadra Laís Brito
-Maria Virgínia
-27555293 da Costa / AC</t>
+          <t>Área Maria Helena Farias, 218
+São Cristóvão
+86865364 Oliveira de Novaes / BA</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>Almeida de Alves</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23394</v>
+        <v>832452</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19/05/2023</t>
+          <t>27/05/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Moura - EI</t>
+          <t>da Costa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>04.579.615/0001-83</t>
+          <t>85.864.678/0001-83</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2074,27 +2044,25 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>rerum</t>
+          <t>provident</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>molestias</t>
+          <t>necessitatibus</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>7837.72</v>
+        <v>6848.16</v>
       </c>
       <c r="J17" t="n">
-        <v>20.47</v>
+        <v>19.35</v>
       </c>
       <c r="K17" t="n">
-        <v>7858.190000000001</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6867.51</v>
+      </c>
+      <c r="L17" t="n">
+        <v>440</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2129,43 +2097,43 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Luiz Fernando Camargo</t>
+          <t>Vinícius Barbosa</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Esplanada Renan Cunha, 168
-Santa Efigênia
-44728-039 Araújo do Sul / PR</t>
+          <t>Aeroporto Rezende, 66
+Luxemburgo
+33551526 Cavalcanti de da Conceição / AL</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Barros</t>
+          <t>Pimenta do Amparo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>157240</v>
+        <v>49512</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>28/07/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mendonça e Filhos</t>
+          <t>Pastor</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>99.832.746/0001-29</t>
+          <t>22.301.186/0001-00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2174,27 +2142,25 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>autem</t>
+          <t>natus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>minima</t>
+          <t>ab</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2750.99</v>
+        <v>9892.6</v>
       </c>
       <c r="J18" t="n">
-        <v>58.95</v>
+        <v>52.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2809.94</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9945.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>582</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2229,43 +2195,43 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Brenda Cardoso</t>
+          <t>Maitê Rocha</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Trecho Andrade, 46
-Virgínia
-15594314 Mendonça do Campo / GO</t>
+          <t>Praça de Pires, 48
+Mirante
+59005-440 Caldeira / RN</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>da Mata Grande</t>
+          <t>Viana do Amparo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>337368</v>
+        <v>337201</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06/09/2023</t>
+          <t>28/07/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mendonça - ME</t>
+          <t>Sá Ltda.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49.420.927/0001-29</t>
+          <t>74.630.473/0001-92</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2274,27 +2240,25 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>autem</t>
+          <t>provident</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>reiciendis</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2830</v>
+        <v>5840.24</v>
       </c>
       <c r="J19" t="n">
-        <v>31.35</v>
+        <v>99.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2861.35</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5939.99</v>
+      </c>
+      <c r="L19" t="n">
+        <v>530</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2329,39 +2293,39 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Srta. Ana Carolina Albuquerque</t>
+          <t>Ísis Peixoto</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Setor de Castro
-Vila Piratininga Venda Nova
-79624-590 da Mota das Pedras / MG</t>
+          <t>Estação Lima, 42
+São Luiz
+72679725 Castro do Sul / MS</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Duarte da Serra</t>
+          <t>Camargo do Sul</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>373562</v>
+        <v>325117</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21/06/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Farias - EI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>36.956.088/0001-83</t>
+          <t>86.310.353/0001-38</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2374,27 +2338,25 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>doloremque</t>
+          <t>minima</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>consectetur</t>
+          <t>fugit</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7863.61</v>
+        <v>5243.13</v>
       </c>
       <c r="J20" t="n">
-        <v>31.23</v>
+        <v>76.39</v>
       </c>
       <c r="K20" t="n">
-        <v>7894.839999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5319.52</v>
+      </c>
+      <c r="L20" t="n">
+        <v>239</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2429,43 +2391,43 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Liam Pacheco</t>
+          <t>Dr. Calebe da Rosa</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Conjunto de da Cunha, 35
-Serra Verde
-30655-036 Montenegro / CE</t>
+          <t>Lagoa Luiz Miguel Costa, 99
+Santa Rita De Cássia
+64204-746 Andrade Grande / SP</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Leão das Pedras</t>
+          <t>Almeida dos Dourados</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>797948</v>
+        <v>990138</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/02/2024</t>
+          <t>28/05/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>Dias S/A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>36.924.253/0001-74</t>
+          <t>84.050.809/0001-00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2474,27 +2436,25 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>veniam</t>
+          <t>ipsa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>occaecati</t>
+          <t>laboriosam</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6008.08</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>69.45</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>6077.53</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9323.799999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>466</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2529,43 +2489,43 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Cecilia Pastor</t>
+          <t>Dra. Raquel Mendonça</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Recanto Calebe Duarte, 901
-Paraíso
-85482808 Sá do Campo / CE</t>
+          <t>Vereda Stephany Gonçalves, 74
+Caiçaras
+95475-454 Pastor / PI</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Novais</t>
+          <t>Costela</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>261538</v>
+        <v>398983</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>07/08/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pires</t>
+          <t>Porto S.A.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25.411.436/0001-29</t>
+          <t>55.962.474/0001-65</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2574,27 +2534,25 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>velit</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>assumenda</t>
+          <t>adipisci</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>315.69</v>
+        <v>2811.69</v>
       </c>
       <c r="J22" t="n">
-        <v>66.69</v>
+        <v>15.35</v>
       </c>
       <c r="K22" t="n">
-        <v>382.38</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2827.04</v>
+      </c>
+      <c r="L22" t="n">
+        <v>315</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2629,43 +2587,43 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Laís Sampaio</t>
+          <t>Stella Abreu</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Lago Mirella Sá, 88
-Jonas Veiga
-82608337 Souza da Praia / PA</t>
+          <t>Favela de Vasconcelos
+Baleia
+77518561 Pereira / PR</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>Caldeira</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>435616</v>
+        <v>254280</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cassiano Fogaça e Filhos</t>
+          <t>Viana Pires S.A.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24.146.074/0001-74</t>
+          <t>99.043.147/0001-00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2674,27 +2632,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>similique</t>
+          <t>ipsum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>officia</t>
+          <t>illo</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5948.27</v>
+        <v>7421.97</v>
       </c>
       <c r="J23" t="n">
-        <v>24.2</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>5972.47</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7502.76</v>
+      </c>
+      <c r="L23" t="n">
+        <v>195</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2729,43 +2685,43 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Alana Moraes</t>
+          <t>Dra. Eduarda Cardoso</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Conjunto Isadora Souza, 83
-Copacabana
-72178819 Pires de Jesus / SE</t>
+          <t>Loteamento de Montenegro
+São João Batista
+89416-991 Aragão do Amparo / SP</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Barros do Sul</t>
+          <t>Brito da Prata</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>677971</v>
+        <v>581159</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>das Neves Rodrigues - ME</t>
+          <t>Gomes S/A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13.301.554/0001-38</t>
+          <t>32.940.325/0001-83</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2774,27 +2730,25 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>deserunt</t>
+          <t>nesciunt</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>placeat</t>
+          <t>ullam</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1518.18</v>
+        <v>6276.49</v>
       </c>
       <c r="J24" t="n">
-        <v>87.26000000000001</v>
+        <v>42.5</v>
       </c>
       <c r="K24" t="n">
-        <v>1605.44</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6318.99</v>
+      </c>
+      <c r="L24" t="n">
+        <v>187</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2829,43 +2783,43 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>João Miguel da Mota</t>
+          <t>Antony Rios</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Área Sales, 30
-Vila Ouro Minas
-31050-215 Rios / AP</t>
+          <t>Trecho Gael Marques, 280
+Vila Maria
+34614-836 Martins do Amparo / AP</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Cavalcanti Verde</t>
+          <t>Rocha</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>371011</v>
+        <v>172855</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22/04/2024</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Novaes Macedo - EI</t>
+          <t>Nogueira S.A.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>38.147.774/0001-47</t>
+          <t>30.997.123/0001-00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2874,27 +2828,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>animi</t>
+          <t>tenetur</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>nam</t>
+          <t>assumenda</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3933.53</v>
+        <v>7058.96</v>
       </c>
       <c r="J25" t="n">
-        <v>54.11</v>
+        <v>16.27</v>
       </c>
       <c r="K25" t="n">
-        <v>3987.64</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7075.23</v>
+      </c>
+      <c r="L25" t="n">
+        <v>519</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2929,43 +2881,43 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Luara Barbosa</t>
+          <t>Henry Gabriel Martins</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Residencial de Andrade, 55
-Vila Do Pombal
-18654-270 Pacheco de Moura / MS</t>
+          <t>Morro de Peixoto
+Nazare
+38125619 Sousa / PR</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Teixeira das Pedras</t>
+          <t>Cavalcante das Pedras</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>682711</v>
+        <v>897537</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>02/04/2024</t>
+          <t>17/04/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Moraes Machado S.A.</t>
+          <t>Oliveira</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>80.238.351/0001-74</t>
+          <t>53.136.161/0001-65</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2974,27 +2926,25 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>quis</t>
+          <t>recusandae</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>veniam</t>
+          <t>eaque</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9630</v>
+        <v>1189.23</v>
       </c>
       <c r="J26" t="n">
-        <v>39.66</v>
+        <v>51.98</v>
       </c>
       <c r="K26" t="n">
-        <v>9669.66</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1241.21</v>
+      </c>
+      <c r="L26" t="n">
+        <v>510</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -3029,43 +2979,43 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Bernardo Cassiano</t>
+          <t>Dr. Antônio Fogaça</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Quadra Luana Novais, 798
-Boa União 2ª Seção
-59744509 Alves / GO</t>
+          <t>Viaduto Noah Pinto, 51
+Vila Barragem Santa Lúcia
+29179-018 Barbosa do Oeste / RJ</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>da Luz</t>
+          <t>Marques Alegre</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>335033</v>
+        <v>626754</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>03/04/2024</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>Mendonça</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>51.892.396/0001-00</t>
+          <t>69.571.988/0001-29</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3074,27 +3024,25 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>rerum</t>
+          <t>expedita</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>occaecati</t>
+          <t>in</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4331.52</v>
+        <v>9958.15</v>
       </c>
       <c r="J27" t="n">
-        <v>35.61</v>
+        <v>20.96</v>
       </c>
       <c r="K27" t="n">
-        <v>4367.13</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9979.109999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>367</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3129,43 +3077,43 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Felipe Marques</t>
+          <t>Srta. Esther da Rosa</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Conjunto Evelyn Barbosa, 40
-Vila Maloca
-48056693 Nascimento da Praia / AM</t>
+          <t>Praça de Caldeira
+Conjunto Minas Caixa
+93343954 Sampaio do Sul / SC</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Rodrigues do Oeste</t>
+          <t>Câmara de Borges</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>192</v>
+        <v>167651</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Siqueira</t>
+          <t>Fogaça S/A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>00.948.248/0001-38</t>
+          <t>83.807.272/0001-92</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3174,27 +3122,25 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>saepe</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>rem</t>
+          <t>ratione</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4768.53</v>
+        <v>2468.51</v>
       </c>
       <c r="J28" t="n">
-        <v>89.7</v>
+        <v>61.82</v>
       </c>
       <c r="K28" t="n">
-        <v>4858.23</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2530.33</v>
+      </c>
+      <c r="L28" t="n">
+        <v>230</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3229,43 +3175,43 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Emanuelly Montenegro</t>
+          <t>Mateus Viana</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Vereda Maria Flor Cunha, 25
-Vila Pilar
-11524-700 Pacheco de Mendes / PI</t>
+          <t>Lagoa José Azevedo, 94
+Primeiro De Maio
+60919472 da Cruz da Praia / GO</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>da Paz de Fernandes</t>
+          <t>da Paz</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252029</v>
+        <v>207835</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Siqueira - EI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>01.147.585/0001-56</t>
+          <t>22.573.073/0001-56</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3274,27 +3220,25 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>minus</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>quos</t>
+          <t>ipsum</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4002.71</v>
+        <v>4882.97</v>
       </c>
       <c r="J29" t="n">
-        <v>67.18000000000001</v>
+        <v>68.25</v>
       </c>
       <c r="K29" t="n">
-        <v>4069.89</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>4951.22</v>
+      </c>
+      <c r="L29" t="n">
+        <v>582</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3329,43 +3273,43 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Aurora Câmara</t>
+          <t>Ravy da Paz</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Viela de Alves, 67
-Pindorama
-17582158 da Paz / BA</t>
+          <t>Esplanada Sara Ramos, 9
+Serra Verde
+24133556 Rodrigues da Prata / RR</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Azevedo do Galho</t>
+          <t>Duarte do Campo</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>277900</v>
+        <v>149850</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10/07/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>Brito</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>74.607.410/0001-74</t>
+          <t>53.122.976/0001-10</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3374,27 +3318,25 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>omnis</t>
+          <t>debitis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ullam</t>
+          <t>expedita</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2039.77</v>
+        <v>2425.48</v>
       </c>
       <c r="J30" t="n">
-        <v>71.36</v>
+        <v>27.34</v>
       </c>
       <c r="K30" t="n">
-        <v>2111.13</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2452.82</v>
+      </c>
+      <c r="L30" t="n">
+        <v>430</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3429,43 +3371,43 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Isabelly Moura</t>
+          <t>Sra. Maysa Vasconcelos</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Feira Kamilly da Luz
-Vila Ipiranga
-58840-316 Peixoto / MS</t>
+          <t>Vale de Fernandes, 41
+Barão Homem De Melo 3ª Seção
+61390706 Machado / SP</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>Santos de Fonseca</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>695035</v>
+        <v>386987</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18/02/2024</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Melo Rios S/A</t>
+          <t>Vargas</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.792.639/0001-74</t>
+          <t>20.484.953/0001-47</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3474,27 +3416,25 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sint</t>
+          <t>distinctio</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>voluptatem</t>
+          <t>expedita</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4353.4</v>
+        <v>1508.67</v>
       </c>
       <c r="J31" t="n">
-        <v>78.72</v>
+        <v>10.87</v>
       </c>
       <c r="K31" t="n">
-        <v>4432.12</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1519.54</v>
+      </c>
+      <c r="L31" t="n">
+        <v>411</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3529,43 +3469,43 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Dra. Maria Eduarda Duarte</t>
+          <t>Luiz Felipe Moura</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Largo de Cunha
-Vila Esplanada
-52088203 Guerra de da Cunha / BA</t>
+          <t>Distrito Vitor Gabriel Brito, 35
+Vila Aeroporto Jaraguá
+37828105 Duarte da Praia / ES</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>da Costa</t>
+          <t>Leão</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>36659</v>
+        <v>329982</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>19/12/2023</t>
+          <t>19/07/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>da Rocha</t>
+          <t>Câmara e Filhos</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.440.735/0001-92</t>
+          <t>38.971.888/0001-74</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3574,27 +3514,25 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>totam</t>
+          <t>iusto</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>nulla</t>
+          <t>quas</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>8842.780000000001</v>
+        <v>1554.05</v>
       </c>
       <c r="J32" t="n">
-        <v>32.89</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>8875.67</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1618.09</v>
+      </c>
+      <c r="L32" t="n">
+        <v>119</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3629,43 +3567,43 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Yasmin Cirino</t>
+          <t>João Guilherme Pastor</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Avenida de Fonseca, 37
-Jardim Montanhês
-86445640 Caldeira de Brito / PB</t>
+          <t>Estrada Davi Lucca Castro, 89
+Esperança
+80251698 da Paz / GO</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>Brito</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>396097</v>
+        <v>963791</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Fonseca e Filhos</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21.620.471/0001-56</t>
+          <t>58.570.216/0001-56</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3674,27 +3612,25 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>iste</t>
+          <t>culpa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>quia</t>
+          <t>laboriosam</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1705.59</v>
+        <v>4018.51</v>
       </c>
       <c r="J33" t="n">
-        <v>22.07</v>
+        <v>36.63</v>
       </c>
       <c r="K33" t="n">
-        <v>1727.66</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>4055.14</v>
+      </c>
+      <c r="L33" t="n">
+        <v>464</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3729,39 +3665,39 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Srta. Ana Beatriz Aparecida</t>
+          <t>Mirella Nascimento</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Setor de Caldeira, 40
-Antonio Ribeiro De Abreu 1ª Seção
-66021-258 Moura de Nunes / RJ</t>
+          <t>Parque de Moura, 192
+Pousada Santo Antonio
+19200835 Montenegro / AC</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Caldeira de Monteiro</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>327609</v>
+        <v>976412</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28.579.342/0001-00</t>
+          <t>15.345.806/0001-56</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -3774,27 +3710,25 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>occaecati</t>
+          <t>ipsa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>odit</t>
+          <t>quidem</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8877.77</v>
+        <v>6045.24</v>
       </c>
       <c r="J34" t="n">
-        <v>26.11</v>
+        <v>67.61</v>
       </c>
       <c r="K34" t="n">
-        <v>8903.880000000001</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6112.849999999999</v>
+      </c>
+      <c r="L34" t="n">
+        <v>123</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3829,43 +3763,43 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Eduarda Ribeiro</t>
+          <t>Sophia da Luz</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Loteamento de Rodrigues, 129
-Heliopolis
-94100745 Sales de Goiás / ES</t>
+          <t>Aeroporto de Vieira
+Pindura Saia
+82546942 Oliveira / SE</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Rios do Norte</t>
+          <t>Dias do Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>97384</v>
+        <v>90896</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>18/04/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>Barros Monteiro - ME</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>40.334.520/0001-47</t>
+          <t>82.453.243/0001-74</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3874,27 +3808,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>quod</t>
+          <t>placeat</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>eveniet</t>
+          <t>harum</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6188.24</v>
+        <v>6364.9</v>
       </c>
       <c r="J35" t="n">
-        <v>69.77</v>
+        <v>14.74</v>
       </c>
       <c r="K35" t="n">
-        <v>6258.01</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6379.639999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>404</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3929,43 +3861,43 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Sr. Lorenzo Vasconcelos</t>
+          <t>Lucca Porto</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Vereda Isabelly Carvalho, 439
-Fernão Dias
-51103-129 Ribeiro / BA</t>
+          <t>Lagoa da Mata, 575
+Vila São Paulo
+95837901 Ribeiro da Mata / RN</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Marques</t>
+          <t>Ribeiro</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>239071</v>
+        <v>641096</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Novaes Ltda.</t>
+          <t>Costela</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>04.437.288/0001-92</t>
+          <t>55.517.597/0001-38</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3974,27 +3906,25 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>mollitia</t>
+          <t>explicabo</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ipsa</t>
+          <t>maxime</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2692.51</v>
+        <v>8926.280000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>20.22</v>
+        <v>85.61</v>
       </c>
       <c r="K36" t="n">
-        <v>2712.73</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9011.890000000001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>328</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -4029,43 +3959,43 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Luiz Henrique Freitas</t>
+          <t>Srta. Lívia Porto</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Morro Bernardo Albuquerque, 13
-Palmeiras
-32653-792 Albuquerque / SE</t>
+          <t>Aeroporto Casa Grande, 17
+Itapoa
+20842-411 Santos / TO</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Albuquerque do Amparo</t>
+          <t>Cavalcanti</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>128815</v>
+        <v>336863</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rezende Pimenta - EI</t>
+          <t>Almeida</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20.725.045/0001-65</t>
+          <t>75.856.330/0001-74</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4074,27 +4004,25 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>quia</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>quos</t>
+          <t>illo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1953.39</v>
+        <v>6023.9</v>
       </c>
       <c r="J37" t="n">
-        <v>72.27</v>
+        <v>31.12</v>
       </c>
       <c r="K37" t="n">
-        <v>2025.66</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6055.02</v>
+      </c>
+      <c r="L37" t="n">
+        <v>308</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -4129,43 +4057,43 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Sofia Cavalcanti</t>
+          <t>Antony Moreira</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Favela Matteo Fonseca, 54
-Aeroporto
-42400-838 das Neves do Galho / PE</t>
+          <t>Residencial Cirino, 7
+Milionario
+76910-215 Souza Paulista / CE</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Machado do Amparo</t>
+          <t>Gomes</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>142402</v>
+        <v>652869</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22/07/2023</t>
+          <t>12/07/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Alves Teixeira S.A.</t>
+          <t>Moreira</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>37.744.626/0001-47</t>
+          <t>40.694.204/0001-00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -4174,27 +4102,25 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>repellendus</t>
+          <t>aliquid</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>iure</t>
+          <t>quam</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1295.38</v>
+        <v>8746.190000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>50.15</v>
+        <v>19.69</v>
       </c>
       <c r="K38" t="n">
-        <v>1345.53</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8765.880000000001</v>
+      </c>
+      <c r="L38" t="n">
+        <v>582</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -4229,43 +4155,43 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Caleb Camargo</t>
+          <t>Joana Dias</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Alameda Maria Helena Aparecida, 542
-Novo São Lucas
-46925858 Fogaça de Caldeira / RR</t>
+          <t>Avenida de Silva, 3
+Dom Bosco
+59611205 Vasconcelos da Mata / MS</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>da Mota</t>
+          <t>da Mata de Correia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>132321</v>
+        <v>27381</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>24/08/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>68.704.345/0001-00</t>
+          <t>48.535.794/0001-65</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4274,27 +4200,25 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>itaque</t>
+          <t>praesentium</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>distinctio</t>
+          <t>vel</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>341.52</v>
+        <v>9085.92</v>
       </c>
       <c r="J39" t="n">
-        <v>77.59</v>
+        <v>93.89</v>
       </c>
       <c r="K39" t="n">
-        <v>419.11</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9179.809999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>275</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4329,43 +4253,43 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Dra. Maysa Araújo</t>
+          <t>Anna Liz Freitas</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Morro Viana, 589
-Alpes
-02310586 Montenegro do Oeste / MG</t>
+          <t>Largo Caldeira, 3
+Solar Do Barreiro
+72029206 Nascimento do Campo / PB</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Rios</t>
+          <t>Novaes</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>230468</v>
+        <v>685287</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>19/07/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sousa</t>
+          <t>Pacheco</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>72.417.090/0001-56</t>
+          <t>41.911.173/0001-65</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4374,27 +4298,25 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>consectetur</t>
+          <t>quae</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>voluptates</t>
+          <t>debitis</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3076.41</v>
+        <v>3376.04</v>
       </c>
       <c r="J40" t="n">
-        <v>63.73</v>
+        <v>76.5</v>
       </c>
       <c r="K40" t="n">
-        <v>3140.14</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3452.54</v>
+      </c>
+      <c r="L40" t="n">
+        <v>520</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4429,43 +4351,43 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>Nicolas Garcia</t>
+          <t>Maria Helena Macedo</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Largo de Brito, 690
-Nazare
-15347-296 Teixeira / GO</t>
+          <t>Esplanada de Barros, 71
+Santa Rita
+03532-700 Sampaio dos Dourados / RR</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Peixoto do Oeste</t>
+          <t>Almeida de Costa</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>64107</v>
+        <v>468308</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>24/01/2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mendonça Pereira e Filhos</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>08.751.016/0001-56</t>
+          <t>58.945.414/0001-65</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4474,27 +4396,25 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>harum</t>
+          <t>doloremque</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>accusamus</t>
+          <t>quis</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5473.64</v>
+        <v>3391.22</v>
       </c>
       <c r="J41" t="n">
-        <v>24.21</v>
+        <v>49.97</v>
       </c>
       <c r="K41" t="n">
-        <v>5497.85</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3441.19</v>
+      </c>
+      <c r="L41" t="n">
+        <v>367</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4529,43 +4449,43 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Dra. Laís Campos</t>
+          <t>Otto Lopes</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Sítio Jesus
-Mangabeiras
-67006059 Leão da Serra / GO</t>
+          <t>Loteamento Azevedo, 19
+Lagoinha
+09521-780 Borges / PR</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Castro da Serra</t>
+          <t>Araújo Grande</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>70665</v>
+        <v>211546</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10/09/2023</t>
+          <t>26/05/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cunha S/A</t>
+          <t>Siqueira Martins - ME</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>46.549.024/0001-38</t>
+          <t>59.334.757/0001-56</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4574,27 +4494,25 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>beatae</t>
+          <t>doloremque</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>occaecati</t>
+          <t>asperiores</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4894.94</v>
+        <v>5756.89</v>
       </c>
       <c r="J42" t="n">
-        <v>62.04</v>
+        <v>42.23</v>
       </c>
       <c r="K42" t="n">
-        <v>4956.98</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5799.12</v>
+      </c>
+      <c r="L42" t="n">
+        <v>408</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4629,43 +4547,43 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>Maria Isis Cardoso</t>
+          <t>Olivia Caldeira</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Rodovia Pacheco, 13
-Santa Branca
-23298-647 Alves / PE</t>
+          <t>Quadra Thiago Almeida
+Jardinópolis
+61643-292 da Rosa Alegre / TO</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Machado</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>515761</v>
+        <v>259978</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>30/09/2023</t>
+          <t>08/09/2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gonçalves - ME</t>
+          <t>Fonseca - ME</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20.912.542/0001-56</t>
+          <t>33.206.936/0001-65</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4674,27 +4592,25 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>aliquid</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>excepturi</t>
+          <t>iste</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4273.36</v>
+        <v>8280.219999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>22.48</v>
+        <v>91.13</v>
       </c>
       <c r="K43" t="n">
-        <v>4295.839999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8371.349999999999</v>
+      </c>
+      <c r="L43" t="n">
+        <v>182</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4729,43 +4645,43 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>Daniela Aragão</t>
+          <t>Luna Moraes</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Trecho de da Cruz, 77
-São Luiz
-54624393 Sales / MS</t>
+          <t>Trecho Ana Cecília Borges, 43
+Aparecida
+14790391 Souza de Leão / RO</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Porto Verde</t>
+          <t>Garcia da Serra</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>745841</v>
+        <v>504252</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cunha S.A.</t>
+          <t>Leão</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>54.330.286/0001-00</t>
+          <t>85.036.235/0001-29</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4774,27 +4690,25 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>impedit</t>
+          <t>architecto</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>atque</t>
+          <t>dignissimos</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2615.98</v>
+        <v>6442.11</v>
       </c>
       <c r="J44" t="n">
-        <v>74.95</v>
+        <v>47.01</v>
       </c>
       <c r="K44" t="n">
-        <v>2690.93</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6489.12</v>
+      </c>
+      <c r="L44" t="n">
+        <v>169</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4829,43 +4743,43 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Daniela da Luz</t>
+          <t>Enrico Andrade</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Passarela Davi Lucca Rocha, 90
-Marmiteiros
-29300680 Casa Grande de Costela / GO</t>
+          <t>Vale Moraes, 4
+Taquaril
+44438-940 Duarte / RJ</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>da Conceição de Gomes</t>
+          <t>Garcia do Amparo</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>60251</v>
+        <v>789981</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>10/07/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Vasconcelos</t>
+          <t>Rocha</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>89.241.790/0001-00</t>
+          <t>47.113.373/0001-83</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -4874,27 +4788,25 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>qui</t>
+          <t>mollitia</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>amet</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>7971.97</v>
+        <v>5896.39</v>
       </c>
       <c r="J45" t="n">
-        <v>53.28</v>
+        <v>88.73</v>
       </c>
       <c r="K45" t="n">
-        <v>8025.25</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5985.12</v>
+      </c>
+      <c r="L45" t="n">
+        <v>133</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4929,43 +4841,43 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Alice Pires</t>
+          <t>Emanuelly Farias</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Largo Cavalcanti, 31
-Mineirão
-73014188 Pereira / PR</t>
+          <t>Esplanada Oliveira, 678
+Céu Azul
+99122114 Lopes de Caldeira / PR</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Siqueira</t>
+          <t>Souza</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>247414</v>
+        <v>177007</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sales - ME</t>
+          <t>Cirino</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>76.929.659/0001-56</t>
+          <t>04.559.085/0001-10</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -4974,27 +4886,25 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>possimus</t>
+          <t>iusto</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ea</t>
+          <t>consectetur</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>879.67</v>
+        <v>5658.55</v>
       </c>
       <c r="J46" t="n">
-        <v>19.79</v>
+        <v>66.02</v>
       </c>
       <c r="K46" t="n">
-        <v>899.4599999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5724.570000000001</v>
+      </c>
+      <c r="L46" t="n">
+        <v>528</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -5029,43 +4939,43 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>João Lucas Pereira</t>
+          <t>Mirella Souza</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Núcleo Sampaio, 86
-Ambrosina
-36519470 Fogaça de Almeida / ES</t>
+          <t>Largo de Cirino, 92
+Ernesto Nascimento
+63405-498 Sá de da Cruz / RN</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Sousa do Amparo</t>
+          <t>da Conceição</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>432112</v>
+        <v>855143</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>26/04/2024</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Vargas - ME</t>
+          <t>da Mota Lopes e Filhos</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21.281.973/0001-83</t>
+          <t>08.929.527/0001-74</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -5074,27 +4984,25 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>unde</t>
+          <t>corrupti</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>numquam</t>
+          <t>iusto</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4042.45</v>
+        <v>5680.51</v>
       </c>
       <c r="J47" t="n">
-        <v>93.5</v>
+        <v>30.29</v>
       </c>
       <c r="K47" t="n">
-        <v>4135.95</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5710.8</v>
+      </c>
+      <c r="L47" t="n">
+        <v>111</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -5129,43 +5037,43 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Francisco Pimenta</t>
+          <t>Matteo Cardoso</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Favela de Sousa, 12
-Vila Formosa
-12613367 Costa / RO</t>
+          <t>Recanto de Nogueira, 1
+Santo Agostinho
+67168175 Vasconcelos Verde / GO</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>Machado do Galho</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>920418</v>
+        <v>832993</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>29/08/2023</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Almeida</t>
+          <t>Moreira</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12.009.901/0001-74</t>
+          <t>73.899.390/0001-65</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5174,27 +5082,25 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>beatae</t>
+          <t>quod</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>ipsa</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>9674.82</v>
+        <v>7358.25</v>
       </c>
       <c r="J48" t="n">
-        <v>45.67</v>
+        <v>90.02</v>
       </c>
       <c r="K48" t="n">
-        <v>9720.49</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7448.27</v>
+      </c>
+      <c r="L48" t="n">
+        <v>471</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -5229,43 +5135,43 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Aurora Gomes</t>
+          <t>Kaique da Rocha</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Chácara Alves
-Conjunto Celso Machado
-08752575 Nunes / RJ</t>
+          <t>Estrada de Pinto, 44
+Morro Dos Macacos
+04846-601 Fogaça / MT</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Siqueira da Prata</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>497012</v>
+        <v>187874</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Cardoso</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>25.179.902/0001-92</t>
+          <t>20.871.821/0001-00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -5274,27 +5180,25 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>dolorem</t>
+          <t>accusantium</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>repellat</t>
+          <t>mollitia</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>8981.719999999999</v>
+        <v>5963.66</v>
       </c>
       <c r="J49" t="n">
-        <v>47.2</v>
+        <v>78.67</v>
       </c>
       <c r="K49" t="n">
-        <v>9028.92</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6042.33</v>
+      </c>
+      <c r="L49" t="n">
+        <v>543</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -5329,43 +5233,43 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Daniel Nunes</t>
+          <t>Maria Laura Aparecida</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Condomínio de Aparecida, 2
-Antonio Ribeiro De Abreu 1ª Seção
-06027386 Macedo / SC</t>
+          <t>Favela da Cruz, 89
+Lorena
+16747810 Castro / RR</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Sales do Amparo</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>622127</v>
+        <v>143944</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>05/03/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Albuquerque Castro e Filhos</t>
+          <t>Cardoso - ME</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16.596.894/0001-56</t>
+          <t>94.649.786/0001-83</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -5374,27 +5278,25 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>veniam</t>
+          <t>fugiat</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>quaerat</t>
+          <t>dignissimos</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>7212.57</v>
+        <v>5510.61</v>
       </c>
       <c r="J50" t="n">
-        <v>28.61</v>
+        <v>87.91</v>
       </c>
       <c r="K50" t="n">
-        <v>7241.179999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5598.52</v>
+      </c>
+      <c r="L50" t="n">
+        <v>568</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5429,43 +5331,43 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>Dra. Carolina Freitas</t>
+          <t>Catarina Moraes</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Rua Isabela Aragão, 93
-Vila Nova
-41912943 Cunha / AC</t>
+          <t>Vereda de Pires, 65
+Estrela
+59240366 Câmara Grande / RR</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Vasconcelos</t>
+          <t>Caldeira Paulista</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>804192</v>
+        <v>601591</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07/10/2023</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>Ferreira</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>04.972.464/0001-29</t>
+          <t>24.898.244/0001-00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -5474,27 +5376,25 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>itaque</t>
+          <t>nam</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2833.87</v>
+        <v>6537.03</v>
       </c>
       <c r="J51" t="n">
-        <v>70.97</v>
+        <v>25.31</v>
       </c>
       <c r="K51" t="n">
-        <v>2904.84</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6562.34</v>
+      </c>
+      <c r="L51" t="n">
+        <v>287</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5529,43 +5429,43 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>Dr. Kaique Ribeiro</t>
+          <t>Nina Rodrigues</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Lagoa Lima, 40
-Saudade
-34542-293 Moraes / MA</t>
+          <t>Jardim de Melo
+Vila Paris
+23456-953 Alves / BA</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Silveira</t>
+          <t>Rezende de Cassiano</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>188805</v>
+        <v>651211</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>02/03/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Campos da Mata e Filhos</t>
+          <t>Vieira da Mata Ltda.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>58.619.657/0001-38</t>
+          <t>43.483.247/0001-00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5574,27 +5474,25 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>laborum</t>
+          <t>delectus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>voluptatem</t>
+          <t>optio</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3830.08</v>
+        <v>1447.26</v>
       </c>
       <c r="J52" t="n">
-        <v>43.2</v>
+        <v>29.37</v>
       </c>
       <c r="K52" t="n">
-        <v>3873.28</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1476.63</v>
+      </c>
+      <c r="L52" t="n">
+        <v>469</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5629,43 +5527,43 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>Vitor Hugo Ribeiro</t>
+          <t>Sra. Lunna Castro</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Quadra Fogaça, 68
-Dona Clara
-36892214 Alves Alegre / MG</t>
+          <t>Área de Sousa
+Alto Barroca
+24786-846 Pimenta / RN</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Siqueira</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>584865</v>
+        <v>417551</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16/11/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Abreu</t>
+          <t>Pereira S.A.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>18.885.668/0001-29</t>
+          <t>51.846.256/0001-47</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5674,27 +5572,25 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>magni</t>
+          <t>eaque</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>expedita</t>
+          <t>incidunt</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6212.07</v>
+        <v>9140.5</v>
       </c>
       <c r="J53" t="n">
-        <v>80.86</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>6292.929999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9237.24</v>
+      </c>
+      <c r="L53" t="n">
+        <v>295</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5729,43 +5625,43 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>Yan Mendes</t>
+          <t>Pietra Siqueira</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Morro de Gonçalves, 88
-Tupi A
-14874-272 Caldeira / RN</t>
+          <t>Avenida Fonseca, 96
+Vila Vista Alegre
+84505369 Rezende Alegre / PB</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Moreira da Prata</t>
+          <t>Ferreira</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>896413</v>
+        <v>872680</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>05/10/2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gomes S.A.</t>
+          <t>da Rosa Carvalho S.A.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>79.611.832/0001-29</t>
+          <t>63.469.595/0001-65</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -5774,27 +5670,25 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>eaque</t>
+          <t>ducimus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>natus</t>
+          <t>velit</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6764.52</v>
+        <v>2207.88</v>
       </c>
       <c r="J54" t="n">
-        <v>67.52</v>
+        <v>96.72</v>
       </c>
       <c r="K54" t="n">
-        <v>6832.040000000001</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2304.6</v>
+      </c>
+      <c r="L54" t="n">
+        <v>352</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5829,43 +5723,43 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>Caroline Farias</t>
+          <t>Mariane Cardoso</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Vila Ramos, 752
-Castanheira
-01299447 da Conceição / ES</t>
+          <t>Alameda Leão, 878
+Bonfim
+62462301 Ribeiro / AM</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Caldeira dos Dourados</t>
+          <t>Silveira</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>766907</v>
+        <v>78318</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20/08/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>da Paz Gomes e Filhos</t>
+          <t>Lopes - ME</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>72.307.263/0001-83</t>
+          <t>97.772.387/0001-10</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -5874,27 +5768,25 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>dignissimos</t>
+          <t>exercitationem</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>quibusdam</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5970.28</v>
+        <v>5862.11</v>
       </c>
       <c r="J55" t="n">
-        <v>56.3</v>
+        <v>48.2</v>
       </c>
       <c r="K55" t="n">
-        <v>6026.58</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5910.309999999999</v>
+      </c>
+      <c r="L55" t="n">
+        <v>497</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5929,43 +5821,43 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>Srta. Rebeca Pimenta</t>
+          <t>Sr. Oliver Fogaça</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Fazenda de Pinto, 3
-Conjunto Celso Machado
-67950-170 Novaes da Prata / ES</t>
+          <t>Ladeira Barbosa, 19
+Luxemburgo
+03114-131 da Cunha / RN</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Jesus do Amparo</t>
+          <t>Marques Grande</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>80703</v>
+        <v>853815</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>06/07/2023</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cavalcanti S/A</t>
+          <t>Gomes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>23.151.271/0001-00</t>
+          <t>52.458.293/0001-83</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -5974,27 +5866,25 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>quos</t>
+          <t>consequuntur</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>aliquam</t>
+          <t>est</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7396.65</v>
+        <v>6563.63</v>
       </c>
       <c r="J56" t="n">
-        <v>79.92</v>
+        <v>57.95</v>
       </c>
       <c r="K56" t="n">
-        <v>7476.57</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6621.58</v>
+      </c>
+      <c r="L56" t="n">
+        <v>338</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -6029,43 +5919,43 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Srta. Daniela Pimenta</t>
+          <t>Benjamin Caldeira</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Lago de Novaes, 1
-Vila Satélite
-35279-429 Ribeiro de da Luz / TO</t>
+          <t>Trecho de Casa Grande, 32
+Marilandia
+81305-564 Barros do Oeste / SE</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Rodrigues de Minas</t>
+          <t>Almeida do Oeste</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>452470</v>
+        <v>596875</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20/05/2023</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Leão Vieira S/A</t>
+          <t>Costela - EI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17.191.577/0001-47</t>
+          <t>56.862.641/0001-00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -6074,27 +5964,25 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>vitae</t>
+          <t>molestiae</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>explicabo</t>
+          <t>quas</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7590.42</v>
+        <v>3073.25</v>
       </c>
       <c r="J57" t="n">
-        <v>17.37</v>
+        <v>19.39</v>
       </c>
       <c r="K57" t="n">
-        <v>7607.79</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3092.64</v>
+      </c>
+      <c r="L57" t="n">
+        <v>417</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -6129,43 +6017,43 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Aurora Guerra</t>
+          <t>Bryan Araújo</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Lagoa Henry Siqueira, 95
-Cardoso
-13257-767 Vargas / SC</t>
+          <t>Praia de Cunha, 65
+Vila Havaí
+06722750 Barbosa Grande / MA</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Cirino da Mata</t>
+          <t>Siqueira Verde</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>178884</v>
+        <v>964888</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>25/05/2023</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>Macedo e Filhos</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>57.802.335/0001-83</t>
+          <t>30.895.590/0001-29</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6174,27 +6062,25 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>labore</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>sunt</t>
+          <t>voluptas</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>4723.15</v>
+        <v>3899.91</v>
       </c>
       <c r="J58" t="n">
-        <v>41.53</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>4764.679999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3984.98</v>
+      </c>
+      <c r="L58" t="n">
+        <v>573</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -6229,43 +6115,43 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Mathias Silveira</t>
+          <t>Sr. Rafael Casa Grande</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Trevo Marcelo Aparecida, 2
-São Tomaz
-13124134 Carvalho da Praia / DF</t>
+          <t>Travessa Maria Liz da Costa
+Conjunto Minas Caixa
+78167786 Gomes das Pedras / RO</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Duarte dos Dourados</t>
+          <t>da Paz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>223209</v>
+        <v>542802</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>07/07/2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>Rodrigues Oliveira - EI</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>40.660.646/0001-10</t>
+          <t>39.210.747/0001-00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6274,27 +6160,25 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>voluptatum</t>
+          <t>asperiores</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>alias</t>
+          <t>dignissimos</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3416.47</v>
+        <v>1164.17</v>
       </c>
       <c r="J59" t="n">
-        <v>80.39</v>
+        <v>42.22</v>
       </c>
       <c r="K59" t="n">
-        <v>3496.86</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1206.39</v>
+      </c>
+      <c r="L59" t="n">
+        <v>437</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -6329,43 +6213,43 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>Gabrielly Cirino</t>
+          <t>Ana Liz Novais</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Residencial Antonella Oliveira, 17
-União
-69834-826 Gomes / BA</t>
+          <t>Aeroporto Monteiro, 31
+Tupi B
+57299-554 Rios de Farias / GO</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>da Costa</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>440788</v>
+        <v>81937</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>02/06/2023</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Casa Grande</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>73.490.320/0001-83</t>
+          <t>39.193.501/0001-00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6374,27 +6258,25 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>soluta</t>
+          <t>reiciendis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>perferendis</t>
+          <t>commodi</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7955.95</v>
+        <v>1459.67</v>
       </c>
       <c r="J60" t="n">
-        <v>42.01</v>
+        <v>19.91</v>
       </c>
       <c r="K60" t="n">
-        <v>7997.96</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1479.58</v>
+      </c>
+      <c r="L60" t="n">
+        <v>305</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -6429,43 +6311,43 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Vinicius da Mata</t>
+          <t>Erick Viana</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Vila Júlia Porto, 803
-Vila Nova Cachoeirinha 1ª Seção
-80176-735 Moraes / PE</t>
+          <t>Núcleo de da Mota, 35
+Vila Suzana Primeira Seção
+15794638 Carvalho de Lima / MG</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Aragão</t>
+          <t>da Conceição</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>86266</v>
+        <v>941781</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13/04/2024</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jesus Gonçalves - EI</t>
+          <t>Fogaça</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>08.094.894/0001-38</t>
+          <t>01.121.594/0001-00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6474,27 +6356,25 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>quis</t>
+          <t>commodi</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cumque</t>
+          <t>enim</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3396.28</v>
+        <v>5146.15</v>
       </c>
       <c r="J61" t="n">
-        <v>94.06</v>
+        <v>55.48</v>
       </c>
       <c r="K61" t="n">
-        <v>3490.34</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5201.629999999999</v>
+      </c>
+      <c r="L61" t="n">
+        <v>282</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6529,43 +6409,43 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>Dr. Léo Cirino</t>
+          <t>Diego Marques</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Quadra de Correia, 1
-Vila União
-46825858 Gomes da Serra / PI</t>
+          <t>Vila Bárbara Farias, 93
+Flavio Marques Lisboa
+01433-641 Cassiano / MT</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Pires da Praia</t>
+          <t>Macedo da Praia</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>620079</v>
+        <v>455808</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>13/01/2024</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>70.484.016/0001-00</t>
+          <t>80.145.639/0001-29</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6574,27 +6454,25 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>facilis</t>
+          <t>recusandae</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ipsa</t>
+          <t>temporibus</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>527.86</v>
+        <v>573.11</v>
       </c>
       <c r="J62" t="n">
-        <v>99.93000000000001</v>
+        <v>54.76</v>
       </c>
       <c r="K62" t="n">
-        <v>627.79</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>627.87</v>
+      </c>
+      <c r="L62" t="n">
+        <v>274</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6629,43 +6507,43 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Maria Flor Dias</t>
+          <t>Mariana Machado</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Vale Barros, 47
-João Paulo Ii
-89483-736 Camargo / PR</t>
+          <t>Viela de da Conceição, 328
+Vila Jardim Alvorada
+56257-600 Novaes / PE</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>Siqueira da Praia</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>551545</v>
+        <v>590772</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10/05/2024</t>
+          <t>03/03/2024</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sá Siqueira e Filhos</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>04.478.038/0001-92</t>
+          <t>28.980.547/0001-10</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6674,27 +6552,25 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>expedita</t>
+          <t>aut</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>incidunt</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5368.59</v>
+        <v>140.18</v>
       </c>
       <c r="J63" t="n">
-        <v>71.56</v>
+        <v>28.39</v>
       </c>
       <c r="K63" t="n">
-        <v>5440.150000000001</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>168.57</v>
+      </c>
+      <c r="L63" t="n">
+        <v>212</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6729,43 +6605,43 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Dra. Emilly da Cunha</t>
+          <t>Lorena da Luz</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Aeroporto Leão, 46
-Universo
-47908819 Pimenta / PR</t>
+          <t>Praça Pedro Henrique Vasconcelos, 99
+União
+64725-113 Cassiano / SC</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>Martins do Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>239944</v>
+        <v>757566</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>04/09/2023</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jesus</t>
+          <t>Machado</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>87.571.499/0001-83</t>
+          <t>93.002.845/0001-56</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6774,27 +6650,25 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>commodi</t>
+          <t>eum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ipsa</t>
+          <t>reiciendis</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3073.72</v>
+        <v>2441.98</v>
       </c>
       <c r="J64" t="n">
-        <v>20.22</v>
+        <v>35.89</v>
       </c>
       <c r="K64" t="n">
-        <v>3093.94</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2477.87</v>
+      </c>
+      <c r="L64" t="n">
+        <v>160</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6829,39 +6703,39 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Mirella da Rosa</t>
+          <t>Antônio Correia</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Alameda Ana Julia Leão
-Nossa Senhora Aparecida
-19288853 Garcia / MS</t>
+          <t>Trecho Peixoto, 54
+Fazendinha
+94447682 Pimenta da Mata / TO</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Moreira Alegre</t>
+          <t>Moura de da Mota</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>532670</v>
+        <v>517535</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>13/04/2024</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Porto e Filhos</t>
+          <t>Cavalcanti Viana S/A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>65.531.796/0001-38</t>
+          <t>39.613.465/0001-29</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -6874,27 +6748,25 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>occaecati</t>
+          <t>nobis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>expedita</t>
+          <t>accusamus</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2441.62</v>
+        <v>8204.030000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>18.04</v>
+        <v>43.11</v>
       </c>
       <c r="K65" t="n">
-        <v>2459.66</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8247.140000000001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>524</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6929,43 +6801,43 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Maria Alice da Rosa</t>
+          <t>Maria Clara da Cunha</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Rua de Cassiano, 52
-Brasil Industrial
-66053419 Gomes de Minas / PR</t>
+          <t>Ladeira de Rodrigues, 63
+São Benedito
+61811993 Barbosa do Sul / GO</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>da Cruz da Prata</t>
+          <t>Cardoso</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>343498</v>
+        <v>307820</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>19/12/2023</t>
+          <t>27/10/2023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Vasconcelos</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>07.149.333/0001-00</t>
+          <t>06.631.907/0001-00</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -6974,27 +6846,25 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>aspernatur</t>
+          <t>dicta</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>aliquam</t>
+          <t>cumque</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1947.59</v>
+        <v>651.0700000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>61.13</v>
+        <v>96.98</v>
       </c>
       <c r="K66" t="n">
-        <v>2008.72</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>748.0500000000001</v>
+      </c>
+      <c r="L66" t="n">
+        <v>391</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -7029,43 +6899,43 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Srta. Pietra Marques</t>
+          <t>Maria Luísa Silva</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Viela de Azevedo, 17
-Coração De Jesus
-71519-294 Siqueira / AM</t>
+          <t>Residencial Cauê Peixoto
+Vila Real 2ª Seção
+90688920 Alves / PR</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Machado das Pedras</t>
+          <t>Vargas do Campo</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>706762</v>
+        <v>274675</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07/07/2023</t>
+          <t>28/02/2024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lopes Vasconcelos - ME</t>
+          <t>Sá</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>57.389.538/0001-65</t>
+          <t>20.071.960/0001-92</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -7074,27 +6944,25 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>dolor</t>
+          <t>vel</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>velit</t>
+          <t>cupiditate</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6664.04</v>
+        <v>8514.52</v>
       </c>
       <c r="J67" t="n">
-        <v>64.51000000000001</v>
+        <v>52.02</v>
       </c>
       <c r="K67" t="n">
-        <v>6728.55</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8566.540000000001</v>
+      </c>
+      <c r="L67" t="n">
+        <v>423</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -7129,43 +6997,43 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Alexandre Ribeiro</t>
+          <t>Luiz Otávio Cardoso</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Rua de Ramos, 62
-São Luiz
-94188824 Ribeiro / PE</t>
+          <t>Estação de Cardoso, 66
+Vila Batik
+54112-559 Sales do Sul / GO</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>da Conceição</t>
+          <t>da Mota</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>705925</v>
+        <v>557294</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>27/03/2024</t>
+          <t>24/01/2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Alves</t>
+          <t>Costa</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>04.941.495/0001-47</t>
+          <t>27.636.438/0001-92</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -7174,27 +7042,25 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>numquam</t>
+          <t>explicabo</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>asperiores</t>
+          <t>facilis</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>4912.1</v>
+        <v>2546.88</v>
       </c>
       <c r="J68" t="n">
-        <v>54.83</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>4966.93</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2632.37</v>
+      </c>
+      <c r="L68" t="n">
+        <v>542</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -7229,43 +7095,43 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Maria Julia Novais</t>
+          <t>Maya Camargo</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Área Diego Teixeira, 46
-Palmares
-67163-932 das Neves / RS</t>
+          <t>Conjunto Rodrigo Nogueira, 4
+Alto Barroca
+94647292 Moraes do Norte / DF</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Pacheco dos Dourados</t>
+          <t>Barros do Amparo</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>420759</v>
+        <v>481928</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14/01/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cunha</t>
+          <t>Abreu</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>62.082.289/0001-92</t>
+          <t>62.457.208/0001-83</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -7274,27 +7140,25 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>reprehenderit</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>doloremque</t>
+          <t>doloribus</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3306.44</v>
+        <v>9305.74</v>
       </c>
       <c r="J69" t="n">
-        <v>34.95</v>
+        <v>39.74</v>
       </c>
       <c r="K69" t="n">
-        <v>3341.39</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9345.48</v>
+      </c>
+      <c r="L69" t="n">
+        <v>385</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -7329,43 +7193,43 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Maria Abreu</t>
+          <t>Lunna Cavalcanti</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Aeroporto Catarina Mendes, 1
-Vila União
-04840-840 Nogueira / PA</t>
+          <t>Praça de Ribeiro, 90
+Nova Cintra
+83127803 Brito / PI</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Duarte da Praia</t>
+          <t>Pereira do Galho</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>818205</v>
+        <v>245189</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>30.497.566/0001-74</t>
+          <t>96.691.421/0001-00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -7374,27 +7238,25 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>voluptatum</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>est</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>repellat</t>
-        </is>
-      </c>
       <c r="I70" t="n">
-        <v>4539.45</v>
+        <v>5662.37</v>
       </c>
       <c r="J70" t="n">
-        <v>81.62</v>
+        <v>70.56</v>
       </c>
       <c r="K70" t="n">
-        <v>4621.07</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5732.93</v>
+      </c>
+      <c r="L70" t="n">
+        <v>436</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -7429,43 +7291,43 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Srta. Cecília Araújo</t>
+          <t>Cecília Barros</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Pátio de Fogaça, 8
-Pousada Santo Antonio
-08870-067 Montenegro do Amparo / GO</t>
+          <t>Estação Sara Santos, 18
+Caiçaras
+80830320 Peixoto / ES</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Cavalcante</t>
+          <t>Nascimento do Galho</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>133844</v>
+        <v>673171</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21/04/2024</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>Duarte Cassiano e Filhos</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>96.304.727/0001-74</t>
+          <t>26.939.707/0001-00</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -7474,27 +7336,25 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>eligendi</t>
+          <t>neque</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>rerum</t>
+          <t>tempore</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4540.95</v>
+        <v>2725.7</v>
       </c>
       <c r="J71" t="n">
-        <v>24.43</v>
+        <v>74.28</v>
       </c>
       <c r="K71" t="n">
-        <v>4565.38</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2799.98</v>
+      </c>
+      <c r="L71" t="n">
+        <v>511</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -7529,43 +7389,43 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Maitê Lopes</t>
+          <t>Sra. Melina Sousa</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Loteamento de da Cruz, 909
-Vila Madre Gertrudes 3ª Seção
-01795525 Rocha / PB</t>
+          <t>Conjunto de da Mata, 16
+Conjunto Paulo Vi
+26990858 Borges / RS</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>da Luz</t>
+          <t>Moraes</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>179266</v>
+        <v>661606</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>da Conceição das Neves e Filhos</t>
+          <t>Correia - ME</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17.674.863/0001-47</t>
+          <t>37.015.509/0001-00</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -7574,27 +7434,25 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>facere</t>
+          <t>dolores</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>libero</t>
+          <t>nesciunt</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>893.84</v>
+        <v>7093.31</v>
       </c>
       <c r="J72" t="n">
-        <v>78.09999999999999</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>971.9400000000001</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7169.490000000001</v>
+      </c>
+      <c r="L72" t="n">
+        <v>228</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7629,43 +7487,43 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>Maria Alice Cavalcanti</t>
+          <t>Sr. Marcos Vinicius Peixoto</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Aeroporto Sousa, 5
-Lorena
-15331458 Sousa / ES</t>
+          <t>Residencial da Luz, 3
+Novo Das Industrias
+35645-101 Sampaio / AL</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>da Conceição</t>
+          <t>Gonçalves</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>871611</v>
+        <v>624077</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Freitas - ME</t>
+          <t>Melo</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>45.998.007/0001-74</t>
+          <t>53.409.904/0001-74</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -7674,27 +7532,25 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>doloremque</t>
+          <t>quidem</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>consectetur</t>
+          <t>aliquam</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>464.28</v>
+        <v>8373.360000000001</v>
       </c>
       <c r="J73" t="n">
-        <v>36.63</v>
+        <v>53.88</v>
       </c>
       <c r="K73" t="n">
-        <v>500.91</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8427.24</v>
+      </c>
+      <c r="L73" t="n">
+        <v>315</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7729,43 +7585,43 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Ravi Nascimento</t>
+          <t>Sra. Maria Eduarda Azevedo</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Área de Sá, 97
-Lindéia
-53426-862 Albuquerque / MS</t>
+          <t>Esplanada de Alves, 94
+Vila Paris
+87146487 Pastor / SE</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>da Cruz</t>
+          <t>Barros Paulista</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>291463</v>
+        <v>366846</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Abreu</t>
+          <t>Gonçalves e Filhos</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>01.301.501/0001-38</t>
+          <t>68.127.015/0001-83</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -7774,27 +7630,25 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>alias</t>
+          <t>rem</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>maiores</t>
+          <t>quidem</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5848.05</v>
+        <v>6920.31</v>
       </c>
       <c r="J74" t="n">
-        <v>85.97</v>
+        <v>66.14</v>
       </c>
       <c r="K74" t="n">
-        <v>5934.02</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6986.450000000001</v>
+      </c>
+      <c r="L74" t="n">
+        <v>338</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7829,43 +7683,43 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Milena Gomes</t>
+          <t>Bárbara Pinto</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Quadra Beatriz Ribeiro
-Esplanada
-18153481 Jesus / PB</t>
+          <t>Vereda Camargo, 31
+Bandeirantes
+97399326 Rodrigues / PA</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Nunes</t>
+          <t>Pacheco Alegre</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>393333</v>
+        <v>745741</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15/08/2023</t>
+          <t>14/02/2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gonçalves Ltda.</t>
+          <t>Cassiano Melo - EI</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>84.314.883/0001-29</t>
+          <t>23.700.626/0001-65</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -7874,27 +7728,25 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>voluptas</t>
+          <t>ab</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>sint</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5949.33</v>
+        <v>3089.21</v>
       </c>
       <c r="J75" t="n">
-        <v>20.9</v>
+        <v>72.52</v>
       </c>
       <c r="K75" t="n">
-        <v>5970.23</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3161.73</v>
+      </c>
+      <c r="L75" t="n">
+        <v>171</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7929,43 +7781,43 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Dra. Marcela Fogaça</t>
+          <t>Leonardo Vargas</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Viela Lunna das Neves
-Ápia
-45957-809 Garcia / CE</t>
+          <t>Distrito de Moraes, 23
+Solar Do Barreiro
+34301-458 da Cruz dos Dourados / AL</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Vasconcelos</t>
+          <t>Fonseca</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>448237</v>
+        <v>510129</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nogueira Montenegro S/A</t>
+          <t>da Cunha Nascimento e Filhos</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>91.529.215/0001-92</t>
+          <t>83.050.750/0001-38</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -7974,27 +7826,25 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>cupiditate</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>animi</t>
+          <t>veritatis</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>8919.48</v>
+        <v>1977.57</v>
       </c>
       <c r="J76" t="n">
-        <v>98.81999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="K76" t="n">
-        <v>9018.299999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2047.37</v>
+      </c>
+      <c r="L76" t="n">
+        <v>534</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -8029,43 +7879,43 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Theodoro da Luz</t>
+          <t>Raquel Jesus</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Vila de Rezende, 17
-Vale Do Jatoba
-79915522 Leão / AL</t>
+          <t>Viela Felipe Silva, 8
+Vila Paraíso
+47014-740 Pereira do Norte / PA</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Azevedo do Campo</t>
+          <t>Moraes</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>319779</v>
+        <v>876034</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Barbosa S/A</t>
+          <t>Santos - EI</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>90.786.154/0001-00</t>
+          <t>80.602.718/0001-38</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -8074,27 +7924,25 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>fugit</t>
+          <t>perferendis</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>cumque</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2064.03</v>
+        <v>7253.27</v>
       </c>
       <c r="J77" t="n">
-        <v>73.33</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>2137.36</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7351.84</v>
+      </c>
+      <c r="L77" t="n">
+        <v>245</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -8129,43 +7977,43 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Sra. Maria Fernanda da Paz</t>
+          <t>Srta. Ana Clara Vasconcelos</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Parque Alexandre Pinto, 5
-Araguaia
-00743485 Melo de Monteiro / MA</t>
+          <t>Núcleo Cunha, 69
+Vila São Rafael
+82236-147 Garcia / RN</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Novaes de Cardoso</t>
+          <t>Vieira de Viana</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>431115</v>
+        <v>844163</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>Abreu S/A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>02.322.702/0001-92</t>
+          <t>23.585.319/0001-56</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -8174,27 +8022,25 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>rerum</t>
+          <t>eaque</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>nobis</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>151.3</v>
+        <v>9120.4</v>
       </c>
       <c r="J78" t="n">
-        <v>96.87</v>
+        <v>44.55</v>
       </c>
       <c r="K78" t="n">
-        <v>248.17</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9164.949999999999</v>
+      </c>
+      <c r="L78" t="n">
+        <v>247</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -8229,43 +8075,43 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Laura Nascimento</t>
+          <t>Ana Vitória Ferreira</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Ladeira Letícia Camargo, 9
-Vila São Paulo
-36844527 Martins do Amparo / SE</t>
+          <t>Trevo de Cirino, 2
+Engenho Nogueira
+61824-397 Sá de Ferreira / MS</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Cardoso dos Dourados</t>
+          <t>Macedo Alegre</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>420633</v>
+        <v>352383</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>20/08/2023</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>da Luz Rezende - ME</t>
+          <t>da Mota</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>20.236.099/0001-83</t>
+          <t>26.910.918/0001-29</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -8274,27 +8120,25 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>magnam</t>
+          <t>praesentium</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>vitae</t>
+          <t>et</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>8547.950000000001</v>
+        <v>7841.12</v>
       </c>
       <c r="J79" t="n">
-        <v>95.42</v>
+        <v>19.97</v>
       </c>
       <c r="K79" t="n">
-        <v>8643.370000000001</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7861.09</v>
+      </c>
+      <c r="L79" t="n">
+        <v>366</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -8329,43 +8173,43 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Helena Nunes</t>
+          <t>Valentina Brito</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Conjunto Rios
-Nossa Senhora Da Aparecida
-18364-907 Novais de Cunha / SP</t>
+          <t>Jardim de Cavalcanti, 65
+Vila Independencia 2ª Seção
+15638053 Macedo do Campo / RR</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Fogaça</t>
+          <t>Correia</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>716870</v>
+        <v>244056</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>Carvalho</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>93.420.220/0001-47</t>
+          <t>89.430.309/0001-92</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -8374,27 +8218,25 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>eum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>impedit</t>
+          <t>exercitationem</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>7273.74</v>
+        <v>2793.18</v>
       </c>
       <c r="J80" t="n">
-        <v>36.59</v>
+        <v>55.84</v>
       </c>
       <c r="K80" t="n">
-        <v>7310.33</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2849.02</v>
+      </c>
+      <c r="L80" t="n">
+        <v>454</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -8429,43 +8271,43 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Siqueira</t>
+          <t>Srta. Bella Souza</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Colônia de Cardoso, 79
-Carmo
-22824-797 Gonçalves de da Paz / PA</t>
+          <t>Rodovia Pires
+Ipiranga
+47570498 Barros / MT</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>da Luz</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>12838</v>
+        <v>499010</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>03/05/2024</t>
+          <t>28/10/2023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pacheco S.A.</t>
+          <t>Jesus</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20.735.754/0001-56</t>
+          <t>73.195.598/0001-10</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -8474,27 +8316,25 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ipsam</t>
+          <t>ut</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>adipisci</t>
+          <t>soluta</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4892.29</v>
+        <v>2766.07</v>
       </c>
       <c r="J81" t="n">
-        <v>28.92</v>
+        <v>45.94</v>
       </c>
       <c r="K81" t="n">
-        <v>4921.21</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2812.01</v>
+      </c>
+      <c r="L81" t="n">
+        <v>139</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -8529,43 +8369,43 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>José Rodrigues</t>
+          <t>Rafaela Cassiano</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Lago da Mata, 660
-Lourdes
-44931-204 da Mata / MS</t>
+          <t>Vale de Marques, 41
+Alta Tensão 2ª Seção
+72410-934 Fernandes dos Dourados / MT</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Vargas de Minas</t>
+          <t>Dias</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>639165</v>
+        <v>842764</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>17/05/2023</t>
+          <t>11/09/2023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Souza - EI</t>
+          <t>Nogueira</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>67.044.177/0001-10</t>
+          <t>06.004.041/0001-83</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -8574,27 +8414,25 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>laudantium</t>
+          <t>molestiae</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>praesentium</t>
+          <t>vel</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>6227.6</v>
+        <v>6945.43</v>
       </c>
       <c r="J82" t="n">
-        <v>49.43</v>
+        <v>88.72</v>
       </c>
       <c r="K82" t="n">
-        <v>6277.030000000001</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7034.150000000001</v>
+      </c>
+      <c r="L82" t="n">
+        <v>474</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -8629,43 +8467,43 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Bento Rocha</t>
+          <t>Juliana Farias</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Praça Aragão, 43
-São Pedro
-75492812 Rezende de Lima / MS</t>
+          <t>Ladeira de Mendonça, 352
+Embaúbas
+28694-801 Sales das Pedras / SE</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Camargo</t>
+          <t>Cunha de da Luz</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15981</v>
+        <v>324196</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>24/07/2023</t>
+          <t>04/06/2023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Duarte S/A</t>
+          <t>Andrade</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>88.739.707/0001-65</t>
+          <t>82.391.444/0001-00</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -8674,27 +8512,25 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>delectus</t>
+          <t>quae</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ducimus</t>
+          <t>corrupti</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1302.71</v>
+        <v>1326.53</v>
       </c>
       <c r="J83" t="n">
-        <v>82.51000000000001</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>1385.22</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1422.07</v>
+      </c>
+      <c r="L83" t="n">
+        <v>559</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8729,43 +8565,43 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Sr. Levi Montenegro</t>
+          <t>Ágatha Pires</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Estação de Siqueira, 95
-Inconfidência
-08320-375 da Paz / AM</t>
+          <t>Rua da Conceição, 20
+Jardim Do Vale
+66955-270 Cavalcante de Gomes / SP</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>Sá das Flores</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>166327</v>
+        <v>354682</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15/04/2024</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pacheco Peixoto - EI</t>
+          <t>Marques Sá - EI</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>03.541.033/0001-29</t>
+          <t>45.556.376/0001-74</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -8774,27 +8610,25 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ratione</t>
+          <t>aspernatur</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>qui</t>
+          <t>quibusdam</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8048.73</v>
+        <v>8947.98</v>
       </c>
       <c r="J84" t="n">
-        <v>71.08</v>
+        <v>57.47</v>
       </c>
       <c r="K84" t="n">
-        <v>8119.809999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9005.449999999999</v>
+      </c>
+      <c r="L84" t="n">
+        <v>486</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8829,43 +8663,43 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Joana Borges</t>
+          <t>Rodrigo Ribeiro</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Rua Joana da Rosa
-Acaiaca
-35053257 Silva / RR</t>
+          <t>Parque Luísa Cardoso, 61
+Marieta 1ª Seção
+47176-402 Cavalcante / PA</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Cassiano</t>
+          <t>Nunes</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>54115</v>
+        <v>15973</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>05/07/2023</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sampaio da Mata Ltda.</t>
+          <t>da Mota Barros Ltda.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>16.761.394/0001-65</t>
+          <t>00.089.041/0001-47</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -8874,27 +8708,25 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>fugiat</t>
+          <t>doloribus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>facere</t>
+          <t>blanditiis</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8363.99</v>
+        <v>1139.2</v>
       </c>
       <c r="J85" t="n">
-        <v>80.73</v>
+        <v>34.84</v>
       </c>
       <c r="K85" t="n">
-        <v>8444.719999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1174.04</v>
+      </c>
+      <c r="L85" t="n">
+        <v>287</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -8929,43 +8761,43 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Sophia Pereira</t>
+          <t>Mateus Viana</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Morro de Castro
-Vila Novo São Lucas
-34893433 Caldeira / PE</t>
+          <t>Estação Ferreira
+Tupi B
+30225413 Rios do Norte / SE</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>da Rosa dos Dourados</t>
+          <t>Carvalho</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>751916</v>
+        <v>416797</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sousa</t>
+          <t>Duarte Garcia e Filhos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>31.690.349/0001-00</t>
+          <t>60.440.501/0001-29</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -8974,27 +8806,25 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>placeat</t>
+          <t>doloribus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>odit</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>5702.13</v>
+        <v>6134.31</v>
       </c>
       <c r="J86" t="n">
-        <v>47.96</v>
+        <v>60.66</v>
       </c>
       <c r="K86" t="n">
-        <v>5750.09</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6194.97</v>
+      </c>
+      <c r="L86" t="n">
+        <v>398</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -9029,43 +8859,43 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Luísa Moreira</t>
+          <t>Otávio Rocha</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Esplanada Sophie Rocha, 8
-Beira Linha
-88029338 Moreira / DF</t>
+          <t>Alameda de Vasconcelos, 118
+Ventosa
+98390-933 Ribeiro / MS</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>da Paz da Prata</t>
+          <t>Rodrigues</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>964848</v>
+        <v>564806</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>05/07/2023</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Nascimento S/A</t>
+          <t>Cardoso</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>28.055.836/0001-29</t>
+          <t>27.101.521/0001-83</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -9074,27 +8904,25 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>vero</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>fugiat</t>
+          <t>doloremque</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2469.98</v>
+        <v>7725.57</v>
       </c>
       <c r="J87" t="n">
-        <v>88.25</v>
+        <v>81.41</v>
       </c>
       <c r="K87" t="n">
-        <v>2558.23</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7806.98</v>
+      </c>
+      <c r="L87" t="n">
+        <v>530</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -9129,43 +8957,43 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>Lavínia Teixeira</t>
+          <t>João Vitor Lopes</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Parque Ravi Lucca Pacheco, 45
-Aeroporto
-51502284 Vasconcelos / RO</t>
+          <t>Chácara Oliveira, 66
+São Vicente
+99228-591 Câmara / RJ</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>Teixeira</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>727093</v>
+        <v>716213</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>06/07/2023</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cardoso</t>
+          <t>Brito - EI</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19.964.498/0001-65</t>
+          <t>55.872.939/0001-38</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -9174,27 +9002,25 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>saepe</t>
+          <t>tempore</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>porro</t>
+          <t>quis</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>849.2</v>
+        <v>7062.54</v>
       </c>
       <c r="J88" t="n">
-        <v>59.22</v>
+        <v>67.73</v>
       </c>
       <c r="K88" t="n">
-        <v>908.4200000000001</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7130.27</v>
+      </c>
+      <c r="L88" t="n">
+        <v>121</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -9229,43 +9055,43 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Lorenzo Sales</t>
+          <t>Carlos Eduardo Brito</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Área Siqueira, 20
-Trevo
-47462906 Silva do Sul / RR</t>
+          <t>Aeroporto Maria Cecília Cassiano, 18
+Gameleira
+03734-866 Almeida de Minas / AC</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Fogaça do Amparo</t>
+          <t>Novaes do Galho</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>497448</v>
+        <v>238256</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>07/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>Dias</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>90.318.525/0001-38</t>
+          <t>53.798.217/0001-47</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -9274,27 +9100,25 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>odit</t>
+          <t>mollitia</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>nam</t>
+          <t>officiis</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>8462.120000000001</v>
+        <v>1470.57</v>
       </c>
       <c r="J89" t="n">
-        <v>29.02</v>
+        <v>16.77</v>
       </c>
       <c r="K89" t="n">
-        <v>8491.140000000001</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1487.34</v>
+      </c>
+      <c r="L89" t="n">
+        <v>273</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -9329,43 +9153,43 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Ana Liz da Rosa</t>
+          <t>Yuri da Rosa</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Passarela Moraes, 647
-Satelite
-42227281 Garcia do Campo / PE</t>
+          <t>Condomínio Costa, 21
+Bacurau
+43349445 Casa Grande dos Dourados / RN</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>Costa</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>613459</v>
+        <v>715635</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>Santos Caldeira S/A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>03.259.653/0001-29</t>
+          <t>25.128.376/0001-74</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -9374,27 +9198,25 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>facilis</t>
+          <t>est</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>asperiores</t>
+          <t>quisquam</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>6914.55</v>
+        <v>5479.03</v>
       </c>
       <c r="J90" t="n">
-        <v>20.73</v>
+        <v>34.05</v>
       </c>
       <c r="K90" t="n">
-        <v>6935.28</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>5513.08</v>
+      </c>
+      <c r="L90" t="n">
+        <v>318</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -9429,43 +9251,43 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Ana Beatriz Fogaça</t>
+          <t>Srta. Melina Pereira</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Via de Brito, 89
-Minaslandia
-82945-853 Montenegro da Prata / RJ</t>
+          <t>Praça Leão, 644
+João Paulo Ii
+82363656 Albuquerque do Galho / BA</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>Costela de Aragão</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>180674</v>
+        <v>934836</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Vieira Cirino - ME</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>78.441.098/0001-00</t>
+          <t>88.906.898/0001-29</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -9474,27 +9296,25 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>dignissimos</t>
+          <t>ipsa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>nesciunt</t>
+          <t>in</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>577.15</v>
+        <v>2431.16</v>
       </c>
       <c r="J91" t="n">
-        <v>82.20999999999999</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>659.36</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2507.23</v>
+      </c>
+      <c r="L91" t="n">
+        <v>478</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -9529,43 +9349,43 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Dr. Ravy Fonseca</t>
+          <t>Maria Luiza Campos</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Via Carlos Eduardo Guerra, 8
-Vila Das Oliveiras
-32448-189 Borges / TO</t>
+          <t>Via Pereira, 773
+Vila São Geraldo
+93452-247 Ribeiro / RR</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>Carvalho</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>210543</v>
+        <v>253168</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>23/03/2024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cavalcante Duarte Ltda.</t>
+          <t>Camargo Fonseca e Filhos</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>80.864.775/0001-10</t>
+          <t>12.324.140/0001-29</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -9574,27 +9394,25 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>libero</t>
+          <t>natus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>magni</t>
+          <t>autem</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1950.57</v>
+        <v>9792.74</v>
       </c>
       <c r="J92" t="n">
-        <v>10.16</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>1960.73</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9875.949999999999</v>
+      </c>
+      <c r="L92" t="n">
+        <v>160</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -9629,43 +9447,43 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Davi Lucca Cassiano</t>
+          <t>Léo Silveira</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Fazenda de Jesus, 94
-Tres Marias
-82543-239 Ribeiro / AL</t>
+          <t>Sítio da Conceição, 66
+Madri
+87757-227 Ribeiro / MA</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>Dias do Norte</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>949181</v>
+        <v>998832</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>13/01/2024</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Fogaça Machado - EI</t>
+          <t>Moura da Rocha e Filhos</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>24.128.707/0001-38</t>
+          <t>98.912.839/0001-92</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -9674,27 +9492,25 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>nobis</t>
+          <t>hic</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>quasi</t>
+          <t>dicta</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3796.91</v>
+        <v>9118.76</v>
       </c>
       <c r="J93" t="n">
-        <v>42.5</v>
+        <v>17.87</v>
       </c>
       <c r="K93" t="n">
-        <v>3839.41</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>9136.630000000001</v>
+      </c>
+      <c r="L93" t="n">
+        <v>114</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -9729,43 +9545,43 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Sophia Silva</t>
+          <t>Dr. Emanuel Nunes</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Viaduto de Nascimento, 531
-Nova America
-91904241 Cavalcante do Oeste / PA</t>
+          <t>Ladeira de Pastor, 97
+Buritis
+96446199 Gomes / ES</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>da Rosa Alegre</t>
+          <t>Teixeira da Praia</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>327612</v>
+        <v>154614</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Aragão</t>
+          <t>Fonseca</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>08.864.298/0001-65</t>
+          <t>68.042.396/0001-65</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -9774,27 +9590,25 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>iste</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>mollitia</t>
+          <t>similique</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>834.91</v>
+        <v>3203.38</v>
       </c>
       <c r="J94" t="n">
-        <v>95.12</v>
+        <v>78.3</v>
       </c>
       <c r="K94" t="n">
-        <v>930.03</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3281.68</v>
+      </c>
+      <c r="L94" t="n">
+        <v>282</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9829,43 +9643,43 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Dr. Asafe Dias</t>
+          <t>Lavínia Casa Grande</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Área de Brito, 9
-Mariano De Abreu
-82301-855 Rios de Minas / RJ</t>
+          <t>Ladeira Luiza Jesus, 32
+Brasil Industrial
+46820142 Abreu / PA</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Marques</t>
+          <t>Pinto do Amparo</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>106202</v>
+        <v>568274</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>da Rosa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>02.908.321/0001-65</t>
+          <t>92.489.967/0001-56</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -9874,27 +9688,25 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>vitae</t>
+          <t>doloremque</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>earum</t>
+          <t>explicabo</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>905.53</v>
+        <v>6482.91</v>
       </c>
       <c r="J95" t="n">
-        <v>97.61</v>
+        <v>49.66</v>
       </c>
       <c r="K95" t="n">
-        <v>1003.14</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6532.57</v>
+      </c>
+      <c r="L95" t="n">
+        <v>570</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9929,43 +9741,43 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Dra. Yasmin da Cruz</t>
+          <t>Maria Rocha</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Setor de Castro, 338
-Lorena
-38239322 Fogaça de Pastor / PE</t>
+          <t>Rua de Farias, 96
+Vila Santo Antônio Barroquinha
+85666827 Costa / CE</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Freitas do Norte</t>
+          <t>Rios do Oeste</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>587914</v>
+        <v>370848</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>30/09/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Abreu S/A</t>
+          <t>Martins - EI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>01.562.303/0001-10</t>
+          <t>78.530.438/0001-10</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -9974,27 +9786,25 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>culpa</t>
+          <t>adipisci</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>nesciunt</t>
+          <t>sapiente</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>5166.62</v>
+        <v>585.71</v>
       </c>
       <c r="J96" t="n">
-        <v>51.07</v>
+        <v>34.02</v>
       </c>
       <c r="K96" t="n">
-        <v>5217.69</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>619.73</v>
+      </c>
+      <c r="L96" t="n">
+        <v>195</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -10029,43 +9839,43 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Sr. João Guilherme Marques</t>
+          <t>Danilo Leão</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Colônia Sampaio, 93
-São Pedro
-54983053 Albuquerque / AL</t>
+          <t>Estação Cassiano
+Ermelinda
+47698846 Santos / RN</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>da Costa Verde</t>
+          <t>Cunha Paulista</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>756531</v>
+        <v>753985</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>19/08/2023</t>
+          <t>05/06/2023</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Novaes Monteiro - ME</t>
+          <t>da Mota</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>50.106.029/0001-47</t>
+          <t>02.176.759/0001-47</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -10074,27 +9884,25 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>ullam</t>
+          <t>eum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>cupiditate</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>7483.89</v>
+        <v>3630.19</v>
       </c>
       <c r="J97" t="n">
-        <v>64.7</v>
+        <v>36.11</v>
       </c>
       <c r="K97" t="n">
-        <v>7548.59</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3666.3</v>
+      </c>
+      <c r="L97" t="n">
+        <v>350</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -10129,43 +9937,43 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Dra. Ana Cecília Marques</t>
+          <t>Isaque Pastor</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Alameda Andrade, 5
-Acaiaca
-60607-912 da Paz de Guerra / CE</t>
+          <t>Estrada Kevin Lopes, 266
+Salgado Filho
+60889-199 Andrade / RN</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>Alves de Moura</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>117687</v>
+        <v>572402</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>05/04/2024</t>
+          <t>27/07/2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Barros</t>
+          <t>Casa Grande S/A</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>21.093.720/0001-00</t>
+          <t>94.065.368/0001-65</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -10174,27 +9982,25 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>nostrum</t>
+          <t>beatae</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>delectus</t>
+          <t>tenetur</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>194.16</v>
+        <v>2316.27</v>
       </c>
       <c r="J98" t="n">
-        <v>91.27</v>
+        <v>77.18000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>285.43</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2393.45</v>
+      </c>
+      <c r="L98" t="n">
+        <v>527</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -10229,43 +10035,43 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Sr. João Felipe Siqueira</t>
+          <t>Theo Dias</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Viaduto de Castro, 38
-Paulo Vi
-02209756 Abreu do Sul / GO</t>
+          <t>Praia Ferreira, 14
+Vila Oeste
+91340-302 Fogaça do Galho / CE</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>da Paz Grande</t>
+          <t>Cavalcanti da Praia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>896691</v>
+        <v>609288</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>13/05/2024</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Borges</t>
+          <t>Gonçalves</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20.618.584/0001-38</t>
+          <t>23.957.499/0001-92</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -10274,27 +10080,25 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>tempora</t>
+          <t>quae</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>dolorum</t>
+          <t>ratione</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>6900.48</v>
+        <v>6278.37</v>
       </c>
       <c r="J99" t="n">
-        <v>31.58</v>
+        <v>27.58</v>
       </c>
       <c r="K99" t="n">
-        <v>6932.059999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>6305.95</v>
+      </c>
+      <c r="L99" t="n">
+        <v>203</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -10329,43 +10133,43 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>Vitor Gabriel da Luz</t>
+          <t>Maria Vitória Costa</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Quadra Erick Mendes, 37
-Comiteco
-61337943 Vieira Paulista / SP</t>
+          <t>Parque Sá, 33
+Lourdes
+54886-714 Santos da Praia / RS</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>da Cruz</t>
+          <t>Cardoso Alegre</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>907628</v>
+        <v>776759</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Machado</t>
+          <t>Fonseca da Paz S/A</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>03.408.494/0001-10</t>
+          <t>98.514.970/0001-00</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -10374,27 +10178,25 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>molestias</t>
+          <t>earum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>provident</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>7656.47</v>
+        <v>8686.950000000001</v>
       </c>
       <c r="J100" t="n">
-        <v>33.33</v>
+        <v>57.89</v>
       </c>
       <c r="K100" t="n">
-        <v>7689.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8744.84</v>
+      </c>
+      <c r="L100" t="n">
+        <v>576</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -10429,43 +10231,43 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Josué Ramos</t>
+          <t>Cecilia Albuquerque</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Favela Vicente Sousa, 2
-Marilandia
-54044624 Farias / PE</t>
+          <t>Loteamento Ana Beatriz da Conceição, 55
+Vila Boa Vista
+68280-214 Moura / MA</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Fonseca do Campo</t>
+          <t>Rios das Flores</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>714541</v>
+        <v>7084</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Duarte S/A</t>
+          <t>Jesus</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>75.262.844/0001-00</t>
+          <t>13.447.623/0001-83</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -10474,27 +10276,25 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>molestiae</t>
+          <t>officiis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>consequatur</t>
+          <t>voluptate</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2423.94</v>
+        <v>8530.84</v>
       </c>
       <c r="J101" t="n">
-        <v>34.51</v>
+        <v>44.37</v>
       </c>
       <c r="K101" t="n">
-        <v>2458.45</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>8575.210000000001</v>
+      </c>
+      <c r="L101" t="n">
+        <v>448</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -10529,19 +10329,19 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Luiz Henrique Jesus</t>
+          <t>Ísis Santos</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Núcleo Macedo, 96
-Vila Real 2ª Seção
-17460-627 Gomes de Minas / MT</t>
+          <t>Largo Vitor Gabriel Vargas, 9
+Conjunto Califórnia I
+58378205 Ferreira / RN</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Albuquerque da Serra</t>
+          <t>Barros</t>
         </is>
       </c>
     </row>

--- a/dados_ficticios.xlsx
+++ b/dados_ficticios.xlsx
@@ -532,306 +532,298 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>868829</v>
+        <v>688911</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fogaça da Cruz - ME</t>
+          <t>Moraes - EI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.497.822/0001-29</t>
+          <t>65.329.463/0001-47</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="F2" t="n">
+        <v>169</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>nostrum</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>facilis</t>
+          <t>eligendi</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>513.88</v>
+        <v>5791.1</v>
       </c>
       <c r="J2" t="n">
-        <v>61.41</v>
+        <v>33.21</v>
       </c>
       <c r="K2" t="n">
-        <v>575.29</v>
+        <v>5824.31</v>
       </c>
       <c r="L2" t="n">
-        <v>593</v>
+        <v>327</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>11/06/2023</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>523.51</v>
+        <v>5300.12</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>108061</v>
+        <v>851823</v>
       </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2023/62</t>
+          <t>2023/28</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>451539</v>
+        <v>927327</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Souza Sá S/A</t>
+          <t>Alves</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>04.909.860/0001-10</t>
+          <t>26.558.969/0001-92</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>804</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>fugit</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>iusto</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4745.25</v>
+        <v>482.06</v>
       </c>
       <c r="J3" t="n">
-        <v>80.70999999999999</v>
+        <v>32.58</v>
       </c>
       <c r="K3" t="n">
-        <v>4825.96</v>
+        <v>514.64</v>
       </c>
       <c r="L3" t="n">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4102.07</v>
+        <v>452.88</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>65836</v>
+        <v>308362</v>
       </c>
       <c r="Q3" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2023/40</t>
+          <t>2023/89</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>882645</v>
+        <v>471204</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Camargo S.A.</t>
+          <t>Pacheco</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08.435.906/0001-83</t>
+          <t>48.300.984/0001-10</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>444</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>voluptatum</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>doloribus</t>
+          <t>quod</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5672.83</v>
+        <v>6193.63</v>
       </c>
       <c r="J4" t="n">
-        <v>30.12</v>
+        <v>88.87</v>
       </c>
       <c r="K4" t="n">
-        <v>5702.95</v>
+        <v>6282.5</v>
       </c>
       <c r="L4" t="n">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14/04/2024</t>
+          <t>26/05/2023</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5417.8</v>
+        <v>5779.9</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>819386</v>
+        <v>676642</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2023/62</t>
+          <t>2023/18</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>726280</v>
+        <v>620539</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19/09/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gonçalves</t>
+          <t>Ferreira Andrade - ME</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.108.293/0001-38</t>
+          <t>04.727.708/0001-83</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>296</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>voluptatibus</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tenetur</t>
+          <t>quod</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9254.860000000001</v>
+        <v>8631.280000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>88.45</v>
+        <v>78.39</v>
       </c>
       <c r="K5" t="n">
-        <v>9343.310000000001</v>
+        <v>8709.67</v>
       </c>
       <c r="L5" t="n">
-        <v>412</v>
+        <v>491</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>9156.440000000001</v>
+        <v>7403.22</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>437679</v>
+        <v>999911</v>
       </c>
       <c r="Q5" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2023/50</t>
+          <t>2023/36</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -840,52 +832,50 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>507402</v>
+        <v>558413</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>06/06/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marques</t>
+          <t>Sousa da Cruz S.A.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.912.210/0001-56</t>
+          <t>36.129.359/0001-00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>568</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>eligendi</t>
+          <t>iusto</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5997.71</v>
+        <v>5926.09</v>
       </c>
       <c r="J6" t="n">
-        <v>48.45</v>
+        <v>56.69</v>
       </c>
       <c r="K6" t="n">
-        <v>6046.16</v>
+        <v>5982.78</v>
       </c>
       <c r="L6" t="n">
-        <v>352</v>
+        <v>554</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -893,253 +883,247 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5622.93</v>
+        <v>5563.99</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>74546</v>
+        <v>204572</v>
       </c>
       <c r="Q6" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2023/65</t>
+          <t>2023/64</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>698638</v>
+        <v>502430</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cardoso Souza - EI</t>
+          <t>da Mata S.A.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.510.123/0001-38</t>
+          <t>09.485.337/0001-00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>265</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>dignissimos</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>quia</t>
+          <t>cumque</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8258.26</v>
+        <v>394.22</v>
       </c>
       <c r="J7" t="n">
-        <v>97.53</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>8355.790000000001</v>
+        <v>415.22</v>
       </c>
       <c r="L7" t="n">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>03/10/2023</t>
+          <t>31/05/2023</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>7520.21</v>
+        <v>402.76</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>158161</v>
+        <v>978542</v>
       </c>
       <c r="Q7" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2023/48</t>
+          <t>2023/26</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>289793</v>
+        <v>925182</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11/09/2023</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Fonseca</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>76.648.632/0001-10</t>
+          <t>89.585.247/0001-47</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>354</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>possimus</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>quidem</t>
+          <t>voluptatum</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>746.85</v>
+        <v>8874.41</v>
       </c>
       <c r="J8" t="n">
-        <v>33.07</v>
+        <v>45.21</v>
       </c>
       <c r="K8" t="n">
-        <v>779.9200000000001</v>
+        <v>8919.619999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>505</v>
+        <v>148</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>06/08/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>694.13</v>
+        <v>7938.46</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>86278</v>
+        <v>842010</v>
       </c>
       <c r="Q8" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2023/47</t>
+          <t>2023/69</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>923456</v>
+        <v>8917</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>07/10/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Casa Grande Abreu S/A</t>
+          <t>Barbosa Pinto e Filhos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.817.532/0001-00</t>
+          <t>40.769.491/0001-38</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>137</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>quasi</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>tenetur</t>
+          <t>amet</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2546.27</v>
+        <v>1602.18</v>
       </c>
       <c r="J9" t="n">
-        <v>17.04</v>
+        <v>92.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2563.31</v>
+        <v>1694.68</v>
       </c>
       <c r="L9" t="n">
-        <v>569</v>
+        <v>437</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2383.88</v>
+        <v>1525.21</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>491161</v>
+        <v>512778</v>
       </c>
       <c r="Q9" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2023/56</t>
+          <t>2023/93</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1148,3540 +1132,3448 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>521546</v>
+        <v>15442</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>03/05/2024</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Costela Nascimento - ME</t>
+          <t>Pacheco</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.089.276/0001-00</t>
+          <t>27.596.984/0001-47</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>89</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>751</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>assumenda</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>sed</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3180.38</v>
+        <v>3334.15</v>
       </c>
       <c r="J10" t="n">
-        <v>26.1</v>
+        <v>89.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3206.48</v>
+        <v>3423.45</v>
       </c>
       <c r="L10" t="n">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/07/2023</t>
+          <t>22/10/2023</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2757.57</v>
+        <v>2944.17</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>696372</v>
+        <v>661193</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2023/36</t>
+          <t>2023/59</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63566</v>
+        <v>825382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/05/2024</t>
+          <t>09/04/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>Novaes - EI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28.645.578/0001-65</t>
+          <t>38.143.562/0001-83</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="F11" t="n">
+        <v>248</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>quisquam</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>laudantium</t>
+          <t>numquam</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3925.91</v>
+        <v>928.0700000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>45.15</v>
+        <v>60.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3971.06</v>
+        <v>988.72</v>
       </c>
       <c r="L11" t="n">
-        <v>151</v>
+        <v>370</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>03/10/2023</t>
+          <t>03/02/2024</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3732.8</v>
+        <v>889.85</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>633578</v>
+        <v>90464</v>
       </c>
       <c r="Q11" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2023/77</t>
+          <t>2023/81</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>52616</v>
+        <v>476465</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>da Conceição Aragão - EI</t>
+          <t>Pastor Machado S.A.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>71.769.265/0001-56</t>
+          <t>31.571.003/0001-92</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>87</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>68</v>
+      </c>
+      <c r="F12" t="n">
+        <v>569</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>accusantium</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>quaerat</t>
+          <t>exercitationem</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9304.969999999999</v>
+        <v>5777.93</v>
       </c>
       <c r="J12" t="n">
-        <v>45.88</v>
+        <v>39.14</v>
       </c>
       <c r="K12" t="n">
-        <v>9350.849999999999</v>
+        <v>5817.070000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>486</v>
+        <v>120</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>14/06/2023</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8135.24</v>
+        <v>5235.36</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>833114</v>
+        <v>430646</v>
       </c>
       <c r="Q12" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2023/79</t>
+          <t>2023/54</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>862195</v>
+        <v>66490</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>da Rosa Ltda.</t>
+          <t>Guerra Campos - ME</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.889.886/0001-83</t>
+          <t>79.907.877/0001-29</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>77</v>
+      </c>
+      <c r="F13" t="n">
+        <v>407</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>aspernatur</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>voluptatum</t>
+          <t>quod</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>7783.04</v>
+        <v>7426.43</v>
       </c>
       <c r="J13" t="n">
-        <v>24.38</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>7807.42</v>
+        <v>7524.14</v>
       </c>
       <c r="L13" t="n">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>22/10/2023</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>7104.75</v>
+        <v>6846.97</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>668085</v>
+        <v>748410</v>
       </c>
       <c r="Q13" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2023/43</t>
+          <t>2023/49</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>72984</v>
+        <v>45314</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>05/09/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>da Rocha</t>
+          <t>da Costa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.892.116/0001-65</t>
+          <t>42.612.749/0001-56</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>87</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="F14" t="n">
+        <v>332</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>voluptas</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>nemo</t>
+          <t>numquam</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7136.42</v>
+        <v>9390.92</v>
       </c>
       <c r="J14" t="n">
-        <v>47.06</v>
+        <v>97.27</v>
       </c>
       <c r="K14" t="n">
-        <v>7183.48</v>
+        <v>9488.190000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>537</v>
+        <v>441</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>25/10/2023</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6249.63</v>
+        <v>8159.84</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>723142</v>
+        <v>479549</v>
       </c>
       <c r="Q14" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2023/25</t>
+          <t>2023/38</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>298854</v>
+        <v>851913</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aparecida</t>
+          <t>da Luz S.A.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06.161.112/0001-00</t>
+          <t>33.875.114/0001-00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="F15" t="n">
+        <v>402</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>vero</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>veniam</t>
+          <t>quisquam</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8455.469999999999</v>
+        <v>6152.37</v>
       </c>
       <c r="J15" t="n">
-        <v>80.5</v>
+        <v>37.1</v>
       </c>
       <c r="K15" t="n">
-        <v>8535.969999999999</v>
+        <v>6189.47</v>
       </c>
       <c r="L15" t="n">
-        <v>431</v>
+        <v>184</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>29/07/2023</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>7597.01</v>
+        <v>5570.52</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>51169</v>
+        <v>532179</v>
       </c>
       <c r="Q15" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2023/21</t>
+          <t>2023/53</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>461842</v>
+        <v>804468</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25/05/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Novaes</t>
+          <t>da Mata</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.771.755/0001-29</t>
+          <t>81.961.768/0001-74</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>738</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>dolorum</t>
+          <t>voluptate</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2136.76</v>
+        <v>5645.65</v>
       </c>
       <c r="J16" t="n">
-        <v>62.46</v>
+        <v>51.41</v>
       </c>
       <c r="K16" t="n">
-        <v>2199.22</v>
+        <v>5697.059999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>375</v>
+        <v>164</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>26/08/2023</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2045.27</v>
+        <v>5070.38</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>490620</v>
+        <v>17524</v>
       </c>
       <c r="Q16" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2023/24</t>
+          <t>2023/75</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>703151</v>
+        <v>247973</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cunha Cirino S.A.</t>
+          <t>Campos</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32.783.551/0001-65</t>
+          <t>37.440.465/0001-65</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>89</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>370</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>corporis</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>similique</t>
+          <t>voluptatem</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6051.77</v>
+        <v>3547.04</v>
       </c>
       <c r="J17" t="n">
-        <v>56.57</v>
+        <v>52.7</v>
       </c>
       <c r="K17" t="n">
-        <v>6108.34</v>
+        <v>3599.74</v>
       </c>
       <c r="L17" t="n">
-        <v>549</v>
+        <v>401</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>12/07/2023</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5558.59</v>
+        <v>3599.74</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>179567</v>
+        <v>620771</v>
       </c>
       <c r="Q17" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2023/97</t>
+          <t>2023/85</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>617617</v>
+        <v>128375</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Novaes S.A.</t>
+          <t>Vieira Pacheco - ME</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22.186.271/0001-83</t>
+          <t>51.050.089/0001-74</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="F18" t="n">
+        <v>919</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>voluptatum</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>blanditiis</t>
+          <t>pariatur</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1557.68</v>
+        <v>2551.33</v>
       </c>
       <c r="J18" t="n">
-        <v>72.16</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>1629.84</v>
+        <v>2641.32</v>
       </c>
       <c r="L18" t="n">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>23/06/2023</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1597.24</v>
+        <v>2509.25</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>522208</v>
+        <v>953014</v>
       </c>
       <c r="Q18" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2023/80</t>
+          <t>2023/41</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>887775</v>
+        <v>421865</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>02/06/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Garcia Campos Ltda.</t>
+          <t>Monteiro</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29.290.341/0001-47</t>
+          <t>49.267.298/0001-65</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="F19" t="n">
+        <v>340</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>veritatis</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>vel</t>
+          <t>aperiam</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5810.28</v>
+        <v>4571.45</v>
       </c>
       <c r="J19" t="n">
-        <v>12.1</v>
+        <v>17.1</v>
       </c>
       <c r="K19" t="n">
-        <v>5822.38</v>
+        <v>4588.55</v>
       </c>
       <c r="L19" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>5356.59</v>
+        <v>3992.04</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>698451</v>
+        <v>731964</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2023/78</t>
+          <t>2023/17</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>160034</v>
+        <v>572150</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26/10/2023</t>
+          <t>07/09/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>da Luz - ME</t>
+          <t>das Neves - ME</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>62.052.106/0001-29</t>
+          <t>24.122.923/0001-92</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>61</v>
+      </c>
+      <c r="F20" t="n">
+        <v>572</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>reiciendis</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>blanditiis</t>
+          <t>minus</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5471.1</v>
+        <v>7824.47</v>
       </c>
       <c r="J20" t="n">
-        <v>48.6</v>
+        <v>51.47</v>
       </c>
       <c r="K20" t="n">
-        <v>5519.700000000001</v>
+        <v>7875.940000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>410</v>
+        <v>185</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4691.75</v>
+        <v>6773.31</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>886618</v>
+        <v>602684</v>
       </c>
       <c r="Q20" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2023/78</t>
+          <t>2023/40</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12558</v>
+        <v>300786</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25/07/2023</t>
+          <t>10/04/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Melo</t>
+          <t>Cavalcanti</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>39.387.491/0001-00</t>
+          <t>96.465.984/0001-47</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="F21" t="n">
+        <v>816</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>dicta</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>nobis</t>
+          <t>mollitia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2425.64</v>
+        <v>7198.88</v>
       </c>
       <c r="J21" t="n">
-        <v>33.49</v>
+        <v>60.12</v>
       </c>
       <c r="K21" t="n">
-        <v>2459.13</v>
+        <v>7259</v>
       </c>
       <c r="L21" t="n">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2360.76</v>
+        <v>6460.51</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>608955</v>
+        <v>467262</v>
       </c>
       <c r="Q21" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2023/74</t>
+          <t>2023/14</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>618612</v>
+        <v>385221</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>10/08/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Barbosa</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>79.299.305/0001-47</t>
+          <t>13.334.708/0001-47</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="F22" t="n">
+        <v>739</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>necessitatibus</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>impedit</t>
+          <t>consequatur</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3886.03</v>
+        <v>9863.08</v>
       </c>
       <c r="J22" t="n">
-        <v>25.29</v>
+        <v>41.87</v>
       </c>
       <c r="K22" t="n">
-        <v>3911.32</v>
+        <v>9904.950000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>585</v>
+        <v>361</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3637.53</v>
+        <v>8617.309999999999</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39229</v>
+        <v>5025</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2023/16</t>
+          <t>2023/28</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>476758</v>
+        <v>76491</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13/08/2023</t>
+          <t>06/07/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Freitas</t>
+          <t>Marques - EI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>74.473.990/0001-38</t>
+          <t>36.198.150/0001-74</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>87</v>
+      </c>
+      <c r="F23" t="n">
+        <v>881</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>quia</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>aspernatur</t>
+          <t>commodi</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1829.64</v>
+        <v>2380.69</v>
       </c>
       <c r="J23" t="n">
-        <v>35.45</v>
+        <v>99.69</v>
       </c>
       <c r="K23" t="n">
-        <v>1865.09</v>
+        <v>2480.38</v>
       </c>
       <c r="L23" t="n">
-        <v>338</v>
+        <v>556</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/09/2023</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1659.93</v>
+        <v>2405.97</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>61818</v>
+        <v>642911</v>
       </c>
       <c r="Q23" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2023/68</t>
+          <t>2023/63</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>711505</v>
+        <v>537736</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Camargo Ltda.</t>
+          <t>Pimenta</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>78.191.380/0001-00</t>
+          <t>13.934.967/0001-92</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>51</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>89</v>
+      </c>
+      <c r="F24" t="n">
+        <v>640</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>suscipit</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>beatae</t>
+          <t>quo</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8506.290000000001</v>
+        <v>6288.13</v>
       </c>
       <c r="J24" t="n">
-        <v>55.6</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>8561.890000000001</v>
+        <v>6362.48</v>
       </c>
       <c r="L24" t="n">
-        <v>385</v>
+        <v>465</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/06/2023</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>7448.84</v>
+        <v>5726.23</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>656979</v>
+        <v>452247</v>
       </c>
       <c r="Q24" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2023/52</t>
+          <t>2023/16</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>496783</v>
+        <v>948343</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06/07/2023</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Silveira S/A</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>96.057.395/0001-38</t>
+          <t>13.019.936/0001-65</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="F25" t="n">
+        <v>407</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>libero</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>iure</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7744.62</v>
+        <v>7940.05</v>
       </c>
       <c r="J25" t="n">
-        <v>29.38</v>
+        <v>24.37</v>
       </c>
       <c r="K25" t="n">
-        <v>7774</v>
+        <v>7964.42</v>
       </c>
       <c r="L25" t="n">
-        <v>539</v>
+        <v>474</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>7540.78</v>
+        <v>7167.98</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>262459</v>
+        <v>676565</v>
       </c>
       <c r="Q25" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2023/29</t>
+          <t>2023/69</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>342920</v>
+        <v>466991</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19/07/2023</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Moura</t>
+          <t>Pimenta S.A.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>32.106.440/0001-65</t>
+          <t>50.551.661/0001-83</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>88</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="F26" t="n">
+        <v>522</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>modi</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>reiciendis</t>
+          <t>dolores</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2702.26</v>
+        <v>1013.56</v>
       </c>
       <c r="J26" t="n">
-        <v>49.22</v>
+        <v>19.21</v>
       </c>
       <c r="K26" t="n">
-        <v>2751.48</v>
+        <v>1032.77</v>
       </c>
       <c r="L26" t="n">
-        <v>352</v>
+        <v>194</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>05/04/2024</t>
+          <t>18/04/2024</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2586.39</v>
+        <v>960.48</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>34632</v>
+        <v>800241</v>
       </c>
       <c r="Q26" t="n">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2023/16</t>
+          <t>2023/74</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>271293</v>
+        <v>985514</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06/04/2024</t>
+          <t>10/06/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Castro S.A.</t>
+          <t>Peixoto Borges e Filhos</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.450.909/0001-47</t>
+          <t>41.494.326/0001-83</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="F27" t="n">
+        <v>869</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sed</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>repellendus</t>
+          <t>sapiente</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>7065.54</v>
+        <v>2165.14</v>
       </c>
       <c r="J27" t="n">
-        <v>92.94</v>
+        <v>59.76</v>
       </c>
       <c r="K27" t="n">
-        <v>7158.48</v>
+        <v>2224.9</v>
       </c>
       <c r="L27" t="n">
-        <v>208</v>
+        <v>519</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>14/09/2023</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>6728.97</v>
+        <v>2113.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>408038</v>
+        <v>336348</v>
       </c>
       <c r="Q27" t="n">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2023/40</t>
+          <t>2023/56</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>980244</v>
+        <v>35914</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21/04/2024</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Siqueira</t>
+          <t>Aragão - EI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29.845.750/0001-38</t>
+          <t>42.490.683/0001-10</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>82</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="F28" t="n">
+        <v>402</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>quos</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>natus</t>
+          <t>expedita</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8062.18</v>
+        <v>7018.78</v>
       </c>
       <c r="J28" t="n">
-        <v>19.37</v>
+        <v>15.2</v>
       </c>
       <c r="K28" t="n">
-        <v>8081.55</v>
+        <v>7033.98</v>
       </c>
       <c r="L28" t="n">
-        <v>112</v>
+        <v>567</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>6950.13</v>
+        <v>6400.92</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>709215</v>
+        <v>137273</v>
       </c>
       <c r="Q28" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2023/83</t>
+          <t>2023/13</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>992144</v>
+        <v>987273</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>da Conceição S.A.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>43.056.607/0001-47</t>
+          <t>98.585.511/0001-92</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>67</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>93</v>
+      </c>
+      <c r="F29" t="n">
+        <v>831</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>occaecati</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>voluptates</t>
+          <t>ipsum</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>635.48</v>
+        <v>8625.82</v>
       </c>
       <c r="J29" t="n">
-        <v>40.24</v>
+        <v>19.96</v>
       </c>
       <c r="K29" t="n">
-        <v>675.72</v>
+        <v>8645.779999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>206</v>
+        <v>527</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>675.72</v>
+        <v>8472.860000000001</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>285391</v>
+        <v>278701</v>
       </c>
       <c r="Q29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2023/65</t>
+          <t>2023/61</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>881821</v>
+        <v>594528</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>02/06/2023</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Machado Dias S/A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>83.630.949/0001-00</t>
+          <t>72.801.383/0001-83</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>52</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="F30" t="n">
+        <v>874</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cupiditate</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>facilis</t>
+          <t>corrupti</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1107.67</v>
+        <v>8372.51</v>
       </c>
       <c r="J30" t="n">
-        <v>87.38</v>
+        <v>45.9</v>
       </c>
       <c r="K30" t="n">
-        <v>1195.05</v>
+        <v>8418.41</v>
       </c>
       <c r="L30" t="n">
-        <v>391</v>
+        <v>245</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>15/04/2024</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1027.74</v>
+        <v>7155.65</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>42855</v>
+        <v>332491</v>
       </c>
       <c r="Q30" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>2023/34</t>
+          <t>2023/21</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>22750</v>
+        <v>241577</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>14/02/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Marques - ME</t>
+          <t>Guerra S.A.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22.896.599/0001-00</t>
+          <t>62.166.085/0001-56</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>92</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>98</v>
+      </c>
+      <c r="F31" t="n">
+        <v>577</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>adipisci</t>
+          <t>aperiam</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>340.5</v>
+        <v>2630.32</v>
       </c>
       <c r="J31" t="n">
-        <v>70.87</v>
+        <v>88.25</v>
       </c>
       <c r="K31" t="n">
-        <v>411.37</v>
+        <v>2718.57</v>
       </c>
       <c r="L31" t="n">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>407.26</v>
+        <v>2691.38</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>948663</v>
+        <v>93858</v>
       </c>
       <c r="Q31" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2023/15</t>
+          <t>2023/40</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>204437</v>
+        <v>741640</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Cavalcanti - EI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>95.730.851/0001-47</t>
+          <t>13.346.332/0001-74</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>98</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="F32" t="n">
+        <v>565</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>distinctio</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>veniam</t>
+          <t>adipisci</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>7734.98</v>
+        <v>5460.71</v>
       </c>
       <c r="J32" t="n">
-        <v>46.45</v>
+        <v>21.14</v>
       </c>
       <c r="K32" t="n">
-        <v>7781.429999999999</v>
+        <v>5481.85</v>
       </c>
       <c r="L32" t="n">
-        <v>120</v>
+        <v>452</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>7314.54</v>
+        <v>4933.66</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>861505</v>
+        <v>350470</v>
       </c>
       <c r="Q32" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2023/62</t>
+          <t>2023/67</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>653849</v>
+        <v>646586</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Moreira</t>
+          <t>Freitas e Filhos</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31.040.378/0001-00</t>
+          <t>65.016.267/0001-47</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>73</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="F33" t="n">
+        <v>956</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>quaerat</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>deleniti</t>
+          <t>iusto</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>8136.37</v>
+        <v>6984.39</v>
       </c>
       <c r="J33" t="n">
-        <v>39.17</v>
+        <v>47.99</v>
       </c>
       <c r="K33" t="n">
-        <v>8175.54</v>
+        <v>7032.38</v>
       </c>
       <c r="L33" t="n">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>16/05/2023</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>8012.03</v>
+        <v>5977.52</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>442403</v>
+        <v>587892</v>
       </c>
       <c r="Q33" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2023/97</t>
+          <t>2023/42</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56366</v>
+        <v>834226</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24/07/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Moura - EI</t>
+          <t>Gonçalves</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17.960.737/0001-83</t>
+          <t>26.227.006/0001-65</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>97</v>
+      </c>
+      <c r="F34" t="n">
+        <v>766</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>quos</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>consectetur</t>
+          <t>recusandae</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8377.35</v>
+        <v>4469.89</v>
       </c>
       <c r="J34" t="n">
-        <v>30.93</v>
+        <v>32.66</v>
       </c>
       <c r="K34" t="n">
-        <v>8408.280000000001</v>
+        <v>4502.55</v>
       </c>
       <c r="L34" t="n">
-        <v>483</v>
+        <v>276</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>28/05/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>7735.62</v>
+        <v>4457.52</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>582184</v>
+        <v>171124</v>
       </c>
       <c r="Q34" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2023/93</t>
+          <t>2023/70</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>175670</v>
+        <v>162519</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>Brito</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10.659.997/0001-74</t>
+          <t>13.788.997/0001-38</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>73</v>
+      </c>
+      <c r="F35" t="n">
+        <v>945</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>voluptate</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cumque</t>
+          <t>accusantium</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9148.860000000001</v>
+        <v>4239.93</v>
       </c>
       <c r="J35" t="n">
-        <v>16.4</v>
+        <v>14.51</v>
       </c>
       <c r="K35" t="n">
-        <v>9165.26</v>
+        <v>4254.440000000001</v>
       </c>
       <c r="L35" t="n">
-        <v>546</v>
+        <v>166</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>19/11/2023</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>9165.26</v>
+        <v>4041.72</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>560319</v>
+        <v>690551</v>
       </c>
       <c r="Q35" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>2023/73</t>
+          <t>2023/72</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>338560</v>
+        <v>867774</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11/06/2023</t>
+          <t>28/10/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fogaça Costela e Filhos</t>
+          <t>Pastor - ME</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>39.840.432/0001-38</t>
+          <t>83.938.120/0001-29</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>84</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>397</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>nam</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>dolore</t>
+          <t>officia</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4656.07</v>
+        <v>3386.45</v>
       </c>
       <c r="J36" t="n">
-        <v>95.51000000000001</v>
+        <v>86.58</v>
       </c>
       <c r="K36" t="n">
-        <v>4751.58</v>
+        <v>3473.03</v>
       </c>
       <c r="L36" t="n">
-        <v>485</v>
+        <v>320</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4038.84</v>
+        <v>3264.65</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>898408</v>
+        <v>388118</v>
       </c>
       <c r="Q36" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2023/74</t>
+          <t>2023/76</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>436927</v>
+        <v>271298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>26/08/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gonçalves Fonseca e Filhos</t>
+          <t>Fogaça</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>75.380.686/0001-92</t>
+          <t>84.516.329/0001-83</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="F37" t="n">
+        <v>873</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>assumenda</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>deserunt</t>
+          <t>eveniet</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2150.63</v>
+        <v>9824.83</v>
       </c>
       <c r="J37" t="n">
-        <v>17.28</v>
+        <v>63.88</v>
       </c>
       <c r="K37" t="n">
-        <v>2167.91</v>
+        <v>9888.709999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2016.16</v>
+        <v>8504.290000000001</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>240707</v>
+        <v>753823</v>
       </c>
       <c r="Q37" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2023/83</t>
+          <t>2023/16</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>607921</v>
+        <v>468375</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>27/08/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Novais da Conceição S.A.</t>
+          <t>Novaes e Filhos</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>46.607.520/0001-92</t>
+          <t>99.465.715/0001-10</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>47</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="F38" t="n">
+        <v>384</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>earum</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>impedit</t>
+          <t>vel</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3959.71</v>
+        <v>8213.74</v>
       </c>
       <c r="J38" t="n">
-        <v>74.93000000000001</v>
+        <v>64.63</v>
       </c>
       <c r="K38" t="n">
-        <v>4034.64</v>
+        <v>8278.369999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/03/2024</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3873.25</v>
+        <v>7698.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>423208</v>
+        <v>545344</v>
       </c>
       <c r="Q38" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2023/79</t>
+          <t>2023/71</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>424793</v>
+        <v>410375</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11/06/2023</t>
+          <t>04/06/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moraes</t>
+          <t>Costa Cavalcante e Filhos</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>88.609.846/0001-74</t>
+          <t>72.497.560/0001-47</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>57</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="F39" t="n">
+        <v>131</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>expedita</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>laboriosam</t>
+          <t>a</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4235.85</v>
+        <v>9993.24</v>
       </c>
       <c r="J39" t="n">
-        <v>32.1</v>
+        <v>96.95</v>
       </c>
       <c r="K39" t="n">
-        <v>4267.950000000001</v>
+        <v>10090.19</v>
       </c>
       <c r="L39" t="n">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3969.19</v>
+        <v>8778.469999999999</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>344674</v>
+        <v>612802</v>
       </c>
       <c r="Q39" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>2023/33</t>
+          <t>2023/95</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>714739</v>
+        <v>690567</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06/06/2023</t>
+          <t>10/06/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vargas Pinto - ME</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>41.584.993/0001-65</t>
+          <t>28.283.713/0001-29</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="F40" t="n">
+        <v>567</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>dignissimos</t>
+          <t>expedita</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2941.89</v>
+        <v>7680.8</v>
       </c>
       <c r="J40" t="n">
-        <v>28.31</v>
+        <v>11.69</v>
       </c>
       <c r="K40" t="n">
-        <v>2970.2</v>
+        <v>7692.49</v>
       </c>
       <c r="L40" t="n">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/12/2023</t>
+          <t>18/09/2023</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2821.69</v>
+        <v>7154.02</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>174478</v>
+        <v>455674</v>
       </c>
       <c r="Q40" t="n">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2023/88</t>
+          <t>2023/91</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>720234</v>
+        <v>609450</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>Câmara Cassiano - EI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>58.531.075/0001-38</t>
+          <t>55.001.487/0001-00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>96</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="F41" t="n">
+        <v>411</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>beatae</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>quo</t>
+          <t>eaque</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4203.98</v>
+        <v>6074.88</v>
       </c>
       <c r="J41" t="n">
-        <v>36.55</v>
+        <v>18.57</v>
       </c>
       <c r="K41" t="n">
-        <v>4240.53</v>
+        <v>6093.45</v>
       </c>
       <c r="L41" t="n">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>12/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3901.29</v>
+        <v>5910.65</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>501289</v>
+        <v>714313</v>
       </c>
       <c r="Q41" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2023/25</t>
+          <t>2023/24</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>497472</v>
+        <v>448832</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13/08/2023</t>
+          <t>19/11/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Montenegro S/A</t>
+          <t>Borges Vasconcelos - EI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>61.498.075/0001-47</t>
+          <t>44.466.560/0001-10</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="F42" t="n">
+        <v>199</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>explicabo</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>repellendus</t>
+          <t>dicta</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4177.04</v>
+        <v>5257.76</v>
       </c>
       <c r="J42" t="n">
-        <v>43.71</v>
+        <v>79.92</v>
       </c>
       <c r="K42" t="n">
-        <v>4220.75</v>
+        <v>5337.68</v>
       </c>
       <c r="L42" t="n">
-        <v>402</v>
+        <v>545</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3629.84</v>
+        <v>5284.3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>546363</v>
+        <v>277372</v>
       </c>
       <c r="Q42" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>2023/80</t>
+          <t>2023/86</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>387722</v>
+        <v>7008</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>27/03/2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cavalcante Macedo Ltda.</t>
+          <t>Vargas</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>77.139.279/0001-56</t>
+          <t>93.026.309/0001-74</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="F43" t="n">
+        <v>518</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>odio</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>debitis</t>
+          <t>quasi</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4300.84</v>
+        <v>6834.56</v>
       </c>
       <c r="J43" t="n">
-        <v>54.9</v>
+        <v>32.28</v>
       </c>
       <c r="K43" t="n">
-        <v>4355.74</v>
+        <v>6866.84</v>
       </c>
       <c r="L43" t="n">
-        <v>553</v>
+        <v>121</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4225.07</v>
+        <v>5974.15</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>611639</v>
+        <v>584620</v>
       </c>
       <c r="Q43" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2023/96</t>
+          <t>2023/87</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>248801</v>
+        <v>987893</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>13/04/2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Camargo</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>67.505.781/0001-47</t>
+          <t>59.481.900/0001-83</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>48</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="F44" t="n">
+        <v>223</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>excepturi</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>vero</t>
+          <t>corrupti</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5307.24</v>
+        <v>2132.04</v>
       </c>
       <c r="J44" t="n">
-        <v>98.14</v>
+        <v>82.81</v>
       </c>
       <c r="K44" t="n">
-        <v>5405.38</v>
+        <v>2214.85</v>
       </c>
       <c r="L44" t="n">
-        <v>225</v>
+        <v>523</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>5351.33</v>
+        <v>2170.55</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>670844</v>
+        <v>17239</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>2023/73</t>
+          <t>2023/59</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>905598</v>
+        <v>367224</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17/07/2023</t>
+          <t>30/08/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Duarte Vieira S/A</t>
+          <t>Moura</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>30.064.753/0001-56</t>
+          <t>37.853.280/0001-74</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>90</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="F45" t="n">
+        <v>257</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>beatae</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>natus</t>
+          <t>aliquam</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2952.53</v>
+        <v>2606.95</v>
       </c>
       <c r="J45" t="n">
-        <v>67.26000000000001</v>
+        <v>12</v>
       </c>
       <c r="K45" t="n">
-        <v>3019.79</v>
+        <v>2618.95</v>
       </c>
       <c r="L45" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>30/10/2023</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2657.42</v>
+        <v>2304.68</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>742272</v>
+        <v>267028</v>
       </c>
       <c r="Q45" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>2023/93</t>
+          <t>2023/29</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>688902</v>
+        <v>388050</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>19/09/2023</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Azevedo</t>
+          <t>Barros</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>95.568.034/0001-00</t>
+          <t>64.189.865/0001-47</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>55</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="F46" t="n">
+        <v>634</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>aspernatur</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>aliquam</t>
+          <t>amet</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5444.03</v>
+        <v>9644.440000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>46.45</v>
+        <v>40.13</v>
       </c>
       <c r="K46" t="n">
-        <v>5490.48</v>
+        <v>9684.57</v>
       </c>
       <c r="L46" t="n">
-        <v>335</v>
+        <v>497</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>25/06/2023</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4886.53</v>
+        <v>8522.42</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>629809</v>
+        <v>416997</v>
       </c>
       <c r="Q46" t="n">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>2023/72</t>
+          <t>2023/13</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>725564</v>
+        <v>102915</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>06/09/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Abreu</t>
+          <t>Castro - ME</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>96.402.495/0001-38</t>
+          <t>82.437.307/0001-00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>64</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="F47" t="n">
+        <v>961</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ducimus</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>voluptates</t>
+          <t>neque</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1870.26</v>
+        <v>3402.27</v>
       </c>
       <c r="J47" t="n">
-        <v>58.15</v>
+        <v>83.72</v>
       </c>
       <c r="K47" t="n">
-        <v>1928.41</v>
+        <v>3485.99</v>
       </c>
       <c r="L47" t="n">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>29/10/2023</t>
+          <t>19/02/2024</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1909.13</v>
+        <v>3311.69</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>193055</v>
+        <v>209268</v>
       </c>
       <c r="Q47" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>2023/71</t>
+          <t>2023/93</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>999560</v>
+        <v>433567</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12/08/2023</t>
+          <t>07/05/2024</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Farias</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>78.183.530/0001-00</t>
+          <t>44.742.875/0001-00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>38</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="F48" t="n">
+        <v>307</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>itaque</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>officiis</t>
+          <t>deserunt</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2479.02</v>
+        <v>7259.3</v>
       </c>
       <c r="J48" t="n">
-        <v>99.95999999999999</v>
+        <v>50.57</v>
       </c>
       <c r="K48" t="n">
-        <v>2578.98</v>
+        <v>7309.87</v>
       </c>
       <c r="L48" t="n">
-        <v>484</v>
+        <v>203</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>26/04/2024</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2450.03</v>
+        <v>6871.28</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>39698</v>
+        <v>564645</v>
       </c>
       <c r="Q48" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>2023/79</t>
+          <t>2023/44</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>556175</v>
+        <v>599181</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12/05/2024</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>da Mota - EI</t>
+          <t>Moura</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>65.539.580/0001-00</t>
+          <t>22.794.434/0001-00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="F49" t="n">
+        <v>743</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>veritatis</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>aut</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1734.96</v>
+        <v>276.87</v>
       </c>
       <c r="J49" t="n">
-        <v>80.15000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="K49" t="n">
-        <v>1815.11</v>
+        <v>342.17</v>
       </c>
       <c r="L49" t="n">
-        <v>551</v>
+        <v>419</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>06/01/2024</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1796.96</v>
+        <v>325.06</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>339489</v>
+        <v>919975</v>
       </c>
       <c r="Q49" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>2023/98</t>
+          <t>2023/87</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>861100</v>
+        <v>64299</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27/03/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mendonça e Filhos</t>
+          <t>Macedo Martins - EI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12.658.502/0001-00</t>
+          <t>67.513.305/0001-00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>94</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="F50" t="n">
+        <v>744</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>aliquam</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>qui</t>
+          <t>illo</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1973.78</v>
+        <v>9948.1</v>
       </c>
       <c r="J50" t="n">
-        <v>62.17</v>
+        <v>49.91</v>
       </c>
       <c r="K50" t="n">
-        <v>2035.95</v>
+        <v>9998.01</v>
       </c>
       <c r="L50" t="n">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2015.59</v>
+        <v>9998.01</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>685164</v>
+        <v>818758</v>
       </c>
       <c r="Q50" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>2023/27</t>
+          <t>2023/56</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>370245</v>
+        <v>6814</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>19/06/2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>da Mata - EI</t>
+          <t>Freitas Rocha S/A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>76.222.409/0001-65</t>
+          <t>90.952.013/0001-29</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>94</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="F51" t="n">
+        <v>830</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>sed</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>atque</t>
+          <t>illum</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>7407.14</v>
+        <v>8589.129999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>54.07</v>
+        <v>32.69</v>
       </c>
       <c r="K51" t="n">
-        <v>7461.21</v>
+        <v>8621.82</v>
       </c>
       <c r="L51" t="n">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>7461.21</v>
+        <v>7328.55</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>143905</v>
+        <v>632991</v>
       </c>
       <c r="Q51" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>2023/14</t>
+          <t>2023/49</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>964857</v>
+        <v>217130</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>23/03/2024</t>
+          <t>23/07/2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sampaio</t>
+          <t>Almeida</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24.399.457/0001-38</t>
+          <t>04.254.641/0001-74</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="F52" t="n">
+        <v>568</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>perspiciatis</t>
+          <t>dignissimos</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8838.549999999999</v>
+        <v>9264.51</v>
       </c>
       <c r="J52" t="n">
-        <v>59.42</v>
+        <v>29.79</v>
       </c>
       <c r="K52" t="n">
-        <v>8897.969999999999</v>
+        <v>9294.300000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>7919.19</v>
+        <v>9294.299999999999</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>697178</v>
+        <v>782674</v>
       </c>
       <c r="Q52" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>2023/44</t>
+          <t>2023/49</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>798453</v>
+        <v>579942</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>27/07/2023</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Abreu</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>43.656.662/0001-00</t>
+          <t>17.510.617/0001-92</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="F53" t="n">
+        <v>130</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>doloremque</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>odit</t>
+          <t>inventore</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8717.280000000001</v>
+        <v>4333.79</v>
       </c>
       <c r="J53" t="n">
-        <v>17.25</v>
+        <v>13.75</v>
       </c>
       <c r="K53" t="n">
-        <v>8734.530000000001</v>
+        <v>4347.54</v>
       </c>
       <c r="L53" t="n">
-        <v>393</v>
+        <v>206</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>10/07/2023</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>7511.7</v>
+        <v>3869.31</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>631965</v>
+        <v>193725</v>
       </c>
       <c r="Q53" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>2023/85</t>
+          <t>2023/38</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>330924</v>
+        <v>791856</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ramos Rodrigues S/A</t>
+          <t>Viana S/A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>38.042.948/0001-74</t>
+          <t>13.648.990/0001-29</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>59</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="F54" t="n">
+        <v>858</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>numquam</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>voluptatem</t>
+          <t>vitae</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2832.33</v>
+        <v>4985.27</v>
       </c>
       <c r="J54" t="n">
-        <v>41.74</v>
+        <v>50.18</v>
       </c>
       <c r="K54" t="n">
-        <v>2874.07</v>
+        <v>5035.450000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>12/04/2024</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2615.4</v>
+        <v>4330.49</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>347141</v>
+        <v>870334</v>
       </c>
       <c r="Q54" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>2023/89</t>
+          <t>2023/67</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>770446</v>
+        <v>894607</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>30/08/2023</t>
+          <t>10/09/2023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>93.049.537/0001-00</t>
+          <t>59.009.513/0001-65</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="F55" t="n">
+        <v>972</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>nostrum</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>quia</t>
+          <t>incidunt</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>8566.280000000001</v>
+        <v>2586.84</v>
       </c>
       <c r="J55" t="n">
-        <v>88.83</v>
+        <v>91.78</v>
       </c>
       <c r="K55" t="n">
-        <v>8655.110000000001</v>
+        <v>2678.62</v>
       </c>
       <c r="L55" t="n">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>10/08/2023</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>7529.95</v>
+        <v>2491.12</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>548522</v>
+        <v>971827</v>
       </c>
       <c r="Q55" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>2023/98</t>
+          <t>2023/28</t>
         </is>
       </c>
       <c r="S55" t="n">
@@ -4690,75 +4582,73 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>574772</v>
+        <v>469863</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>12/07/2023</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Câmara</t>
+          <t>Cardoso Jesus e Filhos</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>51.544.308/0001-47</t>
+          <t>37.225.640/0001-00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>87</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="F56" t="n">
+        <v>656</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>adipisci</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>quidem</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1408.87</v>
+        <v>671.2</v>
       </c>
       <c r="J56" t="n">
-        <v>92.79000000000001</v>
+        <v>14.88</v>
       </c>
       <c r="K56" t="n">
-        <v>1501.66</v>
+        <v>686.08</v>
       </c>
       <c r="L56" t="n">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>28/04/2024</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1306.44</v>
+        <v>686.08</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>622019</v>
+        <v>273786</v>
       </c>
       <c r="Q56" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>2023/18</t>
+          <t>2023/52</t>
         </is>
       </c>
       <c r="S56" t="n">
@@ -4767,537 +4657,523 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>203767</v>
+        <v>959178</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17/03/2024</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sousa</t>
+          <t>Campos Ltda.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>86.571.102/0001-74</t>
+          <t>24.997.655/0001-10</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>91</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="F57" t="n">
+        <v>533</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>voluptas</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>quae</t>
+          <t>aperiam</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7007.64</v>
+        <v>418.53</v>
       </c>
       <c r="J57" t="n">
-        <v>75.61</v>
+        <v>46.32</v>
       </c>
       <c r="K57" t="n">
-        <v>7083.25</v>
+        <v>464.85</v>
       </c>
       <c r="L57" t="n">
-        <v>489</v>
+        <v>207</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>6445.76</v>
+        <v>418.36</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>511875</v>
+        <v>249452</v>
       </c>
       <c r="Q57" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>2023/67</t>
+          <t>2023/77</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>125965</v>
+        <v>976241</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12/07/2023</t>
+          <t>06/06/2023</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Porto S/A</t>
+          <t>Campos</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>59.360.055/0001-47</t>
+          <t>14.513.739/0001-10</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>87</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="F58" t="n">
+        <v>536</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ipsum</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>qui</t>
+          <t>laborum</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5502.11</v>
+        <v>9718.84</v>
       </c>
       <c r="J58" t="n">
-        <v>35.96</v>
+        <v>99.06</v>
       </c>
       <c r="K58" t="n">
-        <v>5538.07</v>
+        <v>9817.9</v>
       </c>
       <c r="L58" t="n">
-        <v>150</v>
+        <v>408</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/03/2024</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4818.12</v>
+        <v>8934.290000000001</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>807781</v>
+        <v>377507</v>
       </c>
       <c r="Q58" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>2023/29</t>
+          <t>2023/30</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>138886</v>
+        <v>643051</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>14/04/2024</t>
+          <t>19/07/2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ramos e Filhos</t>
+          <t>Fonseca</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>66.371.025/0001-00</t>
+          <t>56.135.355/0001-00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>913</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>magni</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>laudantium</t>
+          <t>ut</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1119.74</v>
+        <v>8155.48</v>
       </c>
       <c r="J59" t="n">
-        <v>17.02</v>
+        <v>36.64</v>
       </c>
       <c r="K59" t="n">
-        <v>1136.76</v>
+        <v>8192.119999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>21/11/2023</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1057.19</v>
+        <v>7864.44</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>361504</v>
+        <v>915091</v>
       </c>
       <c r="Q59" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2023/59</t>
+          <t>2023/74</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>24784</v>
+        <v>236279</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>da Cruz</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>42.644.497/0001-47</t>
+          <t>09.548.082/0001-29</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>56</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="F60" t="n">
+        <v>666</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>excepturi</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fugiat</t>
+          <t>quae</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8094.63</v>
+        <v>3686.2</v>
       </c>
       <c r="J60" t="n">
-        <v>95.29000000000001</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>8189.92</v>
+        <v>3764.46</v>
       </c>
       <c r="L60" t="n">
-        <v>551</v>
+        <v>245</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/07/2023</t>
+          <t>29/05/2023</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>7780.42</v>
+        <v>3538.59</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>901775</v>
+        <v>659041</v>
       </c>
       <c r="Q60" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2023/79</t>
+          <t>2023/39</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>218757</v>
+        <v>961682</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>16/07/2023</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Machado Ltda.</t>
+          <t>Fogaça</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>39.753.653/0001-10</t>
+          <t>07.907.225/0001-83</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="F61" t="n">
+        <v>642</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>similique</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>eligendi</t>
+          <t>corrupti</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>6063.97</v>
+        <v>6794.51</v>
       </c>
       <c r="J61" t="n">
-        <v>21.3</v>
+        <v>31.54</v>
       </c>
       <c r="K61" t="n">
-        <v>6085.27</v>
+        <v>6826.05</v>
       </c>
       <c r="L61" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>09/08/2023</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>5841.86</v>
+        <v>6211.71</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>176198</v>
+        <v>667035</v>
       </c>
       <c r="Q61" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2023/52</t>
+          <t>2023/20</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>993456</v>
+        <v>611197</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>13/07/2023</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Azevedo Costela S.A.</t>
+          <t>Sá</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>43.146.026/0001-47</t>
+          <t>04.018.789/0001-00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>67</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>128</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>laudantium</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ullam</t>
+          <t>maxime</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1563.79</v>
+        <v>9076.76</v>
       </c>
       <c r="J62" t="n">
-        <v>41.1</v>
+        <v>37.81</v>
       </c>
       <c r="K62" t="n">
-        <v>1604.89</v>
+        <v>9114.57</v>
       </c>
       <c r="L62" t="n">
-        <v>234</v>
+        <v>483</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>30/03/2024</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1412.3</v>
+        <v>7929.68</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>465564</v>
+        <v>967250</v>
       </c>
       <c r="Q62" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2023/82</t>
+          <t>2023/84</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>349600</v>
+        <v>670546</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
+          <t>04/07/2023</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pereira S.A.</t>
+          <t>Andrade</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20.582.717/0001-47</t>
+          <t>13.869.147/0001-56</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>47</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>77</v>
+      </c>
+      <c r="F63" t="n">
+        <v>522</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>voluptatem</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>mollitia</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>9301.48</v>
+        <v>2385.68</v>
       </c>
       <c r="J63" t="n">
-        <v>50.76</v>
+        <v>25.93</v>
       </c>
       <c r="K63" t="n">
-        <v>9352.24</v>
+        <v>2411.61</v>
       </c>
       <c r="L63" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>13/04/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>7949.4</v>
+        <v>2363.38</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>559135</v>
+        <v>318045</v>
       </c>
       <c r="Q63" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2023/78</t>
+          <t>2023/63</t>
         </is>
       </c>
       <c r="S63" t="n">
@@ -5306,75 +5182,73 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>372598</v>
+        <v>611406</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22/12/2023</t>
+          <t>12/09/2023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Câmara</t>
+          <t>Azevedo</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>08.088.979/0001-38</t>
+          <t>15.820.670/0001-56</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="F64" t="n">
+        <v>920</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>illo</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cumque</t>
+          <t>ullam</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3677.75</v>
+        <v>4096.09</v>
       </c>
       <c r="J64" t="n">
-        <v>29.63</v>
+        <v>74.17</v>
       </c>
       <c r="K64" t="n">
-        <v>3707.38</v>
+        <v>4170.26</v>
       </c>
       <c r="L64" t="n">
-        <v>524</v>
+        <v>241</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>03/02/2024</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3707.38</v>
+        <v>3711.53</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>96816</v>
+        <v>933974</v>
       </c>
       <c r="Q64" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>2023/99</t>
+          <t>2023/50</t>
         </is>
       </c>
       <c r="S64" t="n">
@@ -5383,456 +5257,444 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>433685</v>
+        <v>801379</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>18/09/2023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fonseca</t>
+          <t>Dias</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>39.140.444/0001-92</t>
+          <t>45.567.308/0001-00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="F65" t="n">
+        <v>498</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>quam</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>rem</t>
+          <t>recusandae</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9363.690000000001</v>
+        <v>5684.55</v>
       </c>
       <c r="J65" t="n">
-        <v>95.72</v>
+        <v>59.85</v>
       </c>
       <c r="K65" t="n">
-        <v>9459.41</v>
+        <v>5744.400000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>382</v>
+        <v>568</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>25/04/2024</t>
+          <t>19/07/2023</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>8040.5</v>
+        <v>5686.96</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>774901</v>
+        <v>244527</v>
       </c>
       <c r="Q65" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>2023/65</t>
+          <t>2023/75</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>595180</v>
+        <v>363231</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Costa</t>
+          <t>Ferreira</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>31.639.168/0001-83</t>
+          <t>98.599.651/0001-10</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="F66" t="n">
+        <v>454</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>itaque</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>nesciunt</t>
+          <t>consequuntur</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5003.4</v>
+        <v>8725.08</v>
       </c>
       <c r="J66" t="n">
-        <v>21.66</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>5025.059999999999</v>
+        <v>8806.65</v>
       </c>
       <c r="L66" t="n">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>28/04/2024</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4974.81</v>
+        <v>7573.72</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>251697</v>
+        <v>230636</v>
       </c>
       <c r="Q66" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>2023/91</t>
+          <t>2023/40</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>565653</v>
+        <v>275181</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>12/09/2023</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Caldeira - EI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>43.353.138/0001-10</t>
+          <t>18.890.555/0001-38</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>97</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="F67" t="n">
+        <v>340</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>veritatis</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>ea</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3514.1</v>
+        <v>9066.190000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>39.07</v>
+        <v>73.88</v>
       </c>
       <c r="K67" t="n">
-        <v>3553.17</v>
+        <v>9140.07</v>
       </c>
       <c r="L67" t="n">
-        <v>575</v>
+        <v>385</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023</t>
+          <t>18/04/2024</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3553.17</v>
+        <v>7951.86</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>987826</v>
+        <v>635049</v>
       </c>
       <c r="Q67" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>2023/41</t>
+          <t>2023/86</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>550595</v>
+        <v>253332</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>24/08/2023</t>
+          <t>29/10/2023</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brito Cirino - ME</t>
+          <t>das Neves Nunes S/A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>90.128.474/0001-65</t>
+          <t>81.841.106/0001-10</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>77</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>992</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>sed</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>eius</t>
+          <t>a</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8737.059999999999</v>
+        <v>4133.87</v>
       </c>
       <c r="J68" t="n">
-        <v>64.2</v>
+        <v>80.95</v>
       </c>
       <c r="K68" t="n">
-        <v>8801.26</v>
+        <v>4214.82</v>
       </c>
       <c r="L68" t="n">
-        <v>515</v>
+        <v>240</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>27/12/2023</t>
+          <t>14/04/2024</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>8273.18</v>
+        <v>3582.6</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>574506</v>
+        <v>689883</v>
       </c>
       <c r="Q68" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>2023/30</t>
+          <t>2023/98</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>849276</v>
+        <v>136999</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Macedo</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>36.697.696/0001-29</t>
+          <t>78.009.459/0001-00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="F69" t="n">
+        <v>405</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>reprehenderit</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>sed</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6876.24</v>
+        <v>7960.74</v>
       </c>
       <c r="J69" t="n">
-        <v>34.22</v>
+        <v>22.81</v>
       </c>
       <c r="K69" t="n">
-        <v>6910.46</v>
+        <v>7983.55</v>
       </c>
       <c r="L69" t="n">
-        <v>435</v>
+        <v>300</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>6495.83</v>
+        <v>6786.02</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>282016</v>
+        <v>12741</v>
       </c>
       <c r="Q69" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>2023/79</t>
+          <t>2023/54</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>44400</v>
+        <v>32625</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dias Abreu Ltda.</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>81.075.302/0001-47</t>
+          <t>63.822.250/0001-00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>81</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="F70" t="n">
+        <v>727</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>neque</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>odit</t>
+          <t>enim</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3248.52</v>
+        <v>9195.4</v>
       </c>
       <c r="J70" t="n">
-        <v>38.23</v>
+        <v>11.64</v>
       </c>
       <c r="K70" t="n">
-        <v>3286.75</v>
+        <v>9207.039999999999</v>
       </c>
       <c r="L70" t="n">
-        <v>593</v>
+        <v>285</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>31/03/2024</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3155.28</v>
+        <v>8838.76</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>224726</v>
+        <v>573190</v>
       </c>
       <c r="Q70" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5840,2005 +5702,1953 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>919603</v>
+        <v>957985</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29/04/2024</t>
+          <t>12/09/2023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Camargo</t>
+          <t>Lopes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>78.124.751/0001-74</t>
+          <t>10.942.675/0001-38</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>61</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="F71" t="n">
+        <v>981</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>commodi</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>maxime</t>
+          <t>praesentium</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>169.82</v>
+        <v>138.12</v>
       </c>
       <c r="J71" t="n">
-        <v>39.33</v>
+        <v>41.07</v>
       </c>
       <c r="K71" t="n">
-        <v>209.15</v>
+        <v>179.19</v>
       </c>
       <c r="L71" t="n">
-        <v>514</v>
+        <v>134</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>25/02/2024</t>
+          <t>13/07/2023</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>190.33</v>
+        <v>179.19</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>320044</v>
+        <v>34811</v>
       </c>
       <c r="Q71" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>2023/48</t>
+          <t>2023/19</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>687242</v>
+        <v>684395</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>28/03/2024</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Siqueira Pires S.A.</t>
+          <t>Moura Costa Ltda.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>62.172.190/0001-65</t>
+          <t>24.427.677/0001-10</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>69</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="F72" t="n">
+        <v>707</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>eum</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>iusto</t>
+          <t>facilis</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7274.58</v>
+        <v>9839.23</v>
       </c>
       <c r="J72" t="n">
-        <v>37.89</v>
+        <v>94.25</v>
       </c>
       <c r="K72" t="n">
-        <v>7312.47</v>
+        <v>9933.48</v>
       </c>
       <c r="L72" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/09/2023</t>
+          <t>24/12/2023</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>7093.1</v>
+        <v>9337.469999999999</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>417868</v>
+        <v>376948</v>
       </c>
       <c r="Q72" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>2023/84</t>
+          <t>2023/58</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>436551</v>
+        <v>795635</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Peixoto</t>
+          <t>Pires</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>76.176.962/0001-92</t>
+          <t>37.492.640/0001-92</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>54</v>
+      </c>
+      <c r="F73" t="n">
+        <v>833</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>iusto</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>reprehenderit</t>
+          <t>odio</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>9007.65</v>
+        <v>1913.66</v>
       </c>
       <c r="J73" t="n">
-        <v>71.09999999999999</v>
+        <v>28.09</v>
       </c>
       <c r="K73" t="n">
-        <v>9078.75</v>
+        <v>1941.75</v>
       </c>
       <c r="L73" t="n">
-        <v>550</v>
+        <v>184</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>10/03/2024</t>
+          <t>20/04/2024</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>7898.51</v>
+        <v>1825.24</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>452173</v>
+        <v>97214</v>
       </c>
       <c r="Q73" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>2023/46</t>
+          <t>2023/45</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10917</v>
+        <v>543949</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>16/07/2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pastor Ltda.</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>75.865.311/0001-47</t>
+          <t>70.703.545/0001-74</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="F74" t="n">
+        <v>320</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>minima</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>temporibus</t>
+          <t>blanditiis</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>662.04</v>
+        <v>4091.95</v>
       </c>
       <c r="J74" t="n">
-        <v>65.04000000000001</v>
+        <v>23.74</v>
       </c>
       <c r="K74" t="n">
-        <v>727.0799999999999</v>
+        <v>4115.69</v>
       </c>
       <c r="L74" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>719.8099999999999</v>
+        <v>3909.91</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>265505</v>
+        <v>916172</v>
       </c>
       <c r="Q74" t="n">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>2023/93</t>
+          <t>2023/39</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>342973</v>
+        <v>713924</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>19/11/2023</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Teixeira</t>
+          <t>da Conceição Ltda.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>86.095.052/0001-47</t>
+          <t>44.394.109/0001-00</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="F75" t="n">
+        <v>370</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>accusantium</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>nulla</t>
+          <t>facere</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>867.28</v>
+        <v>1850.64</v>
       </c>
       <c r="J75" t="n">
-        <v>47.81</v>
+        <v>86.23</v>
       </c>
       <c r="K75" t="n">
-        <v>915.0899999999999</v>
+        <v>1936.87</v>
       </c>
       <c r="L75" t="n">
-        <v>482</v>
+        <v>588</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>878.49</v>
+        <v>1859.4</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>657232</v>
+        <v>932955</v>
       </c>
       <c r="Q75" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>2023/24</t>
+          <t>2023/66</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>573679</v>
+        <v>806168</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>25/10/2023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rocha S/A</t>
+          <t>Siqueira Ltda.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>34.874.189/0001-47</t>
+          <t>80.993.050/0001-56</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>84</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="F76" t="n">
+        <v>965</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>natus</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>excepturi</t>
+          <t>at</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2300.77</v>
+        <v>1395.36</v>
       </c>
       <c r="J76" t="n">
-        <v>84</v>
+        <v>19.31</v>
       </c>
       <c r="K76" t="n">
-        <v>2384.77</v>
+        <v>1414.67</v>
       </c>
       <c r="L76" t="n">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>17/02/2024</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2384.77</v>
+        <v>1400.52</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>135460</v>
+        <v>970784</v>
       </c>
       <c r="Q76" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2023/17</t>
+          <t>2023/46</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>935106</v>
+        <v>725580</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>26/04/2024</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Monteiro Sá - EI</t>
+          <t>Câmara Jesus - ME</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>49.874.550/0001-29</t>
+          <t>11.838.270/0001-92</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="F77" t="n">
+        <v>949</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>quas</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>possimus</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3188.5</v>
+        <v>4016.61</v>
       </c>
       <c r="J77" t="n">
-        <v>41.78</v>
+        <v>83.89</v>
       </c>
       <c r="K77" t="n">
-        <v>3230.28</v>
+        <v>4100.5</v>
       </c>
       <c r="L77" t="n">
-        <v>325</v>
+        <v>564</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>09/09/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3036.46</v>
+        <v>3772.46</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>441498</v>
+        <v>328936</v>
       </c>
       <c r="Q77" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2023/83</t>
+          <t>2023/87</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>701582</v>
+        <v>15502</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>Nogueira</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>60.010.818/0001-92</t>
+          <t>02.293.337/0001-00</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="F78" t="n">
+        <v>533</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>perspiciatis</t>
+          <t>Selo Seguranca</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>a</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>8826.52</v>
+        <v>9114.459999999999</v>
       </c>
       <c r="J78" t="n">
-        <v>29.47</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>8855.99</v>
+        <v>9213.779999999999</v>
       </c>
       <c r="L78" t="n">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>21/08/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>7881.83</v>
+        <v>8753.09</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>262874</v>
+        <v>299071</v>
       </c>
       <c r="Q78" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>2023/69</t>
+          <t>2023/22</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>48246</v>
+        <v>896674</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>21/05/2023</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sampaio e Filhos</t>
+          <t>Novaes</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>61.072.880/0001-47</t>
+          <t>87.703.772/0001-00</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="F79" t="n">
+        <v>509</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>impedit</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>quos</t>
+          <t>rerum</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3915.12</v>
+        <v>4123.89</v>
       </c>
       <c r="J79" t="n">
-        <v>32.15</v>
+        <v>88.37</v>
       </c>
       <c r="K79" t="n">
-        <v>3947.27</v>
+        <v>4212.26</v>
       </c>
       <c r="L79" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3355.18</v>
+        <v>3748.91</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>624627</v>
+        <v>812403</v>
       </c>
       <c r="Q79" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>2023/15</t>
+          <t>2023/13</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>665868</v>
+        <v>468228</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>13/07/2023</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Oliveira Andrade S.A.</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10.937.752/0001-29</t>
+          <t>19.920.467/0001-29</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>87</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="F80" t="n">
+        <v>451</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>aut</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>reiciendis</t>
+          <t>itaque</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>6221.33</v>
+        <v>5861.52</v>
       </c>
       <c r="J80" t="n">
-        <v>87.45</v>
+        <v>49.17</v>
       </c>
       <c r="K80" t="n">
-        <v>6308.78</v>
+        <v>5910.690000000001</v>
       </c>
       <c r="L80" t="n">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>09/09/2023</t>
+          <t>20/05/2023</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>6245.69</v>
+        <v>5319.62</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>450385</v>
+        <v>702879</v>
       </c>
       <c r="Q80" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2023/55</t>
+          <t>2023/34</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>957525</v>
+        <v>172251</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>30/03/2024</t>
+          <t>18/04/2024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Guerra</t>
+          <t>das Neves</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>80.438.648/0001-83</t>
+          <t>35.143.381/0001-00</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="F81" t="n">
+        <v>116</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>iste</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>assumenda</t>
+          <t>libero</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1799.78</v>
+        <v>8639.74</v>
       </c>
       <c r="J81" t="n">
-        <v>12.78</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>1812.56</v>
+        <v>8732.84</v>
       </c>
       <c r="L81" t="n">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>14/04/2024</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1540.68</v>
+        <v>8558.18</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>733651</v>
+        <v>792534</v>
       </c>
       <c r="Q81" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>2023/31</t>
+          <t>2023/97</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>820860</v>
+        <v>67245</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>26/10/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Carvalho</t>
+          <t>Casa Grande - ME</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>71.690.969/0001-47</t>
+          <t>25.844.135/0001-56</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="F82" t="n">
+        <v>642</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>aperiam</t>
+          <t>minima</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>8079.03</v>
+        <v>9063.040000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>60.64</v>
+        <v>11.37</v>
       </c>
       <c r="K82" t="n">
-        <v>8139.67</v>
+        <v>9074.410000000002</v>
       </c>
       <c r="L82" t="n">
-        <v>503</v>
+        <v>199</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>25/05/2023</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>7407.1</v>
+        <v>8076.22</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>175401</v>
+        <v>495043</v>
       </c>
       <c r="Q82" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>2023/49</t>
+          <t>2023/26</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>318934</v>
+        <v>598951</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>25/07/2023</t>
+          <t>04/11/2023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Correia Duarte - ME</t>
+          <t>Lima - ME</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>91.830.106/0001-00</t>
+          <t>05.222.190/0001-56</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="F83" t="n">
+        <v>905</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ullam</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>sint</t>
+          <t>soluta</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>302.68</v>
+        <v>8662.139999999999</v>
       </c>
       <c r="J83" t="n">
-        <v>90.29000000000001</v>
+        <v>14.09</v>
       </c>
       <c r="K83" t="n">
-        <v>392.97</v>
+        <v>8676.23</v>
       </c>
       <c r="L83" t="n">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>27/04/2024</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>365.46</v>
+        <v>7635.08</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>309036</v>
+        <v>276974</v>
       </c>
       <c r="Q83" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>2023/21</t>
+          <t>2023/59</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>314966</v>
+        <v>716299</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>03/06/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Rocha e Filhos</t>
+          <t>Almeida</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>56.083.165/0001-29</t>
+          <t>92.354.587/0001-47</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="F84" t="n">
+        <v>332</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>perferendis</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>delectus</t>
+          <t>atque</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>7579.72</v>
+        <v>154.61</v>
       </c>
       <c r="J84" t="n">
-        <v>53.43</v>
+        <v>25.43</v>
       </c>
       <c r="K84" t="n">
-        <v>7633.150000000001</v>
+        <v>180.04</v>
       </c>
       <c r="L84" t="n">
-        <v>254</v>
+        <v>506</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>21/10/2023</t>
+          <t>24/12/2023</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>7404.16</v>
+        <v>172.84</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>902926</v>
+        <v>495124</v>
       </c>
       <c r="Q84" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>2023/66</t>
+          <t>2023/57</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>446303</v>
+        <v>419321</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
+          <t>04/06/2023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Leão Siqueira S/A</t>
+          <t>Novais Pereira S.A.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>96.666.945/0001-83</t>
+          <t>79.448.273/0001-29</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>99</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>282</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>quidem</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>ipsum</t>
+          <t>harum</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1394.97</v>
+        <v>3898.01</v>
       </c>
       <c r="J85" t="n">
-        <v>65.76000000000001</v>
+        <v>46.61</v>
       </c>
       <c r="K85" t="n">
-        <v>1460.73</v>
+        <v>3944.62</v>
       </c>
       <c r="L85" t="n">
-        <v>384</v>
+        <v>493</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>17/04/2024</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>1285.44</v>
+        <v>3905.17</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>862172</v>
+        <v>867217</v>
       </c>
       <c r="Q85" t="n">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>2023/74</t>
+          <t>2023/13</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>188359</v>
+        <v>218377</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>04/04/2024</t>
+          <t>23/04/2024</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mendes Aragão e Filhos</t>
+          <t>Carvalho Rezende - ME</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>60.810.751/0001-38</t>
+          <t>71.511.491/0001-83</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>76</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="F86" t="n">
+        <v>913</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>provident</t>
+          <t>Produto IPEM</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>laborum</t>
+          <t>molestias</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>9307.42</v>
+        <v>6240.09</v>
       </c>
       <c r="J86" t="n">
-        <v>67.73</v>
+        <v>93.14</v>
       </c>
       <c r="K86" t="n">
-        <v>9375.15</v>
+        <v>6333.23</v>
       </c>
       <c r="L86" t="n">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>9000.139999999999</v>
+        <v>5826.57</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>858946</v>
+        <v>737659</v>
       </c>
       <c r="Q86" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>2023/31</t>
+          <t>2023/50</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>150995</v>
+        <v>721847</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Rodrigues</t>
+          <t>Vargas Barros - EI</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>64.286.796/0001-65</t>
+          <t>01.803.274/0001-65</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>72</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="F87" t="n">
+        <v>425</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>excepturi</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>praesentium</t>
+          <t>rerum</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>5120.89</v>
+        <v>9258.6</v>
       </c>
       <c r="J87" t="n">
-        <v>83.11</v>
+        <v>97.12</v>
       </c>
       <c r="K87" t="n">
-        <v>5204</v>
+        <v>9355.720000000001</v>
       </c>
       <c r="L87" t="n">
-        <v>521</v>
+        <v>167</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4943.8</v>
+        <v>8326.59</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>184931</v>
+        <v>248552</v>
       </c>
       <c r="Q87" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>2023/59</t>
+          <t>2023/87</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>324198</v>
+        <v>149982</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>04/07/2023</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Borges</t>
+          <t>Porto e Filhos</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>13.180.846/0001-00</t>
+          <t>31.022.359/0001-00</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>56</v>
+      </c>
+      <c r="F88" t="n">
+        <v>631</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>explicabo</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>perferendis</t>
+          <t>est</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>9269.24</v>
+        <v>829.96</v>
       </c>
       <c r="J88" t="n">
-        <v>11.27</v>
+        <v>67.83</v>
       </c>
       <c r="K88" t="n">
-        <v>9280.51</v>
+        <v>897.7900000000001</v>
       </c>
       <c r="L88" t="n">
-        <v>398</v>
+        <v>574</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>10/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>8352.459999999999</v>
+        <v>897.79</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>196302</v>
+        <v>190018</v>
       </c>
       <c r="Q88" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>2023/52</t>
+          <t>2023/58</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>894495</v>
+        <v>652081</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>13/08/2023</t>
+          <t>18/04/2024</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Correia</t>
+          <t>Nascimento</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>02.000.464/0001-74</t>
+          <t>85.296.641/0001-47</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>17</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="F89" t="n">
+        <v>835</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>maiores</t>
+          <t>delectus</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3444.8</v>
+        <v>4975.33</v>
       </c>
       <c r="J89" t="n">
-        <v>76.63</v>
+        <v>51.78</v>
       </c>
       <c r="K89" t="n">
-        <v>3521.43</v>
+        <v>5027.11</v>
       </c>
       <c r="L89" t="n">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>25/10/2023</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2993.22</v>
+        <v>4725.48</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>173305</v>
+        <v>839707</v>
       </c>
       <c r="Q89" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>2023/85</t>
+          <t>2023/88</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39016</v>
+        <v>612811</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>17/07/2023</t>
+          <t>25/10/2023</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nunes S/A</t>
+          <t>Silva - ME</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>93.418.214/0001-47</t>
+          <t>57.913.438/0001-29</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="F90" t="n">
+        <v>894</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>officiis</t>
+          <t>Produto Selo</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>repellat</t>
+          <t>veniam</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>630.25</v>
+        <v>1840.7</v>
       </c>
       <c r="J90" t="n">
-        <v>61</v>
+        <v>44.21</v>
       </c>
       <c r="K90" t="n">
-        <v>691.25</v>
+        <v>1884.91</v>
       </c>
       <c r="L90" t="n">
-        <v>534</v>
+        <v>425</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>25/06/2023</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>629.04</v>
+        <v>1658.72</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>38276</v>
+        <v>805803</v>
       </c>
       <c r="Q90" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>2023/26</t>
+          <t>2023/69</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>515935</v>
+        <v>711183</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>12/02/2024</t>
+          <t>18/02/2024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Leão</t>
+          <t>Porto Pires S.A.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>14.481.095/0001-92</t>
+          <t>18.746.863/0001-00</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>17</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>94</v>
+      </c>
+      <c r="F91" t="n">
+        <v>913</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>fugiat</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>quis</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>5162.07</v>
+        <v>8655.76</v>
       </c>
       <c r="J91" t="n">
-        <v>80.58</v>
+        <v>79.53</v>
       </c>
       <c r="K91" t="n">
-        <v>5242.65</v>
+        <v>8735.290000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>447</v>
+        <v>127</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5137.8</v>
+        <v>8123.82</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>36550</v>
+        <v>621459</v>
       </c>
       <c r="Q91" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>2023/64</t>
+          <t>2023/94</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>631989</v>
+        <v>427007</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>08/06/2023</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Novais e Filhos</t>
+          <t>Aparecida</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>87.654.997/0001-65</t>
+          <t>71.434.754/0001-65</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>45</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="F92" t="n">
+        <v>747</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>laboriosam</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>dolores</t>
+          <t>ea</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>5306.84</v>
+        <v>7872.73</v>
       </c>
       <c r="J92" t="n">
-        <v>16.14</v>
+        <v>13.87</v>
       </c>
       <c r="K92" t="n">
-        <v>5322.98</v>
+        <v>7886.599999999999</v>
       </c>
       <c r="L92" t="n">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>05/07/2023</t>
+          <t>25/11/2023</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4577.76</v>
+        <v>7334.54</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>136270</v>
+        <v>415385</v>
       </c>
       <c r="Q92" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>2023/48</t>
+          <t>2023/60</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>810968</v>
+        <v>813790</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>17/08/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Viana Moreira e Filhos</t>
+          <t>Garcia Freitas S.A.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>11.137.062/0001-74</t>
+          <t>09.581.612/0001-65</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="F93" t="n">
+        <v>398</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>dicta</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>quia</t>
+          <t>aut</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1646.3</v>
+        <v>916.96</v>
       </c>
       <c r="J93" t="n">
-        <v>91.55</v>
+        <v>10.89</v>
       </c>
       <c r="K93" t="n">
-        <v>1737.85</v>
+        <v>927.85</v>
       </c>
       <c r="L93" t="n">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>09/04/2024</t>
+          <t>14/06/2023</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1685.71</v>
+        <v>872.1799999999999</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>17476</v>
+        <v>798284</v>
       </c>
       <c r="Q93" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>2023/47</t>
+          <t>2023/83</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>109533</v>
+        <v>27877</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Marques</t>
+          <t>Rios Cirino S.A.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11.817.013/0001-74</t>
+          <t>50.637.895/0001-56</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="F94" t="n">
+        <v>550</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>accusamus</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>quos</t>
+          <t>voluptates</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2725.15</v>
+        <v>7626.8</v>
       </c>
       <c r="J94" t="n">
-        <v>99.14</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>2824.29</v>
+        <v>7693.400000000001</v>
       </c>
       <c r="L94" t="n">
-        <v>242</v>
+        <v>516</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>03/06/2023</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2767.8</v>
+        <v>7616.47</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>985892</v>
+        <v>825779</v>
       </c>
       <c r="Q94" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>2023/56</t>
+          <t>2023/86</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>254058</v>
+        <v>778119</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>28/08/2023</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>da Cunha</t>
+          <t>da Rosa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>22.784.751/0001-38</t>
+          <t>96.061.180/0001-74</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>94</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="F95" t="n">
+        <v>173</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>provident</t>
+          <t>Produto IMETRO</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>facere</t>
+          <t>amet</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>4910.56</v>
+        <v>9806.52</v>
       </c>
       <c r="J95" t="n">
-        <v>46.9</v>
+        <v>45.65</v>
       </c>
       <c r="K95" t="n">
-        <v>4957.46</v>
+        <v>9852.17</v>
       </c>
       <c r="L95" t="n">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>16/05/2023</t>
+          <t>27/08/2023</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4610.44</v>
+        <v>8472.870000000001</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>686870</v>
+        <v>909120</v>
       </c>
       <c r="Q95" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>2023/62</t>
+          <t>2023/27</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>743482</v>
+        <v>285525</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>20/05/2023</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>da Conceição Castro Ltda.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>79.535.470/0001-00</t>
+          <t>46.484.368/0001-65</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="F96" t="n">
+        <v>169</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>libero</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>necessitatibus</t>
+          <t>ipsum</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>7637.8</v>
+        <v>1192.13</v>
       </c>
       <c r="J96" t="n">
-        <v>69.53</v>
+        <v>86.37</v>
       </c>
       <c r="K96" t="n">
-        <v>7707.33</v>
+        <v>1278.5</v>
       </c>
       <c r="L96" t="n">
-        <v>271</v>
+        <v>500</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>14/08/2023</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>7476.11</v>
+        <v>1163.43</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>385940</v>
+        <v>283122</v>
       </c>
       <c r="Q96" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>2023/39</t>
+          <t>2023/57</t>
         </is>
       </c>
       <c r="S96" t="n">
@@ -7847,387 +7657,377 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>611078</v>
+        <v>260114</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>08/10/2023</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Peixoto e Filhos</t>
+          <t>Costela</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>63.303.404/0001-74</t>
+          <t>37.173.809/0001-92</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>94</v>
+      </c>
+      <c r="F97" t="n">
+        <v>966</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>quisquam</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>distinctio</t>
+          <t>dignissimos</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>3256.08</v>
+        <v>1691.25</v>
       </c>
       <c r="J97" t="n">
-        <v>15.92</v>
+        <v>14.15</v>
       </c>
       <c r="K97" t="n">
-        <v>3272</v>
+        <v>1705.4</v>
       </c>
       <c r="L97" t="n">
-        <v>237</v>
+        <v>494</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>14/04/2024</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2912.08</v>
+        <v>1551.91</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>16572</v>
+        <v>667253</v>
       </c>
       <c r="Q97" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>2023/48</t>
+          <t>2023/69</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>325292</v>
+        <v>530046</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>27/04/2024</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Vargas</t>
+          <t>Aparecida</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>07.068.343/0001-29</t>
+          <t>36.021.296/0001-74</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>76</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="F98" t="n">
+        <v>516</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>voluptatem</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>officiis</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>6868.66</v>
+        <v>3002.81</v>
       </c>
       <c r="J98" t="n">
-        <v>14.15</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>6882.809999999999</v>
+        <v>3069.8</v>
       </c>
       <c r="L98" t="n">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>19/07/2023</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>6401.01</v>
+        <v>3039.1</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>917951</v>
+        <v>343458</v>
       </c>
       <c r="Q98" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>2023/58</t>
+          <t>2023/61</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>581749</v>
+        <v>971675</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>03/03/2024</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>Siqueira Garcia Ltda.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>03.689.210/0001-00</t>
+          <t>47.166.100/0001-56</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>95</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+      <c r="F99" t="n">
+        <v>825</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>sint</t>
+          <t>Selo Inspeção</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>porro</t>
+          <t>nobis</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>508.46</v>
+        <v>2742.88</v>
       </c>
       <c r="J99" t="n">
-        <v>53.43</v>
+        <v>22.57</v>
       </c>
       <c r="K99" t="n">
-        <v>561.89</v>
+        <v>2765.45</v>
       </c>
       <c r="L99" t="n">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>26/08/2023</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>550.65</v>
+        <v>2737.8</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>737106</v>
+        <v>811941</v>
       </c>
       <c r="Q99" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>2023/70</t>
+          <t>2023/44</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>66865</v>
+        <v>367081</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>17/08/2023</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>Azevedo das Neves e Filhos</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>44.496.158/0001-29</t>
+          <t>08.758.277/0001-65</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>174</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>harum</t>
+          <t>Produto Seguro</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>vero</t>
+          <t>asperiores</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>824.55</v>
+        <v>6859.82</v>
       </c>
       <c r="J100" t="n">
-        <v>74.92</v>
+        <v>57.02</v>
       </c>
       <c r="K100" t="n">
-        <v>899.4699999999999</v>
+        <v>6916.84</v>
       </c>
       <c r="L100" t="n">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/05/2024</t>
+          <t>26/10/2023</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>818.52</v>
+        <v>6017.65</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Retira</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>554367</v>
+        <v>977255</v>
       </c>
       <c r="Q100" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>2023/99</t>
+          <t>2023/90</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>543802</v>
+        <v>726955</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>29/08/2023</t>
+          <t>04/10/2023</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Teixeira e Filhos</t>
+          <t>Farias Sales - EI</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>26.809.568/0001-92</t>
+          <t>45.535.774/0001-47</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>72</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="F101" t="n">
+        <v>655</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>laborum</t>
+          <t>Selo lacre</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>quibusdam</t>
+          <t>similique</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>9005.1</v>
+        <v>1592.41</v>
       </c>
       <c r="J101" t="n">
-        <v>25.44</v>
+        <v>35.1</v>
       </c>
       <c r="K101" t="n">
-        <v>9030.540000000001</v>
+        <v>1627.51</v>
       </c>
       <c r="L101" t="n">
-        <v>134</v>
+        <v>529</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>30/08/2023</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>8849.93</v>
+        <v>1513.58</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sedex</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>73731</v>
+        <v>29984</v>
       </c>
       <c r="Q101" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>2023/31</t>
+          <t>2023/60</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
